--- a/user-data/poverty-200/poverty-200.xlsx
+++ b/user-data/poverty-200/poverty-200.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="344">
   <si>
     <t>id</t>
   </si>
@@ -1024,9 +1024,6 @@
     <t>Source: World Bank data bank (http://data.worldbank.org/indicator/SI.POV.2DAY)</t>
   </si>
   <si>
-    <t>Source-link: NA</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -1412,42 +1409,42 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15">
@@ -1463,11 +1460,6 @@
     <row r="17">
       <c r="A17" t="s">
         <v>343</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>344</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/poverty-200/poverty-200.xlsx
+++ b/user-data/poverty-200/poverty-200.xlsx
@@ -8,13 +8,14 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-original-value" sheetId="4" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="345">
   <si>
     <t>id</t>
   </si>
@@ -1033,7 +1034,10 @@
     <t>This data contains interpolated values. The interpolated values are typically contained in a column called 'value,' while the uninterpolated values are stored in 'original-value.'</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
+  </si>
+  <si>
+    <t>On the 'Data-wide-original-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'original-value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
@@ -1434,7 +1438,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13">
@@ -1444,22 +1448,32 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
         <v>343</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -64396,4 +64410,6760 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H1" t="s">
+        <v>312</v>
+      </c>
+      <c r="I1" t="s">
+        <v>313</v>
+      </c>
+      <c r="J1" t="s">
+        <v>314</v>
+      </c>
+      <c r="K1" t="s">
+        <v>315</v>
+      </c>
+      <c r="L1" t="s">
+        <v>316</v>
+      </c>
+      <c r="M1" t="s">
+        <v>317</v>
+      </c>
+      <c r="N1" t="s">
+        <v>318</v>
+      </c>
+      <c r="O1" t="s">
+        <v>319</v>
+      </c>
+      <c r="P1" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>321</v>
+      </c>
+      <c r="R1" t="s">
+        <v>322</v>
+      </c>
+      <c r="S1" t="s">
+        <v>323</v>
+      </c>
+      <c r="T1" t="s">
+        <v>324</v>
+      </c>
+      <c r="U1" t="s">
+        <v>325</v>
+      </c>
+      <c r="V1" t="s">
+        <v>326</v>
+      </c>
+      <c r="W1" t="s">
+        <v>327</v>
+      </c>
+      <c r="X1" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>329</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>330</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="P3"/>
+      <c r="Q3" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="Z3"/>
+      <c r="AA3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4" t="n">
+        <v>22.78</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5" t="n">
+        <v>70.21</v>
+      </c>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5" t="n">
+        <v>67.42</v>
+      </c>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="J7" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="K7" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="L7" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="M7" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="N7" t="n">
+        <v>14.88</v>
+      </c>
+      <c r="O7" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="P7" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="R7" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="S7" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="T7" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="U7" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="V7" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="W7" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8" t="n">
+        <v>38.87</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8" t="n">
+        <v>47</v>
+      </c>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8" t="n">
+        <v>50.84</v>
+      </c>
+      <c r="O8" t="n">
+        <v>47.05</v>
+      </c>
+      <c r="P8" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>32.02</v>
+      </c>
+      <c r="R8" t="n">
+        <v>22.46</v>
+      </c>
+      <c r="S8" t="n">
+        <v>18.55</v>
+      </c>
+      <c r="T8" t="n">
+        <v>20.15</v>
+      </c>
+      <c r="U8" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="V8" t="n">
+        <v>14.66</v>
+      </c>
+      <c r="W8" t="n">
+        <v>19.61</v>
+      </c>
+      <c r="X8" t="n">
+        <v>17.58</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z8"/>
+      <c r="AA8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9" t="n">
+        <v>53.85</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9" t="n">
+        <v>27</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10" t="n">
+        <v>92.99</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10" t="n">
+        <v>85.54</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10" t="n">
+        <v>84.4</v>
+      </c>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10" t="n">
+        <v>80.32</v>
+      </c>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10" t="n">
+        <v>76.54</v>
+      </c>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G11"/>
+      <c r="H11" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12" t="n">
+        <v>19.87</v>
+      </c>
+      <c r="G12" t="n">
+        <v>20.52</v>
+      </c>
+      <c r="H12" t="n">
+        <v>23.64</v>
+      </c>
+      <c r="I12" t="n">
+        <v>23.84</v>
+      </c>
+      <c r="J12" t="n">
+        <v>27.95</v>
+      </c>
+      <c r="K12" t="n">
+        <v>26.42</v>
+      </c>
+      <c r="L12" t="n">
+        <v>22</v>
+      </c>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13" t="n">
+        <v>75.32</v>
+      </c>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13" t="n">
+        <v>74.27</v>
+      </c>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14" t="n">
+        <v>46.94</v>
+      </c>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14" t="n">
+        <v>29.76</v>
+      </c>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="Z14"/>
+      <c r="AA14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="n">
+        <v>19.21</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15" t="n">
+        <v>21.27</v>
+      </c>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15" t="n">
+        <v>26.94</v>
+      </c>
+      <c r="K15"/>
+      <c r="L15" t="n">
+        <v>33.42</v>
+      </c>
+      <c r="M15" t="n">
+        <v>37.63</v>
+      </c>
+      <c r="N15" t="n">
+        <v>31.42</v>
+      </c>
+      <c r="O15" t="n">
+        <v>32.77</v>
+      </c>
+      <c r="P15"/>
+      <c r="Q15" t="n">
+        <v>22.96</v>
+      </c>
+      <c r="R15" t="n">
+        <v>28.19</v>
+      </c>
+      <c r="S15" t="n">
+        <v>24.47</v>
+      </c>
+      <c r="T15" t="n">
+        <v>23.24</v>
+      </c>
+      <c r="U15" t="n">
+        <v>18.18</v>
+      </c>
+      <c r="V15" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="W15"/>
+      <c r="X15" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>12.72</v>
+      </c>
+      <c r="Z15"/>
+      <c r="AA15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17" t="n">
+        <v>41.55</v>
+      </c>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17" t="n">
+        <v>27.83</v>
+      </c>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="n">
+        <v>29.24</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18" t="n">
+        <v>29.43</v>
+      </c>
+      <c r="F18" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="G18"/>
+      <c r="H18" t="n">
+        <v>19.68</v>
+      </c>
+      <c r="I18" t="n">
+        <v>20.81</v>
+      </c>
+      <c r="J18" t="n">
+        <v>20.47</v>
+      </c>
+      <c r="K18" t="n">
+        <v>19.27</v>
+      </c>
+      <c r="L18" t="n">
+        <v>20.15</v>
+      </c>
+      <c r="M18"/>
+      <c r="N18" t="n">
+        <v>20.31</v>
+      </c>
+      <c r="O18" t="n">
+        <v>18.95</v>
+      </c>
+      <c r="P18" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>17.46</v>
+      </c>
+      <c r="R18" t="n">
+        <v>15.48</v>
+      </c>
+      <c r="S18" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="T18" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="U18" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="V18" t="n">
+        <v>9.53</v>
+      </c>
+      <c r="W18"/>
+      <c r="X18" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="Z18"/>
+      <c r="AA18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19"/>
+      <c r="G19" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="I19"/>
+      <c r="J19" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O19"/>
+      <c r="P19" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V19"/>
+      <c r="W19" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="X19" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="Y19"/>
+      <c r="Z19"/>
+      <c r="AA19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20" t="n">
+        <v>85.83</v>
+      </c>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20" t="n">
+        <v>87.6</v>
+      </c>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20" t="n">
+        <v>72.53</v>
+      </c>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20" t="n">
+        <v>72.44</v>
+      </c>
+      <c r="W20"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21" t="n">
+        <v>95.18</v>
+      </c>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21" t="n">
+        <v>95.41</v>
+      </c>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21" t="n">
+        <v>93.45</v>
+      </c>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
+      <c r="Y21"/>
+      <c r="Z21"/>
+      <c r="AA21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22" t="n">
+        <v>50.75</v>
+      </c>
+      <c r="G22"/>
+      <c r="H22" t="n">
+        <v>47.95</v>
+      </c>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22" t="n">
+        <v>57.08</v>
+      </c>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22" t="n">
+        <v>56.88</v>
+      </c>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22" t="n">
+        <v>59.07</v>
+      </c>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22"/>
+      <c r="Y22"/>
+      <c r="Z22"/>
+      <c r="AA22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23" t="n">
+        <v>75.24</v>
+      </c>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23" t="n">
+        <v>64.43</v>
+      </c>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23" t="n">
+        <v>59.39</v>
+      </c>
+      <c r="U23" t="n">
+        <v>51.05</v>
+      </c>
+      <c r="V23" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="W23" t="n">
+        <v>40.88</v>
+      </c>
+      <c r="X23" t="n">
+        <v>41.26</v>
+      </c>
+      <c r="Y23"/>
+      <c r="Z23"/>
+      <c r="AA23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24" t="n">
+        <v>50.69</v>
+      </c>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24" t="n">
+        <v>53.15</v>
+      </c>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+      <c r="Y24"/>
+      <c r="Z24"/>
+      <c r="AA24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25" t="n">
+        <v>40.85</v>
+      </c>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25"/>
+      <c r="Y25"/>
+      <c r="Z25"/>
+      <c r="AA25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26" t="n">
+        <v>90.97</v>
+      </c>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26" t="n">
+        <v>81.9</v>
+      </c>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26" t="n">
+        <v>80.09</v>
+      </c>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26"/>
+      <c r="Y26"/>
+      <c r="Z26"/>
+      <c r="AA26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27" t="n">
+        <v>83.28</v>
+      </c>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27" t="n">
+        <v>60.54</v>
+      </c>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="n">
+        <v>13.73</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="F28"/>
+      <c r="G28" t="n">
+        <v>8.71</v>
+      </c>
+      <c r="H28"/>
+      <c r="I28" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="J28"/>
+      <c r="K28" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="L28"/>
+      <c r="M28" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W28"/>
+      <c r="X28" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Y28"/>
+      <c r="Z28"/>
+      <c r="AA28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="n">
+        <v>84.97</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29" t="n">
+        <v>79.56</v>
+      </c>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29" t="n">
+        <v>61.88</v>
+      </c>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29" t="n">
+        <v>50.73</v>
+      </c>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29" t="n">
+        <v>36.03</v>
+      </c>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="V29"/>
+      <c r="W29" t="n">
+        <v>23.19</v>
+      </c>
+      <c r="X29" t="n">
+        <v>18.61</v>
+      </c>
+      <c r="Y29"/>
+      <c r="Z29"/>
+      <c r="AA29"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30" t="n">
+        <v>17.29</v>
+      </c>
+      <c r="E30" t="n">
+        <v>14.02</v>
+      </c>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30" t="n">
+        <v>27.19</v>
+      </c>
+      <c r="M30" t="n">
+        <v>31.68</v>
+      </c>
+      <c r="N30" t="n">
+        <v>30.21</v>
+      </c>
+      <c r="O30" t="n">
+        <v>22.24</v>
+      </c>
+      <c r="P30" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>20.37</v>
+      </c>
+      <c r="R30" t="n">
+        <v>17.72</v>
+      </c>
+      <c r="S30" t="n">
+        <v>20.91</v>
+      </c>
+      <c r="T30" t="n">
+        <v>17.66</v>
+      </c>
+      <c r="U30" t="n">
+        <v>18.04</v>
+      </c>
+      <c r="V30" t="n">
+        <v>15.73</v>
+      </c>
+      <c r="W30" t="n">
+        <v>13.68</v>
+      </c>
+      <c r="X30" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z30"/>
+      <c r="AA30"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31" t="n">
+        <v>64.98</v>
+      </c>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
+      <c r="X31"/>
+      <c r="Y31"/>
+      <c r="Z31"/>
+      <c r="AA31"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32" t="n">
+        <v>74.4</v>
+      </c>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+      <c r="X32" t="n">
+        <v>57.25</v>
+      </c>
+      <c r="Y32"/>
+      <c r="Z32"/>
+      <c r="AA32"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" t="n">
+        <v>15.27</v>
+      </c>
+      <c r="D33" t="n">
+        <v>18.96</v>
+      </c>
+      <c r="E33" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="F33" t="n">
+        <v>12.39</v>
+      </c>
+      <c r="G33" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="H33" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="I33" t="n">
+        <v>12.89</v>
+      </c>
+      <c r="J33" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="K33" t="n">
+        <v>8.13</v>
+      </c>
+      <c r="L33" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="M33" t="n">
+        <v>10.92</v>
+      </c>
+      <c r="N33" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="O33" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="P33" t="n">
+        <v>9.22</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>8.74</v>
+      </c>
+      <c r="R33" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="S33" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="T33" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="U33" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="V33" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="W33" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="X33" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="Z33"/>
+      <c r="AA33"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="V34"/>
+      <c r="W34"/>
+      <c r="X34"/>
+      <c r="Y34"/>
+      <c r="Z34"/>
+      <c r="AA34"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+      <c r="X35"/>
+      <c r="Y35"/>
+      <c r="Z35"/>
+      <c r="AA35"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="T36"/>
+      <c r="U36" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Y36"/>
+      <c r="Z36"/>
+      <c r="AA36"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37" t="n">
+        <v>41.19</v>
+      </c>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37"/>
+      <c r="Y37"/>
+      <c r="Z37"/>
+      <c r="AA37"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
+      <c r="X38"/>
+      <c r="Y38"/>
+      <c r="Z38"/>
+      <c r="AA38"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39" t="n">
+        <v>14.62</v>
+      </c>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="J39" t="n">
+        <v>10.92</v>
+      </c>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="N39" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="O39" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="P39" t="n">
+        <v>14.82</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>19.77</v>
+      </c>
+      <c r="R39" t="n">
+        <v>14.59</v>
+      </c>
+      <c r="S39" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="T39" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="U39" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="V39" t="n">
+        <v>9.97</v>
+      </c>
+      <c r="W39" t="n">
+        <v>9.88</v>
+      </c>
+      <c r="X39" t="n">
+        <v>8.52</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>8.76</v>
+      </c>
+      <c r="Z39"/>
+      <c r="AA39"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40" t="n">
+        <v>95.15</v>
+      </c>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
+      <c r="W40"/>
+      <c r="X40"/>
+      <c r="Y40"/>
+      <c r="Z40"/>
+      <c r="AA40"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" t="n">
+        <v>27.64</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41" t="n">
+        <v>26.31</v>
+      </c>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41" t="n">
+        <v>19.37</v>
+      </c>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41" t="n">
+        <v>20.08</v>
+      </c>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41" t="n">
+        <v>15.43</v>
+      </c>
+      <c r="V41"/>
+      <c r="W41"/>
+      <c r="X41"/>
+      <c r="Y41"/>
+      <c r="Z41"/>
+      <c r="AA41"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42"/>
+      <c r="D42" t="n">
+        <v>29.24</v>
+      </c>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42" t="n">
+        <v>19.55</v>
+      </c>
+      <c r="I42" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="J42"/>
+      <c r="K42" t="n">
+        <v>26.56</v>
+      </c>
+      <c r="L42" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="M42" t="n">
+        <v>22.32</v>
+      </c>
+      <c r="N42" t="n">
+        <v>23.02</v>
+      </c>
+      <c r="O42" t="n">
+        <v>23.47</v>
+      </c>
+      <c r="P42" t="n">
+        <v>22.07</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>16.07</v>
+      </c>
+      <c r="R42" t="n">
+        <v>15.76</v>
+      </c>
+      <c r="S42" t="n">
+        <v>12.39</v>
+      </c>
+      <c r="T42" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="U42" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="V42" t="n">
+        <v>12.39</v>
+      </c>
+      <c r="W42" t="n">
+        <v>13.13</v>
+      </c>
+      <c r="X42" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z42"/>
+      <c r="AA42"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
+      <c r="X43"/>
+      <c r="Y43"/>
+      <c r="Z43"/>
+      <c r="AA43"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+      <c r="W44"/>
+      <c r="X44"/>
+      <c r="Y44"/>
+      <c r="Z44"/>
+      <c r="AA44"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="G45"/>
+      <c r="H45" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="L45"/>
+      <c r="M45" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="N45" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="O45" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Q45"/>
+      <c r="R45" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Y45"/>
+      <c r="Z45"/>
+      <c r="AA45"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46" t="n">
+        <v>86</v>
+      </c>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46" t="n">
+        <v>85.95</v>
+      </c>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46" t="n">
+        <v>77.63</v>
+      </c>
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46"/>
+      <c r="V46"/>
+      <c r="W46" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="X46"/>
+      <c r="Y46"/>
+      <c r="Z46"/>
+      <c r="AA46"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47" t="n">
+        <v>48.66</v>
+      </c>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="V47"/>
+      <c r="W47"/>
+      <c r="X47"/>
+      <c r="Y47"/>
+      <c r="Z47"/>
+      <c r="AA47"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48" t="n">
+        <v>20.88</v>
+      </c>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+      <c r="W48"/>
+      <c r="X48"/>
+      <c r="Y48"/>
+      <c r="Z48"/>
+      <c r="AA48"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49" t="n">
+        <v>81.23</v>
+      </c>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49" t="n">
+        <v>55.93</v>
+      </c>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="V49"/>
+      <c r="W49"/>
+      <c r="X49"/>
+      <c r="Y49"/>
+      <c r="Z49"/>
+      <c r="AA49"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50" t="n">
+        <v>14.01</v>
+      </c>
+      <c r="J50" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K50" t="n">
+        <v>29.97</v>
+      </c>
+      <c r="L50" t="n">
+        <v>36.21</v>
+      </c>
+      <c r="M50" t="n">
+        <v>38.92</v>
+      </c>
+      <c r="N50" t="n">
+        <v>40.82</v>
+      </c>
+      <c r="O50" t="n">
+        <v>33.47</v>
+      </c>
+      <c r="P50" t="n">
+        <v>36.46</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>33.52</v>
+      </c>
+      <c r="R50" t="n">
+        <v>32.88</v>
+      </c>
+      <c r="S50" t="n">
+        <v>32.92</v>
+      </c>
+      <c r="T50" t="n">
+        <v>33.41</v>
+      </c>
+      <c r="U50" t="n">
+        <v>31.78</v>
+      </c>
+      <c r="V50" t="n">
+        <v>31.76</v>
+      </c>
+      <c r="W50" t="n">
+        <v>35.76</v>
+      </c>
+      <c r="X50" t="n">
+        <v>33.51</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>31.28</v>
+      </c>
+      <c r="Z50"/>
+      <c r="AA50"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51"/>
+      <c r="D51" t="n">
+        <v>77.65</v>
+      </c>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51" t="n">
+        <v>63.34</v>
+      </c>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51" t="n">
+        <v>51.84</v>
+      </c>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+      <c r="W51"/>
+      <c r="X51"/>
+      <c r="Y51"/>
+      <c r="Z51"/>
+      <c r="AA51"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+      <c r="X52"/>
+      <c r="Y52"/>
+      <c r="Z52"/>
+      <c r="AA52"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53" t="n">
+        <v>30.06</v>
+      </c>
+      <c r="L53"/>
+      <c r="M53" t="n">
+        <v>25.23</v>
+      </c>
+      <c r="N53"/>
+      <c r="O53" t="n">
+        <v>32.96</v>
+      </c>
+      <c r="P53" t="n">
+        <v>30.27</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>31.19</v>
+      </c>
+      <c r="R53"/>
+      <c r="S53" t="n">
+        <v>26.01</v>
+      </c>
+      <c r="T53"/>
+      <c r="U53"/>
+      <c r="V53"/>
+      <c r="W53"/>
+      <c r="X53" t="n">
+        <v>29.79</v>
+      </c>
+      <c r="Y53"/>
+      <c r="Z53"/>
+      <c r="AA53"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54"/>
+      <c r="D54" t="n">
+        <v>98.98</v>
+      </c>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54" t="n">
+        <v>81.65</v>
+      </c>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54" t="n">
+        <v>80.79</v>
+      </c>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54" t="n">
+        <v>65.92</v>
+      </c>
+      <c r="U54"/>
+      <c r="V54"/>
+      <c r="W54"/>
+      <c r="X54"/>
+      <c r="Y54" t="n">
+        <v>72.65</v>
+      </c>
+      <c r="Z54"/>
+      <c r="AA54"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55"/>
+      <c r="D55" t="n">
+        <v>58.49</v>
+      </c>
+      <c r="E55"/>
+      <c r="F55" t="n">
+        <v>84.61</v>
+      </c>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55" t="n">
+        <v>77.96</v>
+      </c>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55"/>
+      <c r="X55"/>
+      <c r="Y55"/>
+      <c r="Z55"/>
+      <c r="AA55"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56" t="n">
+        <v>17.08</v>
+      </c>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56" t="n">
+        <v>18.02</v>
+      </c>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
+      <c r="W56"/>
+      <c r="X56"/>
+      <c r="Y56"/>
+      <c r="Z56"/>
+      <c r="AA56"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57" t="n">
+        <v>77.51</v>
+      </c>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57"/>
+      <c r="W57"/>
+      <c r="X57"/>
+      <c r="Y57"/>
+      <c r="Z57"/>
+      <c r="AA57"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" t="n">
+        <v>64.95</v>
+      </c>
+      <c r="D58" t="n">
+        <v>53.65</v>
+      </c>
+      <c r="E58" t="n">
+        <v>45.84</v>
+      </c>
+      <c r="F58" t="n">
+        <v>41.18</v>
+      </c>
+      <c r="G58" t="n">
+        <v>41.39</v>
+      </c>
+      <c r="H58" t="n">
+        <v>43.44</v>
+      </c>
+      <c r="I58" t="n">
+        <v>46.48</v>
+      </c>
+      <c r="J58" t="n">
+        <v>35.91</v>
+      </c>
+      <c r="K58" t="n">
+        <v>37.95</v>
+      </c>
+      <c r="L58" t="n">
+        <v>38.62</v>
+      </c>
+      <c r="M58"/>
+      <c r="N58" t="n">
+        <v>29.39</v>
+      </c>
+      <c r="O58" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="P58" t="n">
+        <v>39.88</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>38.44</v>
+      </c>
+      <c r="R58" t="n">
+        <v>39.48</v>
+      </c>
+      <c r="S58" t="n">
+        <v>34.48</v>
+      </c>
+      <c r="T58" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="U58" t="n">
+        <v>26.72</v>
+      </c>
+      <c r="V58" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="W58" t="n">
+        <v>26.28</v>
+      </c>
+      <c r="X58" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="Y58"/>
+      <c r="Z58"/>
+      <c r="AA58"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Q59"/>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="T59"/>
+      <c r="U59" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="V59"/>
+      <c r="W59" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Y59"/>
+      <c r="Z59"/>
+      <c r="AA59"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60" t="n">
+        <v>81.73</v>
+      </c>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60" t="n">
+        <v>75.62</v>
+      </c>
+      <c r="R60"/>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60"/>
+      <c r="V60" t="n">
+        <v>68.76</v>
+      </c>
+      <c r="W60"/>
+      <c r="X60" t="n">
+        <v>59.2391535916669</v>
+      </c>
+      <c r="Y60"/>
+      <c r="Z60"/>
+      <c r="AA60"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" t="n">
+        <v>84.59</v>
+      </c>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61" t="n">
+        <v>84.58</v>
+      </c>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61" t="n">
+        <v>77.02</v>
+      </c>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61" t="n">
+        <v>81.55</v>
+      </c>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61" t="n">
+        <v>67.13</v>
+      </c>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61" t="n">
+        <v>54.13</v>
+      </c>
+      <c r="S61"/>
+      <c r="T61"/>
+      <c r="U61" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="V61"/>
+      <c r="W61" t="n">
+        <v>46.32</v>
+      </c>
+      <c r="X61" t="n">
+        <v>43.33</v>
+      </c>
+      <c r="Y61"/>
+      <c r="Z61"/>
+      <c r="AA61"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>125</v>
+      </c>
+      <c r="B62" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" t="n">
+        <v>13.12</v>
+      </c>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+      <c r="Q62"/>
+      <c r="R62" t="n">
+        <v>8.03</v>
+      </c>
+      <c r="S62"/>
+      <c r="T62"/>
+      <c r="U62"/>
+      <c r="V62"/>
+      <c r="W62"/>
+      <c r="X62"/>
+      <c r="Y62"/>
+      <c r="Z62"/>
+      <c r="AA62"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+      <c r="Q63"/>
+      <c r="R63"/>
+      <c r="S63"/>
+      <c r="T63" t="n">
+        <v>22.39</v>
+      </c>
+      <c r="U63"/>
+      <c r="V63"/>
+      <c r="W63"/>
+      <c r="X63"/>
+      <c r="Y63" t="n">
+        <v>21.17</v>
+      </c>
+      <c r="Z63"/>
+      <c r="AA63"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" t="n">
+        <v>13.07</v>
+      </c>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64" t="n">
+        <v>14.37</v>
+      </c>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="M64"/>
+      <c r="N64" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="O64" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="P64"/>
+      <c r="Q64" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="R64"/>
+      <c r="S64"/>
+      <c r="T64"/>
+      <c r="U64"/>
+      <c r="V64"/>
+      <c r="W64"/>
+      <c r="X64"/>
+      <c r="Y64"/>
+      <c r="Z64"/>
+      <c r="AA64"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65" t="n">
+        <v>14.76</v>
+      </c>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="P65"/>
+      <c r="Q65"/>
+      <c r="R65"/>
+      <c r="S65" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T65"/>
+      <c r="U65" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V65"/>
+      <c r="W65" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X65"/>
+      <c r="Y65"/>
+      <c r="Z65"/>
+      <c r="AA65"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66" t="n">
+        <v>17.57</v>
+      </c>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66" t="n">
+        <v>18.76</v>
+      </c>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66" t="n">
+        <v>22.26</v>
+      </c>
+      <c r="O66" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="P66" t="n">
+        <v>13.28</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="S66" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="T66" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U66" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="V66"/>
+      <c r="W66" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="X66"/>
+      <c r="Y66"/>
+      <c r="Z66"/>
+      <c r="AA66"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>135</v>
+      </c>
+      <c r="B67" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67" t="n">
+        <v>59.32</v>
+      </c>
+      <c r="F67"/>
+      <c r="G67" t="n">
+        <v>53.65</v>
+      </c>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67" t="n">
+        <v>56.21</v>
+      </c>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="P67"/>
+      <c r="Q67"/>
+      <c r="R67" t="n">
+        <v>67.21</v>
+      </c>
+      <c r="S67"/>
+      <c r="T67"/>
+      <c r="U67"/>
+      <c r="V67"/>
+      <c r="W67"/>
+      <c r="X67"/>
+      <c r="Y67"/>
+      <c r="Z67"/>
+      <c r="AA67"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>137</v>
+      </c>
+      <c r="B68" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
+      <c r="Q68"/>
+      <c r="R68"/>
+      <c r="S68"/>
+      <c r="T68"/>
+      <c r="U68"/>
+      <c r="V68"/>
+      <c r="W68"/>
+      <c r="X68"/>
+      <c r="Y68"/>
+      <c r="Z68"/>
+      <c r="AA68"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
+      <c r="Q69"/>
+      <c r="R69"/>
+      <c r="S69"/>
+      <c r="T69"/>
+      <c r="U69"/>
+      <c r="V69"/>
+      <c r="W69"/>
+      <c r="X69"/>
+      <c r="Y69"/>
+      <c r="Z69"/>
+      <c r="AA69"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>141</v>
+      </c>
+      <c r="B70" t="s">
+        <v>142</v>
+      </c>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70" t="n">
+        <v>30.09</v>
+      </c>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70" t="n">
+        <v>60.77</v>
+      </c>
+      <c r="L70"/>
+      <c r="M70" t="n">
+        <v>71.51</v>
+      </c>
+      <c r="N70" t="n">
+        <v>66.51</v>
+      </c>
+      <c r="O70" t="n">
+        <v>65.33</v>
+      </c>
+      <c r="P70" t="n">
+        <v>61.31</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>39.26</v>
+      </c>
+      <c r="R70" t="n">
+        <v>45.31</v>
+      </c>
+      <c r="S70" t="n">
+        <v>36.02</v>
+      </c>
+      <c r="T70" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="U70" t="n">
+        <v>18.96</v>
+      </c>
+      <c r="V70" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="W70" t="n">
+        <v>21.05</v>
+      </c>
+      <c r="X70" t="n">
+        <v>21.06</v>
+      </c>
+      <c r="Y70"/>
+      <c r="Z70"/>
+      <c r="AA70"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>143</v>
+      </c>
+      <c r="B71" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71" t="n">
+        <v>84.82</v>
+      </c>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71" t="n">
+        <v>78.75</v>
+      </c>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71" t="n">
+        <v>74.89</v>
+      </c>
+      <c r="P71"/>
+      <c r="Q71"/>
+      <c r="R71"/>
+      <c r="S71"/>
+      <c r="T71" t="n">
+        <v>68.25</v>
+      </c>
+      <c r="U71"/>
+      <c r="V71"/>
+      <c r="W71"/>
+      <c r="X71"/>
+      <c r="Y71" t="n">
+        <v>62.01</v>
+      </c>
+      <c r="Z71"/>
+      <c r="AA71"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>145</v>
+      </c>
+      <c r="B72" t="s">
+        <v>146</v>
+      </c>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G72"/>
+      <c r="H72" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I72" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J72" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K72" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+      <c r="O72" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="P72"/>
+      <c r="Q72" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="R72"/>
+      <c r="S72" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="T72"/>
+      <c r="U72" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="V72"/>
+      <c r="W72" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="X72" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y72"/>
+      <c r="Z72"/>
+      <c r="AA72"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>147</v>
+      </c>
+      <c r="B73" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="O73"/>
+      <c r="P73"/>
+      <c r="Q73"/>
+      <c r="R73"/>
+      <c r="S73"/>
+      <c r="T73"/>
+      <c r="U73"/>
+      <c r="V73"/>
+      <c r="W73"/>
+      <c r="X73"/>
+      <c r="Y73"/>
+      <c r="Z73"/>
+      <c r="AA73"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>149</v>
+      </c>
+      <c r="B74" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74" t="n">
+        <v>79.57</v>
+      </c>
+      <c r="G74" t="n">
+        <v>69</v>
+      </c>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74" t="n">
+        <v>73.71</v>
+      </c>
+      <c r="P74"/>
+      <c r="Q74"/>
+      <c r="R74"/>
+      <c r="S74"/>
+      <c r="T74"/>
+      <c r="U74"/>
+      <c r="V74"/>
+      <c r="W74" t="n">
+        <v>73.39</v>
+      </c>
+      <c r="X74"/>
+      <c r="Y74"/>
+      <c r="Z74"/>
+      <c r="AA74"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>151</v>
+      </c>
+      <c r="B75" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="P75"/>
+      <c r="Q75"/>
+      <c r="R75"/>
+      <c r="S75"/>
+      <c r="T75" t="n">
+        <v>94.88</v>
+      </c>
+      <c r="U75"/>
+      <c r="V75"/>
+      <c r="W75"/>
+      <c r="X75"/>
+      <c r="Y75"/>
+      <c r="Z75"/>
+      <c r="AA75"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>153</v>
+      </c>
+      <c r="B76" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76"/>
+      <c r="P76"/>
+      <c r="Q76"/>
+      <c r="R76"/>
+      <c r="S76"/>
+      <c r="T76"/>
+      <c r="U76"/>
+      <c r="V76"/>
+      <c r="W76"/>
+      <c r="X76"/>
+      <c r="Y76"/>
+      <c r="Z76"/>
+      <c r="AA76"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>155</v>
+      </c>
+      <c r="B77" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77" t="n">
+        <v>16.87</v>
+      </c>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J77"/>
+      <c r="K77" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="L77"/>
+      <c r="M77" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="N77" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="O77" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="S77" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="T77"/>
+      <c r="U77" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="V77"/>
+      <c r="W77" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="X77" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="Y77"/>
+      <c r="Z77"/>
+      <c r="AA77"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>157</v>
+      </c>
+      <c r="B78" t="s">
+        <v>158</v>
+      </c>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
+      <c r="J78"/>
+      <c r="K78" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L78"/>
+      <c r="M78" t="n">
+        <v>11.27</v>
+      </c>
+      <c r="N78"/>
+      <c r="O78" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="T78"/>
+      <c r="U78" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="V78"/>
+      <c r="W78"/>
+      <c r="X78"/>
+      <c r="Y78"/>
+      <c r="Z78"/>
+      <c r="AA78"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>159</v>
+      </c>
+      <c r="B79" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79" t="n">
+        <v>85.58</v>
+      </c>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
+      <c r="J79" t="n">
+        <v>89.38</v>
+      </c>
+      <c r="K79"/>
+      <c r="L79" t="n">
+        <v>93.15</v>
+      </c>
+      <c r="M79"/>
+      <c r="N79" t="n">
+        <v>88.75</v>
+      </c>
+      <c r="O79"/>
+      <c r="P79"/>
+      <c r="Q79"/>
+      <c r="R79" t="n">
+        <v>93.06</v>
+      </c>
+      <c r="S79"/>
+      <c r="T79"/>
+      <c r="U79"/>
+      <c r="V79"/>
+      <c r="W79" t="n">
+        <v>95.13</v>
+      </c>
+      <c r="X79"/>
+      <c r="Y79"/>
+      <c r="Z79"/>
+      <c r="AA79"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>161</v>
+      </c>
+      <c r="B80" t="s">
+        <v>162</v>
+      </c>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80" t="n">
+        <v>93.57</v>
+      </c>
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80"/>
+      <c r="N80"/>
+      <c r="O80"/>
+      <c r="P80"/>
+      <c r="Q80" t="n">
+        <v>90.83</v>
+      </c>
+      <c r="R80"/>
+      <c r="S80"/>
+      <c r="T80"/>
+      <c r="U80"/>
+      <c r="V80"/>
+      <c r="W80" t="n">
+        <v>88.14</v>
+      </c>
+      <c r="X80"/>
+      <c r="Y80"/>
+      <c r="Z80"/>
+      <c r="AA80"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>163</v>
+      </c>
+      <c r="B81" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81" t="n">
+        <v>11</v>
+      </c>
+      <c r="I81"/>
+      <c r="J81" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81"/>
+      <c r="N81"/>
+      <c r="O81"/>
+      <c r="P81"/>
+      <c r="Q81" t="n">
+        <v>7.81</v>
+      </c>
+      <c r="R81"/>
+      <c r="S81"/>
+      <c r="T81" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="U81"/>
+      <c r="V81" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="W81"/>
+      <c r="X81"/>
+      <c r="Y81"/>
+      <c r="Z81"/>
+      <c r="AA81"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>165</v>
+      </c>
+      <c r="B82" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82" t="n">
+        <v>37.04</v>
+      </c>
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82"/>
+      <c r="O82"/>
+      <c r="P82"/>
+      <c r="Q82" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="R82"/>
+      <c r="S82"/>
+      <c r="T82"/>
+      <c r="U82"/>
+      <c r="V82"/>
+      <c r="W82"/>
+      <c r="X82"/>
+      <c r="Y82"/>
+      <c r="Z82"/>
+      <c r="AA82"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>167</v>
+      </c>
+      <c r="B83" t="s">
+        <v>168</v>
+      </c>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83" t="n">
+        <v>93.74</v>
+      </c>
+      <c r="H83"/>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="L83"/>
+      <c r="M83"/>
+      <c r="N83" t="n">
+        <v>82.04</v>
+      </c>
+      <c r="O83"/>
+      <c r="P83"/>
+      <c r="Q83"/>
+      <c r="R83"/>
+      <c r="S83" t="n">
+        <v>77.1</v>
+      </c>
+      <c r="T83"/>
+      <c r="U83"/>
+      <c r="V83"/>
+      <c r="W83" t="n">
+        <v>78.78</v>
+      </c>
+      <c r="X83"/>
+      <c r="Y83"/>
+      <c r="Z83"/>
+      <c r="AA83"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>169</v>
+      </c>
+      <c r="B84" t="s">
+        <v>170</v>
+      </c>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="L84"/>
+      <c r="M84"/>
+      <c r="N84"/>
+      <c r="O84"/>
+      <c r="P84"/>
+      <c r="Q84"/>
+      <c r="R84"/>
+      <c r="S84"/>
+      <c r="T84"/>
+      <c r="U84"/>
+      <c r="V84"/>
+      <c r="W84"/>
+      <c r="X84"/>
+      <c r="Y84"/>
+      <c r="Z84"/>
+      <c r="AA84"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>171</v>
+      </c>
+      <c r="B85" t="s">
+        <v>172</v>
+      </c>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85" t="n">
+        <v>68.59</v>
+      </c>
+      <c r="G85"/>
+      <c r="H85" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="I85"/>
+      <c r="J85"/>
+      <c r="K85"/>
+      <c r="L85"/>
+      <c r="M85" t="n">
+        <v>44.13</v>
+      </c>
+      <c r="N85"/>
+      <c r="O85"/>
+      <c r="P85"/>
+      <c r="Q85" t="n">
+        <v>52.59</v>
+      </c>
+      <c r="R85"/>
+      <c r="S85"/>
+      <c r="T85"/>
+      <c r="U85" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="V85"/>
+      <c r="W85"/>
+      <c r="X85"/>
+      <c r="Y85"/>
+      <c r="Z85"/>
+      <c r="AA85"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>173</v>
+      </c>
+      <c r="B86" t="s">
+        <v>174</v>
+      </c>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="L86"/>
+      <c r="M86"/>
+      <c r="N86"/>
+      <c r="O86"/>
+      <c r="P86"/>
+      <c r="Q86"/>
+      <c r="R86"/>
+      <c r="S86" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T86"/>
+      <c r="U86"/>
+      <c r="V86"/>
+      <c r="W86"/>
+      <c r="X86"/>
+      <c r="Y86" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Z86"/>
+      <c r="AA86"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>175</v>
+      </c>
+      <c r="B87" t="s">
+        <v>176</v>
+      </c>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="F87"/>
+      <c r="G87" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="H87"/>
+      <c r="I87" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="J87"/>
+      <c r="K87" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="L87"/>
+      <c r="M87" t="n">
+        <v>15.11</v>
+      </c>
+      <c r="N87"/>
+      <c r="O87" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="P87"/>
+      <c r="Q87" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="R87" t="n">
+        <v>10.62</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="T87"/>
+      <c r="U87" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="V87"/>
+      <c r="W87" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="X87"/>
+      <c r="Y87" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="Z87"/>
+      <c r="AA87"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>177</v>
+      </c>
+      <c r="B88" t="s">
+        <v>178</v>
+      </c>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="I88"/>
+      <c r="J88"/>
+      <c r="K88"/>
+      <c r="L88"/>
+      <c r="M88" t="n">
+        <v>44.69</v>
+      </c>
+      <c r="N88"/>
+      <c r="O88"/>
+      <c r="P88"/>
+      <c r="Q88"/>
+      <c r="R88"/>
+      <c r="S88"/>
+      <c r="T88"/>
+      <c r="U88"/>
+      <c r="V88"/>
+      <c r="W88"/>
+      <c r="X88"/>
+      <c r="Y88"/>
+      <c r="Z88"/>
+      <c r="AA88"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>179</v>
+      </c>
+      <c r="B89" t="s">
+        <v>180</v>
+      </c>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89" t="n">
+        <v>30.69</v>
+      </c>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="I89"/>
+      <c r="J89" t="n">
+        <v>37.67</v>
+      </c>
+      <c r="K89" t="n">
+        <v>51.92</v>
+      </c>
+      <c r="L89" t="n">
+        <v>65.1</v>
+      </c>
+      <c r="M89"/>
+      <c r="N89" t="n">
+        <v>53.47</v>
+      </c>
+      <c r="O89" t="n">
+        <v>38.27</v>
+      </c>
+      <c r="P89" t="n">
+        <v>24.99</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>25.68</v>
+      </c>
+      <c r="R89" t="n">
+        <v>35.13</v>
+      </c>
+      <c r="S89" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="T89" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="U89" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="V89" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="W89" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="X89" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y89"/>
+      <c r="Z89"/>
+      <c r="AA89"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>181</v>
+      </c>
+      <c r="B90" t="s">
+        <v>182</v>
+      </c>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+      <c r="H90"/>
+      <c r="I90"/>
+      <c r="J90"/>
+      <c r="K90"/>
+      <c r="L90"/>
+      <c r="M90"/>
+      <c r="N90"/>
+      <c r="O90"/>
+      <c r="P90"/>
+      <c r="Q90"/>
+      <c r="R90"/>
+      <c r="S90"/>
+      <c r="T90"/>
+      <c r="U90"/>
+      <c r="V90"/>
+      <c r="W90"/>
+      <c r="X90"/>
+      <c r="Y90"/>
+      <c r="Z90"/>
+      <c r="AA90"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>183</v>
+      </c>
+      <c r="B91" t="s">
+        <v>184</v>
+      </c>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
+      <c r="H91"/>
+      <c r="I91"/>
+      <c r="J91"/>
+      <c r="K91"/>
+      <c r="L91"/>
+      <c r="M91"/>
+      <c r="N91"/>
+      <c r="O91"/>
+      <c r="P91"/>
+      <c r="Q91"/>
+      <c r="R91" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="S91" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="T91" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="U91" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="W91" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="X91" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="Y91"/>
+      <c r="Z91"/>
+      <c r="AA91"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>185</v>
+      </c>
+      <c r="B92" t="s">
+        <v>186</v>
+      </c>
+      <c r="C92" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D92"/>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
+      <c r="H92"/>
+      <c r="I92"/>
+      <c r="J92"/>
+      <c r="K92" t="n">
+        <v>24.43</v>
+      </c>
+      <c r="L92"/>
+      <c r="M92"/>
+      <c r="N92" t="n">
+        <v>24.36</v>
+      </c>
+      <c r="O92"/>
+      <c r="P92"/>
+      <c r="Q92"/>
+      <c r="R92"/>
+      <c r="S92"/>
+      <c r="T92" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="U92"/>
+      <c r="V92"/>
+      <c r="W92"/>
+      <c r="X92"/>
+      <c r="Y92"/>
+      <c r="Z92"/>
+      <c r="AA92"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>187</v>
+      </c>
+      <c r="B93" t="s">
+        <v>188</v>
+      </c>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
+      <c r="H93"/>
+      <c r="I93" t="n">
+        <v>92.57</v>
+      </c>
+      <c r="J93"/>
+      <c r="K93"/>
+      <c r="L93"/>
+      <c r="M93"/>
+      <c r="N93"/>
+      <c r="O93" t="n">
+        <v>90.03</v>
+      </c>
+      <c r="P93"/>
+      <c r="Q93"/>
+      <c r="R93"/>
+      <c r="S93"/>
+      <c r="T93"/>
+      <c r="U93"/>
+      <c r="V93" t="n">
+        <v>82.49</v>
+      </c>
+      <c r="W93"/>
+      <c r="X93"/>
+      <c r="Y93"/>
+      <c r="Z93"/>
+      <c r="AA93"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>189</v>
+      </c>
+      <c r="B94" t="s">
+        <v>190</v>
+      </c>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="I94"/>
+      <c r="J94"/>
+      <c r="K94"/>
+      <c r="L94"/>
+      <c r="M94"/>
+      <c r="N94"/>
+      <c r="O94"/>
+      <c r="P94"/>
+      <c r="Q94"/>
+      <c r="R94"/>
+      <c r="S94"/>
+      <c r="T94"/>
+      <c r="U94"/>
+      <c r="V94"/>
+      <c r="W94"/>
+      <c r="X94"/>
+      <c r="Y94"/>
+      <c r="Z94"/>
+      <c r="AA94"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>191</v>
+      </c>
+      <c r="B95" t="s">
+        <v>192</v>
+      </c>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95" t="n">
+        <v>62.23</v>
+      </c>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95"/>
+      <c r="J95"/>
+      <c r="K95"/>
+      <c r="L95"/>
+      <c r="M95"/>
+      <c r="N95"/>
+      <c r="O95"/>
+      <c r="P95"/>
+      <c r="Q95" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="R95"/>
+      <c r="S95"/>
+      <c r="T95"/>
+      <c r="U95"/>
+      <c r="V95" t="n">
+        <v>43.15</v>
+      </c>
+      <c r="W95"/>
+      <c r="X95"/>
+      <c r="Y95"/>
+      <c r="Z95"/>
+      <c r="AA95"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>193</v>
+      </c>
+      <c r="B96" t="s">
+        <v>194</v>
+      </c>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+      <c r="H96" t="n">
+        <v>88.97</v>
+      </c>
+      <c r="I96"/>
+      <c r="J96"/>
+      <c r="K96"/>
+      <c r="L96"/>
+      <c r="M96"/>
+      <c r="N96"/>
+      <c r="O96"/>
+      <c r="P96" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="Q96"/>
+      <c r="R96"/>
+      <c r="S96"/>
+      <c r="T96"/>
+      <c r="U96"/>
+      <c r="V96"/>
+      <c r="W96" t="n">
+        <v>55.95</v>
+      </c>
+      <c r="X96"/>
+      <c r="Y96"/>
+      <c r="Z96"/>
+      <c r="AA96"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>195</v>
+      </c>
+      <c r="B97" t="s">
+        <v>196</v>
+      </c>
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="E97"/>
+      <c r="F97" t="n">
+        <v>50.47</v>
+      </c>
+      <c r="G97"/>
+      <c r="H97"/>
+      <c r="I97"/>
+      <c r="J97"/>
+      <c r="K97" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="L97"/>
+      <c r="M97"/>
+      <c r="N97" t="n">
+        <v>34.38</v>
+      </c>
+      <c r="O97"/>
+      <c r="P97"/>
+      <c r="Q97"/>
+      <c r="R97" t="n">
+        <v>16.26</v>
+      </c>
+      <c r="S97"/>
+      <c r="T97"/>
+      <c r="U97"/>
+      <c r="V97" t="n">
+        <v>20.77</v>
+      </c>
+      <c r="W97"/>
+      <c r="X97"/>
+      <c r="Y97"/>
+      <c r="Z97"/>
+      <c r="AA97"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>197</v>
+      </c>
+      <c r="B98" t="s">
+        <v>198</v>
+      </c>
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="E98" t="n">
+        <v>91.09</v>
+      </c>
+      <c r="F98"/>
+      <c r="G98" t="n">
+        <v>91.55</v>
+      </c>
+      <c r="H98"/>
+      <c r="I98"/>
+      <c r="J98"/>
+      <c r="K98"/>
+      <c r="L98"/>
+      <c r="M98"/>
+      <c r="N98"/>
+      <c r="O98"/>
+      <c r="P98"/>
+      <c r="Q98"/>
+      <c r="R98" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="S98"/>
+      <c r="T98" t="n">
+        <v>74.06</v>
+      </c>
+      <c r="U98"/>
+      <c r="V98"/>
+      <c r="W98"/>
+      <c r="X98" t="n">
+        <v>76.14</v>
+      </c>
+      <c r="Y98"/>
+      <c r="Z98"/>
+      <c r="AA98"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>199</v>
+      </c>
+      <c r="B99" t="s">
+        <v>200</v>
+      </c>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99" t="n">
+        <v>80.41</v>
+      </c>
+      <c r="F99"/>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="I99" t="n">
+        <v>86.53</v>
+      </c>
+      <c r="J99"/>
+      <c r="K99"/>
+      <c r="L99"/>
+      <c r="M99"/>
+      <c r="N99"/>
+      <c r="O99"/>
+      <c r="P99"/>
+      <c r="Q99" t="n">
+        <v>83.33</v>
+      </c>
+      <c r="R99"/>
+      <c r="S99"/>
+      <c r="T99"/>
+      <c r="U99"/>
+      <c r="V99"/>
+      <c r="W99" t="n">
+        <v>82.2</v>
+      </c>
+      <c r="X99"/>
+      <c r="Y99"/>
+      <c r="Z99"/>
+      <c r="AA99"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>201</v>
+      </c>
+      <c r="B100" t="s">
+        <v>202</v>
+      </c>
+      <c r="C100" t="n">
+        <v>88.18</v>
+      </c>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+      <c r="H100"/>
+      <c r="I100" t="n">
+        <v>83.26</v>
+      </c>
+      <c r="J100"/>
+      <c r="K100" t="n">
+        <v>66.54</v>
+      </c>
+      <c r="L100"/>
+      <c r="M100"/>
+      <c r="N100" t="n">
+        <v>73.91</v>
+      </c>
+      <c r="O100"/>
+      <c r="P100"/>
+      <c r="Q100" t="n">
+        <v>60.31</v>
+      </c>
+      <c r="R100" t="n">
+        <v>60.98</v>
+      </c>
+      <c r="S100"/>
+      <c r="T100" t="n">
+        <v>55.83</v>
+      </c>
+      <c r="U100"/>
+      <c r="V100"/>
+      <c r="W100" t="n">
+        <v>50.67</v>
+      </c>
+      <c r="X100"/>
+      <c r="Y100"/>
+      <c r="Z100"/>
+      <c r="AA100"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>203</v>
+      </c>
+      <c r="B101" t="s">
+        <v>204</v>
+      </c>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101"/>
+      <c r="H101"/>
+      <c r="I101"/>
+      <c r="J101"/>
+      <c r="K101"/>
+      <c r="L101"/>
+      <c r="M101"/>
+      <c r="N101"/>
+      <c r="O101"/>
+      <c r="P101"/>
+      <c r="Q101"/>
+      <c r="R101"/>
+      <c r="S101"/>
+      <c r="T101"/>
+      <c r="U101"/>
+      <c r="V101"/>
+      <c r="W101"/>
+      <c r="X101"/>
+      <c r="Y101"/>
+      <c r="Z101"/>
+      <c r="AA101"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>205</v>
+      </c>
+      <c r="B102" t="s">
+        <v>206</v>
+      </c>
+      <c r="C102"/>
+      <c r="D102"/>
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102"/>
+      <c r="H102"/>
+      <c r="I102"/>
+      <c r="J102"/>
+      <c r="K102"/>
+      <c r="L102"/>
+      <c r="M102"/>
+      <c r="N102"/>
+      <c r="O102"/>
+      <c r="P102"/>
+      <c r="Q102" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R102"/>
+      <c r="S102"/>
+      <c r="T102" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="U102"/>
+      <c r="V102" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="W102"/>
+      <c r="X102"/>
+      <c r="Y102"/>
+      <c r="Z102"/>
+      <c r="AA102"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>207</v>
+      </c>
+      <c r="B103" t="s">
+        <v>208</v>
+      </c>
+      <c r="C103"/>
+      <c r="D103" t="n">
+        <v>28.58</v>
+      </c>
+      <c r="E103"/>
+      <c r="F103"/>
+      <c r="G103"/>
+      <c r="H103" t="n">
+        <v>22.61</v>
+      </c>
+      <c r="I103"/>
+      <c r="J103" t="n">
+        <v>21.16</v>
+      </c>
+      <c r="K103" t="n">
+        <v>21</v>
+      </c>
+      <c r="L103" t="n">
+        <v>19.16</v>
+      </c>
+      <c r="M103" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="N103"/>
+      <c r="O103" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="P103" t="n">
+        <v>19.21</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>18.15</v>
+      </c>
+      <c r="R103" t="n">
+        <v>16.93</v>
+      </c>
+      <c r="S103" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="T103" t="n">
+        <v>14.89</v>
+      </c>
+      <c r="U103" t="n">
+        <v>10.77</v>
+      </c>
+      <c r="V103" t="n">
+        <v>8.12</v>
+      </c>
+      <c r="W103" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="X103" t="n">
+        <v>8.39</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>8.87</v>
+      </c>
+      <c r="Z103"/>
+      <c r="AA103"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>209</v>
+      </c>
+      <c r="B104" t="s">
+        <v>210</v>
+      </c>
+      <c r="C104"/>
+      <c r="D104"/>
+      <c r="E104"/>
+      <c r="F104"/>
+      <c r="G104"/>
+      <c r="H104"/>
+      <c r="I104" t="n">
+        <v>57.38</v>
+      </c>
+      <c r="J104"/>
+      <c r="K104"/>
+      <c r="L104"/>
+      <c r="M104"/>
+      <c r="N104"/>
+      <c r="O104"/>
+      <c r="P104"/>
+      <c r="Q104"/>
+      <c r="R104"/>
+      <c r="S104"/>
+      <c r="T104"/>
+      <c r="U104"/>
+      <c r="V104"/>
+      <c r="W104"/>
+      <c r="X104"/>
+      <c r="Y104"/>
+      <c r="Z104"/>
+      <c r="AA104"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>211</v>
+      </c>
+      <c r="B105" t="s">
+        <v>212</v>
+      </c>
+      <c r="C105" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="D105"/>
+      <c r="E105"/>
+      <c r="F105"/>
+      <c r="G105"/>
+      <c r="H105" t="n">
+        <v>20.73</v>
+      </c>
+      <c r="I105"/>
+      <c r="J105" t="n">
+        <v>17.31</v>
+      </c>
+      <c r="K105"/>
+      <c r="L105" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="M105"/>
+      <c r="N105" t="n">
+        <v>15.76</v>
+      </c>
+      <c r="O105" t="n">
+        <v>23.71</v>
+      </c>
+      <c r="P105" t="n">
+        <v>17.29</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>14.79</v>
+      </c>
+      <c r="R105" t="n">
+        <v>13.71</v>
+      </c>
+      <c r="S105" t="n">
+        <v>18.27</v>
+      </c>
+      <c r="T105" t="n">
+        <v>14.69</v>
+      </c>
+      <c r="U105" t="n">
+        <v>12.18</v>
+      </c>
+      <c r="V105" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="W105" t="n">
+        <v>11.41</v>
+      </c>
+      <c r="X105" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="Z105"/>
+      <c r="AA105"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>213</v>
+      </c>
+      <c r="B106" t="s">
+        <v>214</v>
+      </c>
+      <c r="C106"/>
+      <c r="D106"/>
+      <c r="E106"/>
+      <c r="F106"/>
+      <c r="G106" t="n">
+        <v>23.53</v>
+      </c>
+      <c r="H106"/>
+      <c r="I106"/>
+      <c r="J106" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="K106" t="n">
+        <v>26.34</v>
+      </c>
+      <c r="L106" t="n">
+        <v>27.94</v>
+      </c>
+      <c r="M106" t="n">
+        <v>24.07</v>
+      </c>
+      <c r="N106" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="O106" t="n">
+        <v>22.64</v>
+      </c>
+      <c r="P106" t="n">
+        <v>20.86</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>17.51</v>
+      </c>
+      <c r="R106" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="S106" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="T106" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="U106" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="V106" t="n">
+        <v>9.66</v>
+      </c>
+      <c r="W106" t="n">
+        <v>8.04</v>
+      </c>
+      <c r="X106" t="n">
+        <v>8.71</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="Z106"/>
+      <c r="AA106"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>215</v>
+      </c>
+      <c r="B107" t="s">
+        <v>216</v>
+      </c>
+      <c r="C107"/>
+      <c r="D107" t="n">
+        <v>57.91</v>
+      </c>
+      <c r="E107"/>
+      <c r="F107"/>
+      <c r="G107" t="n">
+        <v>55.21</v>
+      </c>
+      <c r="H107"/>
+      <c r="I107"/>
+      <c r="J107" t="n">
+        <v>46.31</v>
+      </c>
+      <c r="K107"/>
+      <c r="L107"/>
+      <c r="M107" t="n">
+        <v>47.29</v>
+      </c>
+      <c r="N107"/>
+      <c r="O107"/>
+      <c r="P107" t="n">
+        <v>44.84</v>
+      </c>
+      <c r="Q107"/>
+      <c r="R107"/>
+      <c r="S107" t="n">
+        <v>45</v>
+      </c>
+      <c r="T107"/>
+      <c r="U107"/>
+      <c r="V107" t="n">
+        <v>41.14</v>
+      </c>
+      <c r="W107"/>
+      <c r="X107"/>
+      <c r="Y107" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="Z107"/>
+      <c r="AA107"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>217</v>
+      </c>
+      <c r="B108" t="s">
+        <v>218</v>
+      </c>
+      <c r="C108"/>
+      <c r="D108"/>
+      <c r="E108" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F108"/>
+      <c r="G108"/>
+      <c r="H108"/>
+      <c r="I108" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="J108"/>
+      <c r="K108" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="P108"/>
+      <c r="Q108" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="R108" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="S108" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="T108" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="U108" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="W108" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="X108" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Y108"/>
+      <c r="Z108"/>
+      <c r="AA108"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>219</v>
+      </c>
+      <c r="B109" t="s">
+        <v>220</v>
+      </c>
+      <c r="C109"/>
+      <c r="D109"/>
+      <c r="E109" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F109"/>
+      <c r="G109" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="H109"/>
+      <c r="I109"/>
+      <c r="J109"/>
+      <c r="K109" t="n">
+        <v>10.23</v>
+      </c>
+      <c r="L109" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="M109"/>
+      <c r="N109" t="n">
+        <v>12.61</v>
+      </c>
+      <c r="O109" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="P109" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="R109" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="S109" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="T109" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="U109" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="X109" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Z109"/>
+      <c r="AA109"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>221</v>
+      </c>
+      <c r="B110" t="s">
+        <v>222</v>
+      </c>
+      <c r="C110"/>
+      <c r="D110"/>
+      <c r="E110"/>
+      <c r="F110" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="G110"/>
+      <c r="H110"/>
+      <c r="I110" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="J110"/>
+      <c r="K110"/>
+      <c r="L110" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="M110"/>
+      <c r="N110" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="O110" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="P110" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="R110" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S110" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T110" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="U110" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="W110"/>
+      <c r="X110"/>
+      <c r="Y110"/>
+      <c r="Z110"/>
+      <c r="AA110"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>223</v>
+      </c>
+      <c r="B111" t="s">
+        <v>224</v>
+      </c>
+      <c r="C111"/>
+      <c r="D111"/>
+      <c r="E111"/>
+      <c r="F111"/>
+      <c r="G111"/>
+      <c r="H111"/>
+      <c r="I111"/>
+      <c r="J111"/>
+      <c r="K111"/>
+      <c r="L111"/>
+      <c r="M111" t="n">
+        <v>91.6</v>
+      </c>
+      <c r="N111"/>
+      <c r="O111"/>
+      <c r="P111"/>
+      <c r="Q111"/>
+      <c r="R111"/>
+      <c r="S111" t="n">
+        <v>87.36</v>
+      </c>
+      <c r="T111"/>
+      <c r="U111"/>
+      <c r="V111"/>
+      <c r="W111"/>
+      <c r="X111" t="n">
+        <v>82.28</v>
+      </c>
+      <c r="Y111"/>
+      <c r="Z111"/>
+      <c r="AA111"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>225</v>
+      </c>
+      <c r="B112" t="s">
+        <v>226</v>
+      </c>
+      <c r="C112"/>
+      <c r="D112"/>
+      <c r="E112"/>
+      <c r="F112"/>
+      <c r="G112"/>
+      <c r="H112"/>
+      <c r="I112"/>
+      <c r="J112"/>
+      <c r="K112"/>
+      <c r="L112"/>
+      <c r="M112"/>
+      <c r="N112"/>
+      <c r="O112"/>
+      <c r="P112"/>
+      <c r="Q112"/>
+      <c r="R112"/>
+      <c r="S112"/>
+      <c r="T112"/>
+      <c r="U112"/>
+      <c r="V112"/>
+      <c r="W112"/>
+      <c r="X112"/>
+      <c r="Y112"/>
+      <c r="Z112"/>
+      <c r="AA112"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>227</v>
+      </c>
+      <c r="B113" t="s">
+        <v>228</v>
+      </c>
+      <c r="C113"/>
+      <c r="D113"/>
+      <c r="E113"/>
+      <c r="F113"/>
+      <c r="G113"/>
+      <c r="H113" t="n">
+        <v>40.63</v>
+      </c>
+      <c r="I113"/>
+      <c r="J113"/>
+      <c r="K113"/>
+      <c r="L113"/>
+      <c r="M113"/>
+      <c r="N113"/>
+      <c r="O113"/>
+      <c r="P113"/>
+      <c r="Q113"/>
+      <c r="R113"/>
+      <c r="S113"/>
+      <c r="T113"/>
+      <c r="U113"/>
+      <c r="V113"/>
+      <c r="W113"/>
+      <c r="X113"/>
+      <c r="Y113"/>
+      <c r="Z113"/>
+      <c r="AA113"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>229</v>
+      </c>
+      <c r="B114" t="s">
+        <v>230</v>
+      </c>
+      <c r="C114"/>
+      <c r="D114"/>
+      <c r="E114"/>
+      <c r="F114"/>
+      <c r="G114"/>
+      <c r="H114"/>
+      <c r="I114"/>
+      <c r="J114"/>
+      <c r="K114"/>
+      <c r="L114"/>
+      <c r="M114"/>
+      <c r="N114"/>
+      <c r="O114"/>
+      <c r="P114"/>
+      <c r="Q114"/>
+      <c r="R114"/>
+      <c r="S114"/>
+      <c r="T114"/>
+      <c r="U114"/>
+      <c r="V114"/>
+      <c r="W114"/>
+      <c r="X114"/>
+      <c r="Y114"/>
+      <c r="Z114"/>
+      <c r="AA114"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>231</v>
+      </c>
+      <c r="B115" t="s">
+        <v>232</v>
+      </c>
+      <c r="C115"/>
+      <c r="D115"/>
+      <c r="E115"/>
+      <c r="F115"/>
+      <c r="G115"/>
+      <c r="H115"/>
+      <c r="I115"/>
+      <c r="J115"/>
+      <c r="K115"/>
+      <c r="L115"/>
+      <c r="M115"/>
+      <c r="N115"/>
+      <c r="O115"/>
+      <c r="P115"/>
+      <c r="Q115"/>
+      <c r="R115"/>
+      <c r="S115"/>
+      <c r="T115"/>
+      <c r="U115"/>
+      <c r="V115"/>
+      <c r="W115"/>
+      <c r="X115"/>
+      <c r="Y115"/>
+      <c r="Z115"/>
+      <c r="AA115"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>233</v>
+      </c>
+      <c r="B116" t="s">
+        <v>234</v>
+      </c>
+      <c r="C116"/>
+      <c r="D116"/>
+      <c r="E116"/>
+      <c r="F116"/>
+      <c r="G116"/>
+      <c r="H116"/>
+      <c r="I116"/>
+      <c r="J116"/>
+      <c r="K116"/>
+      <c r="L116"/>
+      <c r="M116" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="N116"/>
+      <c r="O116"/>
+      <c r="P116"/>
+      <c r="Q116"/>
+      <c r="R116"/>
+      <c r="S116"/>
+      <c r="T116"/>
+      <c r="U116"/>
+      <c r="V116"/>
+      <c r="W116" t="n">
+        <v>73.08</v>
+      </c>
+      <c r="X116"/>
+      <c r="Y116"/>
+      <c r="Z116"/>
+      <c r="AA116"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>235</v>
+      </c>
+      <c r="B117" t="s">
+        <v>236</v>
+      </c>
+      <c r="C117"/>
+      <c r="D117" t="n">
+        <v>81.46</v>
+      </c>
+      <c r="E117"/>
+      <c r="F117"/>
+      <c r="G117" t="n">
+        <v>78.97</v>
+      </c>
+      <c r="H117"/>
+      <c r="I117"/>
+      <c r="J117"/>
+      <c r="K117"/>
+      <c r="L117"/>
+      <c r="M117"/>
+      <c r="N117" t="n">
+        <v>71.24</v>
+      </c>
+      <c r="O117"/>
+      <c r="P117"/>
+      <c r="Q117"/>
+      <c r="R117" t="n">
+        <v>60.36</v>
+      </c>
+      <c r="S117"/>
+      <c r="T117"/>
+      <c r="U117"/>
+      <c r="V117"/>
+      <c r="W117"/>
+      <c r="X117" t="n">
+        <v>60.31</v>
+      </c>
+      <c r="Y117"/>
+      <c r="Z117"/>
+      <c r="AA117"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>237</v>
+      </c>
+      <c r="B118" t="s">
+        <v>238</v>
+      </c>
+      <c r="C118"/>
+      <c r="D118"/>
+      <c r="E118"/>
+      <c r="F118"/>
+      <c r="G118"/>
+      <c r="H118"/>
+      <c r="I118"/>
+      <c r="J118"/>
+      <c r="K118"/>
+      <c r="L118"/>
+      <c r="M118"/>
+      <c r="N118"/>
+      <c r="O118" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="P118" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="R118" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="S118" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="T118" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="U118" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="V118" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="W118" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="X118"/>
+      <c r="Y118"/>
+      <c r="Z118"/>
+      <c r="AA118"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>239</v>
+      </c>
+      <c r="B119" t="s">
+        <v>240</v>
+      </c>
+      <c r="C119"/>
+      <c r="D119"/>
+      <c r="E119"/>
+      <c r="F119"/>
+      <c r="G119"/>
+      <c r="H119"/>
+      <c r="I119"/>
+      <c r="J119"/>
+      <c r="K119"/>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119"/>
+      <c r="N119"/>
+      <c r="O119"/>
+      <c r="P119"/>
+      <c r="Q119"/>
+      <c r="R119"/>
+      <c r="S119" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="T119"/>
+      <c r="U119"/>
+      <c r="V119"/>
+      <c r="W119"/>
+      <c r="X119"/>
+      <c r="Y119"/>
+      <c r="Z119"/>
+      <c r="AA119"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>241</v>
+      </c>
+      <c r="B120" t="s">
+        <v>242</v>
+      </c>
+      <c r="C120"/>
+      <c r="D120"/>
+      <c r="E120"/>
+      <c r="F120"/>
+      <c r="G120"/>
+      <c r="H120"/>
+      <c r="I120"/>
+      <c r="J120"/>
+      <c r="K120"/>
+      <c r="L120"/>
+      <c r="M120"/>
+      <c r="N120"/>
+      <c r="O120"/>
+      <c r="P120" t="n">
+        <v>81.99</v>
+      </c>
+      <c r="Q120"/>
+      <c r="R120"/>
+      <c r="S120"/>
+      <c r="T120"/>
+      <c r="U120"/>
+      <c r="V120"/>
+      <c r="W120"/>
+      <c r="X120" t="n">
+        <v>82.51</v>
+      </c>
+      <c r="Y120"/>
+      <c r="Z120"/>
+      <c r="AA120"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>243</v>
+      </c>
+      <c r="B121" t="s">
+        <v>244</v>
+      </c>
+      <c r="C121"/>
+      <c r="D121"/>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121"/>
+      <c r="G121"/>
+      <c r="H121"/>
+      <c r="I121" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="J121"/>
+      <c r="K121"/>
+      <c r="L121"/>
+      <c r="M121"/>
+      <c r="N121"/>
+      <c r="O121"/>
+      <c r="P121"/>
+      <c r="Q121" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="R121" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="S121" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T121"/>
+      <c r="U121" t="n">
+        <v>0</v>
+      </c>
+      <c r="V121" t="n">
+        <v>0</v>
+      </c>
+      <c r="W121" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X121" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="Y121"/>
+      <c r="Z121"/>
+      <c r="AA121"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>245</v>
+      </c>
+      <c r="B122" t="s">
+        <v>246</v>
+      </c>
+      <c r="C122"/>
+      <c r="D122"/>
+      <c r="E122"/>
+      <c r="F122"/>
+      <c r="G122"/>
+      <c r="H122"/>
+      <c r="I122"/>
+      <c r="J122"/>
+      <c r="K122"/>
+      <c r="L122"/>
+      <c r="M122"/>
+      <c r="N122"/>
+      <c r="O122"/>
+      <c r="P122"/>
+      <c r="Q122"/>
+      <c r="R122"/>
+      <c r="S122"/>
+      <c r="T122"/>
+      <c r="U122"/>
+      <c r="V122"/>
+      <c r="W122"/>
+      <c r="X122"/>
+      <c r="Y122"/>
+      <c r="Z122"/>
+      <c r="AA122"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>247</v>
+      </c>
+      <c r="B123" t="s">
+        <v>248</v>
+      </c>
+      <c r="C123"/>
+      <c r="D123"/>
+      <c r="E123"/>
+      <c r="F123"/>
+      <c r="G123"/>
+      <c r="H123"/>
+      <c r="I123"/>
+      <c r="J123"/>
+      <c r="K123"/>
+      <c r="L123"/>
+      <c r="M123"/>
+      <c r="N123"/>
+      <c r="O123"/>
+      <c r="P123"/>
+      <c r="Q123"/>
+      <c r="R123"/>
+      <c r="S123"/>
+      <c r="T123"/>
+      <c r="U123"/>
+      <c r="V123"/>
+      <c r="W123"/>
+      <c r="X123"/>
+      <c r="Y123"/>
+      <c r="Z123"/>
+      <c r="AA123"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>249</v>
+      </c>
+      <c r="B124" t="s">
+        <v>250</v>
+      </c>
+      <c r="C124"/>
+      <c r="D124"/>
+      <c r="E124"/>
+      <c r="F124"/>
+      <c r="G124"/>
+      <c r="H124"/>
+      <c r="I124"/>
+      <c r="J124"/>
+      <c r="K124"/>
+      <c r="L124"/>
+      <c r="M124"/>
+      <c r="N124"/>
+      <c r="O124"/>
+      <c r="P124"/>
+      <c r="Q124"/>
+      <c r="R124"/>
+      <c r="S124"/>
+      <c r="T124"/>
+      <c r="U124"/>
+      <c r="V124"/>
+      <c r="W124"/>
+      <c r="X124"/>
+      <c r="Y124"/>
+      <c r="Z124"/>
+      <c r="AA124"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>251</v>
+      </c>
+      <c r="B125" t="s">
+        <v>252</v>
+      </c>
+      <c r="C125"/>
+      <c r="D125"/>
+      <c r="E125"/>
+      <c r="F125" t="n">
+        <v>41.11</v>
+      </c>
+      <c r="G125"/>
+      <c r="H125" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="I125"/>
+      <c r="J125"/>
+      <c r="K125"/>
+      <c r="L125"/>
+      <c r="M125" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="N125"/>
+      <c r="O125"/>
+      <c r="P125"/>
+      <c r="Q125"/>
+      <c r="R125"/>
+      <c r="S125" t="n">
+        <v>35.15</v>
+      </c>
+      <c r="T125"/>
+      <c r="U125"/>
+      <c r="V125" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="W125"/>
+      <c r="X125" t="n">
+        <v>26.19</v>
+      </c>
+      <c r="Y125"/>
+      <c r="Z125"/>
+      <c r="AA125"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>253</v>
+      </c>
+      <c r="B126" t="s">
+        <v>254</v>
+      </c>
+      <c r="C126"/>
+      <c r="D126"/>
+      <c r="E126"/>
+      <c r="F126"/>
+      <c r="G126"/>
+      <c r="H126"/>
+      <c r="I126"/>
+      <c r="J126"/>
+      <c r="K126"/>
+      <c r="L126"/>
+      <c r="M126"/>
+      <c r="N126"/>
+      <c r="O126"/>
+      <c r="P126"/>
+      <c r="Q126"/>
+      <c r="R126"/>
+      <c r="S126"/>
+      <c r="T126"/>
+      <c r="U126"/>
+      <c r="V126"/>
+      <c r="W126"/>
+      <c r="X126"/>
+      <c r="Y126"/>
+      <c r="Z126"/>
+      <c r="AA126"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>255</v>
+      </c>
+      <c r="B127" t="s">
+        <v>256</v>
+      </c>
+      <c r="C127" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="D127"/>
+      <c r="E127"/>
+      <c r="F127"/>
+      <c r="G127"/>
+      <c r="H127" t="n">
+        <v>46.68</v>
+      </c>
+      <c r="I127"/>
+      <c r="J127"/>
+      <c r="K127"/>
+      <c r="L127"/>
+      <c r="M127"/>
+      <c r="N127"/>
+      <c r="O127" t="n">
+        <v>39.74</v>
+      </c>
+      <c r="P127"/>
+      <c r="Q127"/>
+      <c r="R127"/>
+      <c r="S127" t="n">
+        <v>29.13</v>
+      </c>
+      <c r="T127"/>
+      <c r="U127"/>
+      <c r="V127" t="n">
+        <v>23.85</v>
+      </c>
+      <c r="W127"/>
+      <c r="X127"/>
+      <c r="Y127"/>
+      <c r="Z127"/>
+      <c r="AA127"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>257</v>
+      </c>
+      <c r="B128" t="s">
+        <v>258</v>
+      </c>
+      <c r="C128"/>
+      <c r="D128"/>
+      <c r="E128"/>
+      <c r="F128"/>
+      <c r="G128"/>
+      <c r="H128"/>
+      <c r="I128"/>
+      <c r="J128"/>
+      <c r="K128"/>
+      <c r="L128"/>
+      <c r="M128"/>
+      <c r="N128"/>
+      <c r="O128"/>
+      <c r="P128"/>
+      <c r="Q128"/>
+      <c r="R128"/>
+      <c r="S128"/>
+      <c r="T128"/>
+      <c r="U128"/>
+      <c r="V128" t="n">
+        <v>44.14</v>
+      </c>
+      <c r="W128"/>
+      <c r="X128"/>
+      <c r="Y128"/>
+      <c r="Z128"/>
+      <c r="AA128"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>259</v>
+      </c>
+      <c r="B129" t="s">
+        <v>260</v>
+      </c>
+      <c r="C129"/>
+      <c r="D129"/>
+      <c r="E129"/>
+      <c r="F129"/>
+      <c r="G129"/>
+      <c r="H129"/>
+      <c r="I129"/>
+      <c r="J129"/>
+      <c r="K129"/>
+      <c r="L129" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="M129"/>
+      <c r="N129"/>
+      <c r="O129"/>
+      <c r="P129"/>
+      <c r="Q129"/>
+      <c r="R129"/>
+      <c r="S129"/>
+      <c r="T129"/>
+      <c r="U129"/>
+      <c r="V129"/>
+      <c r="W129"/>
+      <c r="X129"/>
+      <c r="Y129"/>
+      <c r="Z129"/>
+      <c r="AA129"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>261</v>
+      </c>
+      <c r="B130" t="s">
+        <v>262</v>
+      </c>
+      <c r="C130"/>
+      <c r="D130"/>
+      <c r="E130"/>
+      <c r="F130"/>
+      <c r="G130" t="n">
+        <v>89.31</v>
+      </c>
+      <c r="H130"/>
+      <c r="I130"/>
+      <c r="J130"/>
+      <c r="K130"/>
+      <c r="L130"/>
+      <c r="M130" t="n">
+        <v>64.13</v>
+      </c>
+      <c r="N130"/>
+      <c r="O130"/>
+      <c r="P130"/>
+      <c r="Q130"/>
+      <c r="R130"/>
+      <c r="S130"/>
+      <c r="T130"/>
+      <c r="U130"/>
+      <c r="V130" t="n">
+        <v>59.11</v>
+      </c>
+      <c r="W130"/>
+      <c r="X130"/>
+      <c r="Y130"/>
+      <c r="Z130"/>
+      <c r="AA130"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>263</v>
+      </c>
+      <c r="B131" t="s">
+        <v>264</v>
+      </c>
+      <c r="C131"/>
+      <c r="D131"/>
+      <c r="E131"/>
+      <c r="F131"/>
+      <c r="G131"/>
+      <c r="H131"/>
+      <c r="I131"/>
+      <c r="J131"/>
+      <c r="K131"/>
+      <c r="L131"/>
+      <c r="M131"/>
+      <c r="N131"/>
+      <c r="O131"/>
+      <c r="P131"/>
+      <c r="Q131" t="n">
+        <v>16.85</v>
+      </c>
+      <c r="R131"/>
+      <c r="S131"/>
+      <c r="T131"/>
+      <c r="U131"/>
+      <c r="V131"/>
+      <c r="W131"/>
+      <c r="X131"/>
+      <c r="Y131"/>
+      <c r="Z131"/>
+      <c r="AA131"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>265</v>
+      </c>
+      <c r="B132" t="s">
+        <v>266</v>
+      </c>
+      <c r="C132"/>
+      <c r="D132"/>
+      <c r="E132"/>
+      <c r="F132"/>
+      <c r="G132"/>
+      <c r="H132"/>
+      <c r="I132"/>
+      <c r="J132"/>
+      <c r="K132"/>
+      <c r="L132" t="n">
+        <v>82.24</v>
+      </c>
+      <c r="M132"/>
+      <c r="N132"/>
+      <c r="O132"/>
+      <c r="P132" t="n">
+        <v>68.47</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>50.07</v>
+      </c>
+      <c r="R132"/>
+      <c r="S132"/>
+      <c r="T132" t="n">
+        <v>36.91</v>
+      </c>
+      <c r="U132"/>
+      <c r="V132" t="n">
+        <v>27.36</v>
+      </c>
+      <c r="W132"/>
+      <c r="X132"/>
+      <c r="Y132"/>
+      <c r="Z132"/>
+      <c r="AA132"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>267</v>
+      </c>
+      <c r="B133" t="s">
+        <v>268</v>
+      </c>
+      <c r="C133"/>
+      <c r="D133"/>
+      <c r="E133" t="n">
+        <v>91.08</v>
+      </c>
+      <c r="F133"/>
+      <c r="G133"/>
+      <c r="H133"/>
+      <c r="I133"/>
+      <c r="J133"/>
+      <c r="K133"/>
+      <c r="L133"/>
+      <c r="M133" t="n">
+        <v>95.13</v>
+      </c>
+      <c r="N133"/>
+      <c r="O133"/>
+      <c r="P133"/>
+      <c r="Q133"/>
+      <c r="R133"/>
+      <c r="S133"/>
+      <c r="T133" t="n">
+        <v>87.87</v>
+      </c>
+      <c r="U133"/>
+      <c r="V133"/>
+      <c r="W133"/>
+      <c r="X133"/>
+      <c r="Y133" t="n">
+        <v>73</v>
+      </c>
+      <c r="Z133"/>
+      <c r="AA133"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>269</v>
+      </c>
+      <c r="B134" t="s">
+        <v>270</v>
+      </c>
+      <c r="C134" t="n">
+        <v>37.06</v>
+      </c>
+      <c r="D134"/>
+      <c r="E134" t="n">
+        <v>30.11</v>
+      </c>
+      <c r="F134"/>
+      <c r="G134" t="n">
+        <v>20.49</v>
+      </c>
+      <c r="H134"/>
+      <c r="I134" t="n">
+        <v>16.08</v>
+      </c>
+      <c r="J134"/>
+      <c r="K134" t="n">
+        <v>15.33</v>
+      </c>
+      <c r="L134" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="M134" t="n">
+        <v>18.03</v>
+      </c>
+      <c r="N134"/>
+      <c r="O134" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="P134"/>
+      <c r="Q134"/>
+      <c r="R134"/>
+      <c r="S134" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="T134"/>
+      <c r="U134" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="V134"/>
+      <c r="W134" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="X134"/>
+      <c r="Y134"/>
+      <c r="Z134"/>
+      <c r="AA134"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>271</v>
+      </c>
+      <c r="B135" t="s">
+        <v>272</v>
+      </c>
+      <c r="C135"/>
+      <c r="D135"/>
+      <c r="E135"/>
+      <c r="F135"/>
+      <c r="G135"/>
+      <c r="H135"/>
+      <c r="I135"/>
+      <c r="J135"/>
+      <c r="K135"/>
+      <c r="L135"/>
+      <c r="M135"/>
+      <c r="N135"/>
+      <c r="O135"/>
+      <c r="P135"/>
+      <c r="Q135"/>
+      <c r="R135"/>
+      <c r="S135"/>
+      <c r="T135" t="n">
+        <v>71.06</v>
+      </c>
+      <c r="U135"/>
+      <c r="V135"/>
+      <c r="W135"/>
+      <c r="X135"/>
+      <c r="Y135"/>
+      <c r="Z135"/>
+      <c r="AA135"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>273</v>
+      </c>
+      <c r="B136" t="s">
+        <v>274</v>
+      </c>
+      <c r="C136"/>
+      <c r="D136"/>
+      <c r="E136"/>
+      <c r="F136"/>
+      <c r="G136"/>
+      <c r="H136"/>
+      <c r="I136"/>
+      <c r="J136"/>
+      <c r="K136"/>
+      <c r="L136"/>
+      <c r="M136"/>
+      <c r="N136"/>
+      <c r="O136"/>
+      <c r="P136"/>
+      <c r="Q136"/>
+      <c r="R136"/>
+      <c r="S136" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="T136"/>
+      <c r="U136"/>
+      <c r="V136"/>
+      <c r="W136"/>
+      <c r="X136" t="n">
+        <v>72.75</v>
+      </c>
+      <c r="Y136"/>
+      <c r="Z136"/>
+      <c r="AA136"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>275</v>
+      </c>
+      <c r="B137" t="s">
+        <v>276</v>
+      </c>
+      <c r="C137"/>
+      <c r="D137"/>
+      <c r="E137"/>
+      <c r="F137"/>
+      <c r="G137"/>
+      <c r="H137"/>
+      <c r="I137"/>
+      <c r="J137"/>
+      <c r="K137"/>
+      <c r="L137"/>
+      <c r="M137"/>
+      <c r="N137"/>
+      <c r="O137"/>
+      <c r="P137"/>
+      <c r="Q137"/>
+      <c r="R137"/>
+      <c r="S137"/>
+      <c r="T137"/>
+      <c r="U137"/>
+      <c r="V137"/>
+      <c r="W137"/>
+      <c r="X137"/>
+      <c r="Y137"/>
+      <c r="Z137"/>
+      <c r="AA137"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>277</v>
+      </c>
+      <c r="B138" t="s">
+        <v>278</v>
+      </c>
+      <c r="C138"/>
+      <c r="D138"/>
+      <c r="E138" t="n">
+        <v>13.53</v>
+      </c>
+      <c r="F138"/>
+      <c r="G138"/>
+      <c r="H138"/>
+      <c r="I138"/>
+      <c r="J138"/>
+      <c r="K138"/>
+      <c r="L138"/>
+      <c r="M138"/>
+      <c r="N138"/>
+      <c r="O138"/>
+      <c r="P138"/>
+      <c r="Q138"/>
+      <c r="R138"/>
+      <c r="S138"/>
+      <c r="T138"/>
+      <c r="U138"/>
+      <c r="V138"/>
+      <c r="W138"/>
+      <c r="X138"/>
+      <c r="Y138"/>
+      <c r="Z138"/>
+      <c r="AA138"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>279</v>
+      </c>
+      <c r="B139" t="s">
+        <v>280</v>
+      </c>
+      <c r="C139" t="n">
+        <v>19.02</v>
+      </c>
+      <c r="D139"/>
+      <c r="E139"/>
+      <c r="F139"/>
+      <c r="G139"/>
+      <c r="H139" t="n">
+        <v>20.38</v>
+      </c>
+      <c r="I139"/>
+      <c r="J139"/>
+      <c r="K139"/>
+      <c r="L139"/>
+      <c r="M139" t="n">
+        <v>12.82</v>
+      </c>
+      <c r="N139"/>
+      <c r="O139"/>
+      <c r="P139"/>
+      <c r="Q139"/>
+      <c r="R139" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="S139"/>
+      <c r="T139"/>
+      <c r="U139"/>
+      <c r="V139"/>
+      <c r="W139" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="X139"/>
+      <c r="Y139"/>
+      <c r="Z139"/>
+      <c r="AA139"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>281</v>
+      </c>
+      <c r="B140" t="s">
+        <v>282</v>
+      </c>
+      <c r="C140"/>
+      <c r="D140"/>
+      <c r="E140"/>
+      <c r="F140"/>
+      <c r="G140" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="H140"/>
+      <c r="I140"/>
+      <c r="J140"/>
+      <c r="K140"/>
+      <c r="L140"/>
+      <c r="M140"/>
+      <c r="N140"/>
+      <c r="O140" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="P140" t="n">
+        <v>10.45</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="R140" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="S140" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="T140" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="U140" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="V140" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="W140" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="X140" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="Y140"/>
+      <c r="Z140"/>
+      <c r="AA140"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>283</v>
+      </c>
+      <c r="B141" t="s">
+        <v>284</v>
+      </c>
+      <c r="C141"/>
+      <c r="D141"/>
+      <c r="E141"/>
+      <c r="F141" t="n">
+        <v>85.71</v>
+      </c>
+      <c r="G141"/>
+      <c r="H141"/>
+      <c r="I141"/>
+      <c r="J141"/>
+      <c r="K141" t="n">
+        <v>49.65</v>
+      </c>
+      <c r="L141"/>
+      <c r="M141"/>
+      <c r="N141"/>
+      <c r="O141"/>
+      <c r="P141"/>
+      <c r="Q141"/>
+      <c r="R141"/>
+      <c r="S141"/>
+      <c r="T141"/>
+      <c r="U141"/>
+      <c r="V141"/>
+      <c r="W141"/>
+      <c r="X141"/>
+      <c r="Y141"/>
+      <c r="Z141"/>
+      <c r="AA141"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>285</v>
+      </c>
+      <c r="B142" t="s">
+        <v>286</v>
+      </c>
+      <c r="C142"/>
+      <c r="D142"/>
+      <c r="E142"/>
+      <c r="F142"/>
+      <c r="G142"/>
+      <c r="H142"/>
+      <c r="I142"/>
+      <c r="J142"/>
+      <c r="K142"/>
+      <c r="L142"/>
+      <c r="M142"/>
+      <c r="N142"/>
+      <c r="O142"/>
+      <c r="P142"/>
+      <c r="Q142"/>
+      <c r="R142"/>
+      <c r="S142"/>
+      <c r="T142"/>
+      <c r="U142"/>
+      <c r="V142"/>
+      <c r="W142"/>
+      <c r="X142"/>
+      <c r="Y142"/>
+      <c r="Z142"/>
+      <c r="AA142"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>287</v>
+      </c>
+      <c r="B143" t="s">
+        <v>288</v>
+      </c>
+      <c r="C143"/>
+      <c r="D143"/>
+      <c r="E143" t="n">
+        <v>89.51</v>
+      </c>
+      <c r="F143"/>
+      <c r="G143"/>
+      <c r="H143"/>
+      <c r="I143" t="n">
+        <v>85.24</v>
+      </c>
+      <c r="J143"/>
+      <c r="K143"/>
+      <c r="L143" t="n">
+        <v>82.01</v>
+      </c>
+      <c r="M143"/>
+      <c r="N143"/>
+      <c r="O143" t="n">
+        <v>79.33</v>
+      </c>
+      <c r="P143"/>
+      <c r="Q143"/>
+      <c r="R143" t="n">
+        <v>75.74</v>
+      </c>
+      <c r="S143"/>
+      <c r="T143"/>
+      <c r="U143"/>
+      <c r="V143" t="n">
+        <v>64.65</v>
+      </c>
+      <c r="W143"/>
+      <c r="X143"/>
+      <c r="Y143" t="n">
+        <v>62.85</v>
+      </c>
+      <c r="Z143"/>
+      <c r="AA143"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>289</v>
+      </c>
+      <c r="B144" t="s">
+        <v>290</v>
+      </c>
+      <c r="C144"/>
+      <c r="D144"/>
+      <c r="E144" t="n">
+        <v>0</v>
+      </c>
+      <c r="F144"/>
+      <c r="G144"/>
+      <c r="H144" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="I144" t="n">
+        <v>8.41</v>
+      </c>
+      <c r="J144"/>
+      <c r="K144"/>
+      <c r="L144" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="M144"/>
+      <c r="N144"/>
+      <c r="O144" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="P144" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="R144" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="S144" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="T144" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="U144" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="V144" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="W144" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="X144"/>
+      <c r="Y144"/>
+      <c r="Z144"/>
+      <c r="AA144"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>291</v>
+      </c>
+      <c r="B145" t="s">
+        <v>292</v>
+      </c>
+      <c r="C145"/>
+      <c r="D145"/>
+      <c r="E145" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="F145"/>
+      <c r="G145"/>
+      <c r="H145" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="I145" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="J145" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K145" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="L145"/>
+      <c r="M145" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="N145" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O145" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="P145" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="R145" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="S145" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T145" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="U145" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V145" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="W145" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X145" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Z145"/>
+      <c r="AA145"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>293</v>
+      </c>
+      <c r="B146" t="s">
+        <v>294</v>
+      </c>
+      <c r="C146"/>
+      <c r="D146"/>
+      <c r="E146"/>
+      <c r="F146"/>
+      <c r="G146"/>
+      <c r="H146"/>
+      <c r="I146"/>
+      <c r="J146"/>
+      <c r="K146"/>
+      <c r="L146"/>
+      <c r="M146"/>
+      <c r="N146"/>
+      <c r="O146"/>
+      <c r="P146"/>
+      <c r="Q146"/>
+      <c r="R146"/>
+      <c r="S146"/>
+      <c r="T146"/>
+      <c r="U146"/>
+      <c r="V146"/>
+      <c r="W146"/>
+      <c r="X146"/>
+      <c r="Y146"/>
+      <c r="Z146"/>
+      <c r="AA146"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>295</v>
+      </c>
+      <c r="B147" t="s">
+        <v>296</v>
+      </c>
+      <c r="C147"/>
+      <c r="D147"/>
+      <c r="E147"/>
+      <c r="F147"/>
+      <c r="G147"/>
+      <c r="H147"/>
+      <c r="I147"/>
+      <c r="J147"/>
+      <c r="K147"/>
+      <c r="L147"/>
+      <c r="M147"/>
+      <c r="N147"/>
+      <c r="O147"/>
+      <c r="P147"/>
+      <c r="Q147"/>
+      <c r="R147"/>
+      <c r="S147"/>
+      <c r="T147"/>
+      <c r="U147"/>
+      <c r="V147"/>
+      <c r="W147"/>
+      <c r="X147"/>
+      <c r="Y147"/>
+      <c r="Z147"/>
+      <c r="AA147"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>297</v>
+      </c>
+      <c r="B148" t="s">
+        <v>298</v>
+      </c>
+      <c r="C148"/>
+      <c r="D148"/>
+      <c r="E148" t="n">
+        <v>9.71</v>
+      </c>
+      <c r="F148"/>
+      <c r="G148"/>
+      <c r="H148" t="n">
+        <v>20.63</v>
+      </c>
+      <c r="I148"/>
+      <c r="J148"/>
+      <c r="K148" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="L148" t="n">
+        <v>23.18</v>
+      </c>
+      <c r="M148"/>
+      <c r="N148" t="n">
+        <v>20.78</v>
+      </c>
+      <c r="O148" t="n">
+        <v>29.53</v>
+      </c>
+      <c r="P148" t="n">
+        <v>34.76</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>29.35</v>
+      </c>
+      <c r="R148" t="n">
+        <v>20.91</v>
+      </c>
+      <c r="S148" t="n">
+        <v>12.91</v>
+      </c>
+      <c r="T148"/>
+      <c r="U148"/>
+      <c r="V148"/>
+      <c r="W148"/>
+      <c r="X148"/>
+      <c r="Y148"/>
+      <c r="Z148"/>
+      <c r="AA148"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>299</v>
+      </c>
+      <c r="B149" t="s">
+        <v>300</v>
+      </c>
+      <c r="C149"/>
+      <c r="D149"/>
+      <c r="E149"/>
+      <c r="F149" t="n">
+        <v>85.71</v>
+      </c>
+      <c r="G149"/>
+      <c r="H149"/>
+      <c r="I149"/>
+      <c r="J149"/>
+      <c r="K149" t="n">
+        <v>78.06</v>
+      </c>
+      <c r="L149"/>
+      <c r="M149"/>
+      <c r="N149"/>
+      <c r="O149" t="n">
+        <v>68.73</v>
+      </c>
+      <c r="P149"/>
+      <c r="Q149" t="n">
+        <v>60.39</v>
+      </c>
+      <c r="R149"/>
+      <c r="S149" t="n">
+        <v>48.08</v>
+      </c>
+      <c r="T149"/>
+      <c r="U149" t="n">
+        <v>43.32</v>
+      </c>
+      <c r="V149"/>
+      <c r="W149" t="n">
+        <v>16.84</v>
+      </c>
+      <c r="X149"/>
+      <c r="Y149" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="Z149"/>
+      <c r="AA149"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>301</v>
+      </c>
+      <c r="B150" t="s">
+        <v>302</v>
+      </c>
+      <c r="C150"/>
+      <c r="D150"/>
+      <c r="E150"/>
+      <c r="F150"/>
+      <c r="G150"/>
+      <c r="H150"/>
+      <c r="I150"/>
+      <c r="J150"/>
+      <c r="K150" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="L150"/>
+      <c r="M150"/>
+      <c r="N150"/>
+      <c r="O150"/>
+      <c r="P150"/>
+      <c r="Q150"/>
+      <c r="R150" t="n">
+        <v>37.28</v>
+      </c>
+      <c r="S150"/>
+      <c r="T150"/>
+      <c r="U150"/>
+      <c r="V150"/>
+      <c r="W150"/>
+      <c r="X150"/>
+      <c r="Y150"/>
+      <c r="Z150"/>
+      <c r="AA150"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>303</v>
+      </c>
+      <c r="B151" t="s">
+        <v>304</v>
+      </c>
+      <c r="C151"/>
+      <c r="D151" t="n">
+        <v>75.63</v>
+      </c>
+      <c r="E151"/>
+      <c r="F151" t="n">
+        <v>80.83</v>
+      </c>
+      <c r="G151"/>
+      <c r="H151"/>
+      <c r="I151" t="n">
+        <v>80.79</v>
+      </c>
+      <c r="J151"/>
+      <c r="K151" t="n">
+        <v>74.84</v>
+      </c>
+      <c r="L151"/>
+      <c r="M151"/>
+      <c r="N151"/>
+      <c r="O151"/>
+      <c r="P151" t="n">
+        <v>85.15</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>81.52</v>
+      </c>
+      <c r="R151"/>
+      <c r="S151" t="n">
+        <v>82.55</v>
+      </c>
+      <c r="T151"/>
+      <c r="U151"/>
+      <c r="V151"/>
+      <c r="W151" t="n">
+        <v>86.56</v>
+      </c>
+      <c r="X151"/>
+      <c r="Y151"/>
+      <c r="Z151"/>
+      <c r="AA151"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>305</v>
+      </c>
+      <c r="B152" t="s">
+        <v>306</v>
+      </c>
+      <c r="C152"/>
+      <c r="D152"/>
+      <c r="E152"/>
+      <c r="F152"/>
+      <c r="G152"/>
+      <c r="H152"/>
+      <c r="I152"/>
+      <c r="J152"/>
+      <c r="K152"/>
+      <c r="L152"/>
+      <c r="M152"/>
+      <c r="N152"/>
+      <c r="O152"/>
+      <c r="P152"/>
+      <c r="Q152"/>
+      <c r="R152"/>
+      <c r="S152"/>
+      <c r="T152"/>
+      <c r="U152"/>
+      <c r="V152"/>
+      <c r="W152"/>
+      <c r="X152"/>
+      <c r="Y152"/>
+      <c r="Z152"/>
+      <c r="AA152"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/user-data/poverty-200/poverty-200.xlsx
+++ b/user-data/poverty-200/poverty-200.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="346">
   <si>
     <t>id</t>
   </si>
@@ -1043,7 +1043,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1476,6 +1479,11 @@
         <v>344</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>345</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/poverty-200/poverty-200.xlsx
+++ b/user-data/poverty-200/poverty-200.xlsx
@@ -59,7 +59,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>AR</t>
@@ -119,7 +119,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia &amp; Herzegovina</t>
   </si>
   <si>
     <t>BW</t>
@@ -150,12 +150,6 @@
   </si>
   <si>
     <t>Burundi</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>CÃ´te d'Ivoire</t>
   </si>
   <si>
     <t>KH</t>
@@ -222,6 +216,12 @@
   </si>
   <si>
     <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
   </si>
   <si>
     <t>HR</t>
@@ -707,7 +707,7 @@
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>WS</t>
@@ -719,7 +719,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SN</t>
@@ -851,7 +851,7 @@
     <t>TT</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
+    <t>Trinidad &amp; Tobago</t>
   </si>
   <si>
     <t>TN</t>
@@ -1052,7 +1052,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -8874,12 +8874,8 @@
       <c r="C505" t="n">
         <v>1993</v>
       </c>
-      <c r="D505" t="n">
-        <v>50.75</v>
-      </c>
-      <c r="E505" t="n">
-        <v>50.75</v>
-      </c>
+      <c r="D505"/>
+      <c r="E505"/>
     </row>
     <row r="506">
       <c r="A506" t="s">
@@ -8892,9 +8888,11 @@
         <v>1994</v>
       </c>
       <c r="D506" t="n">
-        <v>49.35</v>
-      </c>
-      <c r="E506"/>
+        <v>75.24</v>
+      </c>
+      <c r="E506" t="n">
+        <v>75.24</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="s">
@@ -8907,11 +8905,9 @@
         <v>1995</v>
       </c>
       <c r="D507" t="n">
-        <v>47.95</v>
-      </c>
-      <c r="E507" t="n">
-        <v>47.95</v>
-      </c>
+        <v>74.159</v>
+      </c>
+      <c r="E507"/>
     </row>
     <row r="508">
       <c r="A508" t="s">
@@ -8924,7 +8920,7 @@
         <v>1996</v>
       </c>
       <c r="D508" t="n">
-        <v>50.9933333333333</v>
+        <v>73.078</v>
       </c>
       <c r="E508"/>
     </row>
@@ -8939,7 +8935,7 @@
         <v>1997</v>
       </c>
       <c r="D509" t="n">
-        <v>54.0366666666667</v>
+        <v>71.997</v>
       </c>
       <c r="E509"/>
     </row>
@@ -8954,11 +8950,9 @@
         <v>1998</v>
       </c>
       <c r="D510" t="n">
-        <v>57.08</v>
-      </c>
-      <c r="E510" t="n">
-        <v>57.08</v>
-      </c>
+        <v>70.916</v>
+      </c>
+      <c r="E510"/>
     </row>
     <row r="511">
       <c r="A511" t="s">
@@ -8971,7 +8965,7 @@
         <v>1999</v>
       </c>
       <c r="D511" t="n">
-        <v>57.03</v>
+        <v>69.835</v>
       </c>
       <c r="E511"/>
     </row>
@@ -8986,7 +8980,7 @@
         <v>2000</v>
       </c>
       <c r="D512" t="n">
-        <v>56.98</v>
+        <v>68.754</v>
       </c>
       <c r="E512"/>
     </row>
@@ -9001,7 +8995,7 @@
         <v>2001</v>
       </c>
       <c r="D513" t="n">
-        <v>56.93</v>
+        <v>67.673</v>
       </c>
       <c r="E513"/>
     </row>
@@ -9016,11 +9010,9 @@
         <v>2002</v>
       </c>
       <c r="D514" t="n">
-        <v>56.88</v>
-      </c>
-      <c r="E514" t="n">
-        <v>56.88</v>
-      </c>
+        <v>66.592</v>
+      </c>
+      <c r="E514"/>
     </row>
     <row r="515">
       <c r="A515" t="s">
@@ -9033,7 +9025,7 @@
         <v>2003</v>
       </c>
       <c r="D515" t="n">
-        <v>57.245</v>
+        <v>65.511</v>
       </c>
       <c r="E515"/>
     </row>
@@ -9048,9 +9040,11 @@
         <v>2004</v>
       </c>
       <c r="D516" t="n">
-        <v>57.61</v>
-      </c>
-      <c r="E516"/>
+        <v>64.43</v>
+      </c>
+      <c r="E516" t="n">
+        <v>64.43</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="s">
@@ -9063,7 +9057,7 @@
         <v>2005</v>
       </c>
       <c r="D517" t="n">
-        <v>57.975</v>
+        <v>62.75</v>
       </c>
       <c r="E517"/>
     </row>
@@ -9078,7 +9072,7 @@
         <v>2006</v>
       </c>
       <c r="D518" t="n">
-        <v>58.34</v>
+        <v>61.07</v>
       </c>
       <c r="E518"/>
     </row>
@@ -9093,9 +9087,11 @@
         <v>2007</v>
       </c>
       <c r="D519" t="n">
-        <v>58.705</v>
-      </c>
-      <c r="E519"/>
+        <v>59.39</v>
+      </c>
+      <c r="E519" t="n">
+        <v>59.39</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="s">
@@ -9108,10 +9104,10 @@
         <v>2008</v>
       </c>
       <c r="D520" t="n">
-        <v>59.07</v>
+        <v>51.05</v>
       </c>
       <c r="E520" t="n">
-        <v>59.07</v>
+        <v>51.05</v>
       </c>
     </row>
     <row r="521">
@@ -9124,8 +9120,12 @@
       <c r="C521" t="n">
         <v>2009</v>
       </c>
-      <c r="D521"/>
-      <c r="E521"/>
+      <c r="D521" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E521" t="n">
+        <v>40.74</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="s">
@@ -9137,8 +9137,12 @@
       <c r="C522" t="n">
         <v>2010</v>
       </c>
-      <c r="D522"/>
-      <c r="E522"/>
+      <c r="D522" t="n">
+        <v>40.88</v>
+      </c>
+      <c r="E522" t="n">
+        <v>40.88</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="s">
@@ -9150,8 +9154,12 @@
       <c r="C523" t="n">
         <v>2011</v>
       </c>
-      <c r="D523"/>
-      <c r="E523"/>
+      <c r="D523" t="n">
+        <v>41.26</v>
+      </c>
+      <c r="E523" t="n">
+        <v>41.26</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="s">
@@ -9254,12 +9262,8 @@
       <c r="C531" t="n">
         <v>1994</v>
       </c>
-      <c r="D531" t="n">
-        <v>75.24</v>
-      </c>
-      <c r="E531" t="n">
-        <v>75.24</v>
-      </c>
+      <c r="D531"/>
+      <c r="E531"/>
     </row>
     <row r="532">
       <c r="A532" t="s">
@@ -9271,9 +9275,7 @@
       <c r="C532" t="n">
         <v>1995</v>
       </c>
-      <c r="D532" t="n">
-        <v>74.159</v>
-      </c>
+      <c r="D532"/>
       <c r="E532"/>
     </row>
     <row r="533">
@@ -9287,9 +9289,11 @@
         <v>1996</v>
       </c>
       <c r="D533" t="n">
-        <v>73.078</v>
-      </c>
-      <c r="E533"/>
+        <v>71.5</v>
+      </c>
+      <c r="E533" t="n">
+        <v>71.5</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="s">
@@ -9302,7 +9306,7 @@
         <v>1997</v>
       </c>
       <c r="D534" t="n">
-        <v>71.997</v>
+        <v>67.338</v>
       </c>
       <c r="E534"/>
     </row>
@@ -9317,7 +9321,7 @@
         <v>1998</v>
       </c>
       <c r="D535" t="n">
-        <v>70.916</v>
+        <v>63.176</v>
       </c>
       <c r="E535"/>
     </row>
@@ -9332,7 +9336,7 @@
         <v>1999</v>
       </c>
       <c r="D536" t="n">
-        <v>69.835</v>
+        <v>59.014</v>
       </c>
       <c r="E536"/>
     </row>
@@ -9347,7 +9351,7 @@
         <v>2000</v>
       </c>
       <c r="D537" t="n">
-        <v>68.754</v>
+        <v>54.852</v>
       </c>
       <c r="E537"/>
     </row>
@@ -9362,9 +9366,11 @@
         <v>2001</v>
       </c>
       <c r="D538" t="n">
-        <v>67.673</v>
-      </c>
-      <c r="E538"/>
+        <v>50.69</v>
+      </c>
+      <c r="E538" t="n">
+        <v>50.69</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="s">
@@ -9377,7 +9383,7 @@
         <v>2002</v>
       </c>
       <c r="D539" t="n">
-        <v>66.592</v>
+        <v>51.1</v>
       </c>
       <c r="E539"/>
     </row>
@@ -9392,7 +9398,7 @@
         <v>2003</v>
       </c>
       <c r="D540" t="n">
-        <v>65.511</v>
+        <v>51.51</v>
       </c>
       <c r="E540"/>
     </row>
@@ -9407,11 +9413,9 @@
         <v>2004</v>
       </c>
       <c r="D541" t="n">
-        <v>64.43</v>
-      </c>
-      <c r="E541" t="n">
-        <v>64.43</v>
-      </c>
+        <v>51.92</v>
+      </c>
+      <c r="E541"/>
     </row>
     <row r="542">
       <c r="A542" t="s">
@@ -9424,7 +9428,7 @@
         <v>2005</v>
       </c>
       <c r="D542" t="n">
-        <v>62.75</v>
+        <v>52.33</v>
       </c>
       <c r="E542"/>
     </row>
@@ -9439,7 +9443,7 @@
         <v>2006</v>
       </c>
       <c r="D543" t="n">
-        <v>61.07</v>
+        <v>52.74</v>
       </c>
       <c r="E543"/>
     </row>
@@ -9454,10 +9458,10 @@
         <v>2007</v>
       </c>
       <c r="D544" t="n">
-        <v>59.39</v>
+        <v>53.15</v>
       </c>
       <c r="E544" t="n">
-        <v>59.39</v>
+        <v>53.15</v>
       </c>
     </row>
     <row r="545">
@@ -9470,12 +9474,8 @@
       <c r="C545" t="n">
         <v>2008</v>
       </c>
-      <c r="D545" t="n">
-        <v>51.05</v>
-      </c>
-      <c r="E545" t="n">
-        <v>51.05</v>
-      </c>
+      <c r="D545"/>
+      <c r="E545"/>
     </row>
     <row r="546">
       <c r="A546" t="s">
@@ -9487,12 +9487,8 @@
       <c r="C546" t="n">
         <v>2009</v>
       </c>
-      <c r="D546" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E546" t="n">
-        <v>40.74</v>
-      </c>
+      <c r="D546"/>
+      <c r="E546"/>
     </row>
     <row r="547">
       <c r="A547" t="s">
@@ -9504,12 +9500,8 @@
       <c r="C547" t="n">
         <v>2010</v>
       </c>
-      <c r="D547" t="n">
-        <v>40.88</v>
-      </c>
-      <c r="E547" t="n">
-        <v>40.88</v>
-      </c>
+      <c r="D547"/>
+      <c r="E547"/>
     </row>
     <row r="548">
       <c r="A548" t="s">
@@ -9521,12 +9513,8 @@
       <c r="C548" t="n">
         <v>2011</v>
       </c>
-      <c r="D548" t="n">
-        <v>41.26</v>
-      </c>
-      <c r="E548" t="n">
-        <v>41.26</v>
-      </c>
+      <c r="D548"/>
+      <c r="E548"/>
     </row>
     <row r="549">
       <c r="A549" t="s">
@@ -9655,12 +9643,8 @@
       <c r="C558" t="n">
         <v>1996</v>
       </c>
-      <c r="D558" t="n">
-        <v>71.5</v>
-      </c>
-      <c r="E558" t="n">
-        <v>71.5</v>
-      </c>
+      <c r="D558"/>
+      <c r="E558"/>
     </row>
     <row r="559">
       <c r="A559" t="s">
@@ -9672,9 +9656,7 @@
       <c r="C559" t="n">
         <v>1997</v>
       </c>
-      <c r="D559" t="n">
-        <v>67.338</v>
-      </c>
+      <c r="D559"/>
       <c r="E559"/>
     </row>
     <row r="560">
@@ -9687,9 +9669,7 @@
       <c r="C560" t="n">
         <v>1998</v>
       </c>
-      <c r="D560" t="n">
-        <v>63.176</v>
-      </c>
+      <c r="D560"/>
       <c r="E560"/>
     </row>
     <row r="561">
@@ -9702,9 +9682,7 @@
       <c r="C561" t="n">
         <v>1999</v>
       </c>
-      <c r="D561" t="n">
-        <v>59.014</v>
-      </c>
+      <c r="D561"/>
       <c r="E561"/>
     </row>
     <row r="562">
@@ -9717,9 +9695,7 @@
       <c r="C562" t="n">
         <v>2000</v>
       </c>
-      <c r="D562" t="n">
-        <v>54.852</v>
-      </c>
+      <c r="D562"/>
       <c r="E562"/>
     </row>
     <row r="563">
@@ -9732,12 +9708,8 @@
       <c r="C563" t="n">
         <v>2001</v>
       </c>
-      <c r="D563" t="n">
-        <v>50.69</v>
-      </c>
-      <c r="E563" t="n">
-        <v>50.69</v>
-      </c>
+      <c r="D563"/>
+      <c r="E563"/>
     </row>
     <row r="564">
       <c r="A564" t="s">
@@ -9750,9 +9722,11 @@
         <v>2002</v>
       </c>
       <c r="D564" t="n">
-        <v>51.1</v>
-      </c>
-      <c r="E564"/>
+        <v>40.85</v>
+      </c>
+      <c r="E564" t="n">
+        <v>40.85</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" t="s">
@@ -9765,7 +9739,7 @@
         <v>2003</v>
       </c>
       <c r="D565" t="n">
-        <v>51.51</v>
+        <v>39.62</v>
       </c>
       <c r="E565"/>
     </row>
@@ -9780,7 +9754,7 @@
         <v>2004</v>
       </c>
       <c r="D566" t="n">
-        <v>51.92</v>
+        <v>38.39</v>
       </c>
       <c r="E566"/>
     </row>
@@ -9795,7 +9769,7 @@
         <v>2005</v>
       </c>
       <c r="D567" t="n">
-        <v>52.33</v>
+        <v>37.16</v>
       </c>
       <c r="E567"/>
     </row>
@@ -9810,7 +9784,7 @@
         <v>2006</v>
       </c>
       <c r="D568" t="n">
-        <v>52.74</v>
+        <v>35.93</v>
       </c>
       <c r="E568"/>
     </row>
@@ -9825,10 +9799,10 @@
         <v>2007</v>
       </c>
       <c r="D569" t="n">
-        <v>53.15</v>
+        <v>34.7</v>
       </c>
       <c r="E569" t="n">
-        <v>53.15</v>
+        <v>34.7</v>
       </c>
     </row>
     <row r="570">
@@ -9958,8 +9932,12 @@
       <c r="C579" t="n">
         <v>1992</v>
       </c>
-      <c r="D579"/>
-      <c r="E579"/>
+      <c r="D579" t="n">
+        <v>90.97</v>
+      </c>
+      <c r="E579" t="n">
+        <v>90.97</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" t="s">
@@ -9971,7 +9949,9 @@
       <c r="C580" t="n">
         <v>1993</v>
       </c>
-      <c r="D580"/>
+      <c r="D580" t="n">
+        <v>90.1454545454545</v>
+      </c>
       <c r="E580"/>
     </row>
     <row r="581">
@@ -9984,7 +9964,9 @@
       <c r="C581" t="n">
         <v>1994</v>
       </c>
-      <c r="D581"/>
+      <c r="D581" t="n">
+        <v>89.3209090909091</v>
+      </c>
       <c r="E581"/>
     </row>
     <row r="582">
@@ -9997,7 +9979,9 @@
       <c r="C582" t="n">
         <v>1995</v>
       </c>
-      <c r="D582"/>
+      <c r="D582" t="n">
+        <v>88.4963636363636</v>
+      </c>
       <c r="E582"/>
     </row>
     <row r="583">
@@ -10010,7 +9994,9 @@
       <c r="C583" t="n">
         <v>1996</v>
       </c>
-      <c r="D583"/>
+      <c r="D583" t="n">
+        <v>87.6718181818182</v>
+      </c>
       <c r="E583"/>
     </row>
     <row r="584">
@@ -10023,7 +10009,9 @@
       <c r="C584" t="n">
         <v>1997</v>
       </c>
-      <c r="D584"/>
+      <c r="D584" t="n">
+        <v>86.8472727272727</v>
+      </c>
       <c r="E584"/>
     </row>
     <row r="585">
@@ -10036,7 +10024,9 @@
       <c r="C585" t="n">
         <v>1998</v>
       </c>
-      <c r="D585"/>
+      <c r="D585" t="n">
+        <v>86.0227272727273</v>
+      </c>
       <c r="E585"/>
     </row>
     <row r="586">
@@ -10049,7 +10039,9 @@
       <c r="C586" t="n">
         <v>1999</v>
       </c>
-      <c r="D586"/>
+      <c r="D586" t="n">
+        <v>85.1981818181818</v>
+      </c>
       <c r="E586"/>
     </row>
     <row r="587">
@@ -10062,7 +10054,9 @@
       <c r="C587" t="n">
         <v>2000</v>
       </c>
-      <c r="D587"/>
+      <c r="D587" t="n">
+        <v>84.3736363636364</v>
+      </c>
       <c r="E587"/>
     </row>
     <row r="588">
@@ -10075,7 +10069,9 @@
       <c r="C588" t="n">
         <v>2001</v>
       </c>
-      <c r="D588"/>
+      <c r="D588" t="n">
+        <v>83.5490909090909</v>
+      </c>
       <c r="E588"/>
     </row>
     <row r="589">
@@ -10089,11 +10085,9 @@
         <v>2002</v>
       </c>
       <c r="D589" t="n">
-        <v>40.85</v>
-      </c>
-      <c r="E589" t="n">
-        <v>40.85</v>
-      </c>
+        <v>82.7245454545455</v>
+      </c>
+      <c r="E589"/>
     </row>
     <row r="590">
       <c r="A590" t="s">
@@ -10106,9 +10100,11 @@
         <v>2003</v>
       </c>
       <c r="D590" t="n">
-        <v>39.62</v>
-      </c>
-      <c r="E590"/>
+        <v>81.9</v>
+      </c>
+      <c r="E590" t="n">
+        <v>81.9</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591" t="s">
@@ -10121,7 +10117,7 @@
         <v>2004</v>
       </c>
       <c r="D591" t="n">
-        <v>38.39</v>
+        <v>81.538</v>
       </c>
       <c r="E591"/>
     </row>
@@ -10136,7 +10132,7 @@
         <v>2005</v>
       </c>
       <c r="D592" t="n">
-        <v>37.16</v>
+        <v>81.176</v>
       </c>
       <c r="E592"/>
     </row>
@@ -10151,7 +10147,7 @@
         <v>2006</v>
       </c>
       <c r="D593" t="n">
-        <v>35.93</v>
+        <v>80.814</v>
       </c>
       <c r="E593"/>
     </row>
@@ -10166,11 +10162,9 @@
         <v>2007</v>
       </c>
       <c r="D594" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="E594" t="n">
-        <v>34.7</v>
-      </c>
+        <v>80.452</v>
+      </c>
+      <c r="E594"/>
     </row>
     <row r="595">
       <c r="A595" t="s">
@@ -10182,8 +10176,12 @@
       <c r="C595" t="n">
         <v>2008</v>
       </c>
-      <c r="D595"/>
-      <c r="E595"/>
+      <c r="D595" t="n">
+        <v>80.09</v>
+      </c>
+      <c r="E595" t="n">
+        <v>80.09</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" t="s">
@@ -10299,12 +10297,8 @@
       <c r="C604" t="n">
         <v>1992</v>
       </c>
-      <c r="D604" t="n">
-        <v>90.97</v>
-      </c>
-      <c r="E604" t="n">
-        <v>90.97</v>
-      </c>
+      <c r="D604"/>
+      <c r="E604"/>
     </row>
     <row r="605">
       <c r="A605" t="s">
@@ -10316,9 +10310,7 @@
       <c r="C605" t="n">
         <v>1993</v>
       </c>
-      <c r="D605" t="n">
-        <v>90.1454545454545</v>
-      </c>
+      <c r="D605"/>
       <c r="E605"/>
     </row>
     <row r="606">
@@ -10331,9 +10323,7 @@
       <c r="C606" t="n">
         <v>1994</v>
       </c>
-      <c r="D606" t="n">
-        <v>89.3209090909091</v>
-      </c>
+      <c r="D606"/>
       <c r="E606"/>
     </row>
     <row r="607">
@@ -10346,9 +10336,7 @@
       <c r="C607" t="n">
         <v>1995</v>
       </c>
-      <c r="D607" t="n">
-        <v>88.4963636363636</v>
-      </c>
+      <c r="D607"/>
       <c r="E607"/>
     </row>
     <row r="608">
@@ -10361,9 +10349,7 @@
       <c r="C608" t="n">
         <v>1996</v>
       </c>
-      <c r="D608" t="n">
-        <v>87.6718181818182</v>
-      </c>
+      <c r="D608"/>
       <c r="E608"/>
     </row>
     <row r="609">
@@ -10376,9 +10362,7 @@
       <c r="C609" t="n">
         <v>1997</v>
       </c>
-      <c r="D609" t="n">
-        <v>86.8472727272727</v>
-      </c>
+      <c r="D609"/>
       <c r="E609"/>
     </row>
     <row r="610">
@@ -10391,9 +10375,7 @@
       <c r="C610" t="n">
         <v>1998</v>
       </c>
-      <c r="D610" t="n">
-        <v>86.0227272727273</v>
-      </c>
+      <c r="D610"/>
       <c r="E610"/>
     </row>
     <row r="611">
@@ -10406,9 +10388,7 @@
       <c r="C611" t="n">
         <v>1999</v>
       </c>
-      <c r="D611" t="n">
-        <v>85.1981818181818</v>
-      </c>
+      <c r="D611"/>
       <c r="E611"/>
     </row>
     <row r="612">
@@ -10421,9 +10401,7 @@
       <c r="C612" t="n">
         <v>2000</v>
       </c>
-      <c r="D612" t="n">
-        <v>84.3736363636364</v>
-      </c>
+      <c r="D612"/>
       <c r="E612"/>
     </row>
     <row r="613">
@@ -10436,9 +10414,7 @@
       <c r="C613" t="n">
         <v>2001</v>
       </c>
-      <c r="D613" t="n">
-        <v>83.5490909090909</v>
-      </c>
+      <c r="D613"/>
       <c r="E613"/>
     </row>
     <row r="614">
@@ -10452,9 +10428,11 @@
         <v>2002</v>
       </c>
       <c r="D614" t="n">
-        <v>82.7245454545455</v>
-      </c>
-      <c r="E614"/>
+        <v>83.28</v>
+      </c>
+      <c r="E614" t="n">
+        <v>83.28</v>
+      </c>
     </row>
     <row r="615">
       <c r="A615" t="s">
@@ -10467,11 +10445,9 @@
         <v>2003</v>
       </c>
       <c r="D615" t="n">
-        <v>81.9</v>
-      </c>
-      <c r="E615" t="n">
-        <v>81.9</v>
-      </c>
+        <v>80.7533333333333</v>
+      </c>
+      <c r="E615"/>
     </row>
     <row r="616">
       <c r="A616" t="s">
@@ -10484,7 +10460,7 @@
         <v>2004</v>
       </c>
       <c r="D616" t="n">
-        <v>81.538</v>
+        <v>78.2266666666667</v>
       </c>
       <c r="E616"/>
     </row>
@@ -10499,7 +10475,7 @@
         <v>2005</v>
       </c>
       <c r="D617" t="n">
-        <v>81.176</v>
+        <v>75.7</v>
       </c>
       <c r="E617"/>
     </row>
@@ -10514,7 +10490,7 @@
         <v>2006</v>
       </c>
       <c r="D618" t="n">
-        <v>80.814</v>
+        <v>73.1733333333333</v>
       </c>
       <c r="E618"/>
     </row>
@@ -10529,7 +10505,7 @@
         <v>2007</v>
       </c>
       <c r="D619" t="n">
-        <v>80.452</v>
+        <v>70.6466666666667</v>
       </c>
       <c r="E619"/>
     </row>
@@ -10544,11 +10520,9 @@
         <v>2008</v>
       </c>
       <c r="D620" t="n">
-        <v>80.09</v>
-      </c>
-      <c r="E620" t="n">
-        <v>80.09</v>
-      </c>
+        <v>68.12</v>
+      </c>
+      <c r="E620"/>
     </row>
     <row r="621">
       <c r="A621" t="s">
@@ -10560,7 +10534,9 @@
       <c r="C621" t="n">
         <v>2009</v>
       </c>
-      <c r="D621"/>
+      <c r="D621" t="n">
+        <v>65.5933333333333</v>
+      </c>
       <c r="E621"/>
     </row>
     <row r="622">
@@ -10573,7 +10549,9 @@
       <c r="C622" t="n">
         <v>2010</v>
       </c>
-      <c r="D622"/>
+      <c r="D622" t="n">
+        <v>63.0666666666667</v>
+      </c>
       <c r="E622"/>
     </row>
     <row r="623">
@@ -10586,8 +10564,12 @@
       <c r="C623" t="n">
         <v>2011</v>
       </c>
-      <c r="D623"/>
-      <c r="E623"/>
+      <c r="D623" t="n">
+        <v>60.54</v>
+      </c>
+      <c r="E623" t="n">
+        <v>60.54</v>
+      </c>
     </row>
     <row r="624">
       <c r="A624" t="s">
@@ -10638,8 +10620,12 @@
       <c r="C627" t="n">
         <v>1990</v>
       </c>
-      <c r="D627"/>
-      <c r="E627"/>
+      <c r="D627" t="n">
+        <v>13.73</v>
+      </c>
+      <c r="E627" t="n">
+        <v>13.73</v>
+      </c>
     </row>
     <row r="628">
       <c r="A628" t="s">
@@ -10651,7 +10637,9 @@
       <c r="C628" t="n">
         <v>1991</v>
       </c>
-      <c r="D628"/>
+      <c r="D628" t="n">
+        <v>11.485</v>
+      </c>
       <c r="E628"/>
     </row>
     <row r="629">
@@ -10664,8 +10652,12 @@
       <c r="C629" t="n">
         <v>1992</v>
       </c>
-      <c r="D629"/>
-      <c r="E629"/>
+      <c r="D629" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="E629" t="n">
+        <v>9.24</v>
+      </c>
     </row>
     <row r="630">
       <c r="A630" t="s">
@@ -10677,7 +10669,9 @@
       <c r="C630" t="n">
         <v>1993</v>
       </c>
-      <c r="D630"/>
+      <c r="D630" t="n">
+        <v>8.975</v>
+      </c>
       <c r="E630"/>
     </row>
     <row r="631">
@@ -10690,8 +10684,12 @@
       <c r="C631" t="n">
         <v>1994</v>
       </c>
-      <c r="D631"/>
-      <c r="E631"/>
+      <c r="D631" t="n">
+        <v>8.71</v>
+      </c>
+      <c r="E631" t="n">
+        <v>8.71</v>
+      </c>
     </row>
     <row r="632">
       <c r="A632" t="s">
@@ -10703,7 +10701,9 @@
       <c r="C632" t="n">
         <v>1995</v>
       </c>
-      <c r="D632"/>
+      <c r="D632" t="n">
+        <v>7.595</v>
+      </c>
       <c r="E632"/>
     </row>
     <row r="633">
@@ -10716,8 +10716,12 @@
       <c r="C633" t="n">
         <v>1996</v>
       </c>
-      <c r="D633"/>
-      <c r="E633"/>
+      <c r="D633" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="E633" t="n">
+        <v>6.48</v>
+      </c>
     </row>
     <row r="634">
       <c r="A634" t="s">
@@ -10729,7 +10733,9 @@
       <c r="C634" t="n">
         <v>1997</v>
       </c>
-      <c r="D634"/>
+      <c r="D634" t="n">
+        <v>6.295</v>
+      </c>
       <c r="E634"/>
     </row>
     <row r="635">
@@ -10742,8 +10748,12 @@
       <c r="C635" t="n">
         <v>1998</v>
       </c>
-      <c r="D635"/>
-      <c r="E635"/>
+      <c r="D635" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="E635" t="n">
+        <v>6.11</v>
+      </c>
     </row>
     <row r="636">
       <c r="A636" t="s">
@@ -10755,7 +10765,9 @@
       <c r="C636" t="n">
         <v>1999</v>
       </c>
-      <c r="D636"/>
+      <c r="D636" t="n">
+        <v>5.785</v>
+      </c>
       <c r="E636"/>
     </row>
     <row r="637">
@@ -10768,8 +10780,12 @@
       <c r="C637" t="n">
         <v>2000</v>
       </c>
-      <c r="D637"/>
-      <c r="E637"/>
+      <c r="D637" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="E637" t="n">
+        <v>5.46</v>
+      </c>
     </row>
     <row r="638">
       <c r="A638" t="s">
@@ -10781,7 +10797,9 @@
       <c r="C638" t="n">
         <v>2001</v>
       </c>
-      <c r="D638"/>
+      <c r="D638" t="n">
+        <v>5.15666666666667</v>
+      </c>
       <c r="E638"/>
     </row>
     <row r="639">
@@ -10795,11 +10813,9 @@
         <v>2002</v>
       </c>
       <c r="D639" t="n">
-        <v>83.28</v>
-      </c>
-      <c r="E639" t="n">
-        <v>83.28</v>
-      </c>
+        <v>4.85333333333333</v>
+      </c>
+      <c r="E639"/>
     </row>
     <row r="640">
       <c r="A640" t="s">
@@ -10812,9 +10828,11 @@
         <v>2003</v>
       </c>
       <c r="D640" t="n">
-        <v>80.7533333333333</v>
-      </c>
-      <c r="E640"/>
+        <v>4.55</v>
+      </c>
+      <c r="E640" t="n">
+        <v>4.55</v>
+      </c>
     </row>
     <row r="641">
       <c r="A641" t="s">
@@ -10827,7 +10845,7 @@
         <v>2004</v>
       </c>
       <c r="D641" t="n">
-        <v>78.2266666666667</v>
+        <v>4.07333333333333</v>
       </c>
       <c r="E641"/>
     </row>
@@ -10842,7 +10860,7 @@
         <v>2005</v>
       </c>
       <c r="D642" t="n">
-        <v>75.7</v>
+        <v>3.59666666666667</v>
       </c>
       <c r="E642"/>
     </row>
@@ -10857,9 +10875,11 @@
         <v>2006</v>
       </c>
       <c r="D643" t="n">
-        <v>73.1733333333333</v>
-      </c>
-      <c r="E643"/>
+        <v>3.12</v>
+      </c>
+      <c r="E643" t="n">
+        <v>3.12</v>
+      </c>
     </row>
     <row r="644">
       <c r="A644" t="s">
@@ -10872,7 +10892,7 @@
         <v>2007</v>
       </c>
       <c r="D644" t="n">
-        <v>70.6466666666667</v>
+        <v>2.94666666666667</v>
       </c>
       <c r="E644"/>
     </row>
@@ -10887,7 +10907,7 @@
         <v>2008</v>
       </c>
       <c r="D645" t="n">
-        <v>68.12</v>
+        <v>2.77333333333333</v>
       </c>
       <c r="E645"/>
     </row>
@@ -10902,9 +10922,11 @@
         <v>2009</v>
       </c>
       <c r="D646" t="n">
-        <v>65.5933333333333</v>
-      </c>
-      <c r="E646"/>
+        <v>2.6</v>
+      </c>
+      <c r="E646" t="n">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="647">
       <c r="A647" t="s">
@@ -10917,7 +10939,7 @@
         <v>2010</v>
       </c>
       <c r="D647" t="n">
-        <v>63.0666666666667</v>
+        <v>2.23</v>
       </c>
       <c r="E647"/>
     </row>
@@ -10932,10 +10954,10 @@
         <v>2011</v>
       </c>
       <c r="D648" t="n">
-        <v>60.54</v>
+        <v>1.86</v>
       </c>
       <c r="E648" t="n">
-        <v>60.54</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="649">
@@ -10988,10 +11010,10 @@
         <v>1990</v>
       </c>
       <c r="D652" t="n">
-        <v>13.73</v>
+        <v>84.97</v>
       </c>
       <c r="E652" t="n">
-        <v>13.73</v>
+        <v>84.97</v>
       </c>
     </row>
     <row r="653">
@@ -11005,7 +11027,7 @@
         <v>1991</v>
       </c>
       <c r="D653" t="n">
-        <v>11.485</v>
+        <v>83.1666666666667</v>
       </c>
       <c r="E653"/>
     </row>
@@ -11020,11 +11042,9 @@
         <v>1992</v>
       </c>
       <c r="D654" t="n">
-        <v>9.24</v>
-      </c>
-      <c r="E654" t="n">
-        <v>9.24</v>
-      </c>
+        <v>81.3633333333333</v>
+      </c>
+      <c r="E654"/>
     </row>
     <row r="655">
       <c r="A655" t="s">
@@ -11037,9 +11057,11 @@
         <v>1993</v>
       </c>
       <c r="D655" t="n">
-        <v>8.975</v>
-      </c>
-      <c r="E655"/>
+        <v>79.56</v>
+      </c>
+      <c r="E655" t="n">
+        <v>79.56</v>
+      </c>
     </row>
     <row r="656">
       <c r="A656" t="s">
@@ -11052,11 +11074,9 @@
         <v>1994</v>
       </c>
       <c r="D656" t="n">
-        <v>8.71</v>
-      </c>
-      <c r="E656" t="n">
-        <v>8.71</v>
-      </c>
+        <v>75.1066666666667</v>
+      </c>
+      <c r="E656"/>
     </row>
     <row r="657">
       <c r="A657" t="s">
@@ -11069,7 +11089,7 @@
         <v>1995</v>
       </c>
       <c r="D657" t="n">
-        <v>7.595</v>
+        <v>70.6533333333333</v>
       </c>
       <c r="E657"/>
     </row>
@@ -11084,10 +11104,10 @@
         <v>1996</v>
       </c>
       <c r="D658" t="n">
-        <v>6.48</v>
+        <v>66.2</v>
       </c>
       <c r="E658" t="n">
-        <v>6.48</v>
+        <v>66.2</v>
       </c>
     </row>
     <row r="659">
@@ -11101,7 +11121,7 @@
         <v>1997</v>
       </c>
       <c r="D659" t="n">
-        <v>6.295</v>
+        <v>64.76</v>
       </c>
       <c r="E659"/>
     </row>
@@ -11116,11 +11136,9 @@
         <v>1998</v>
       </c>
       <c r="D660" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="E660" t="n">
-        <v>6.11</v>
-      </c>
+        <v>63.32</v>
+      </c>
+      <c r="E660"/>
     </row>
     <row r="661">
       <c r="A661" t="s">
@@ -11133,9 +11151,11 @@
         <v>1999</v>
       </c>
       <c r="D661" t="n">
-        <v>5.785</v>
-      </c>
-      <c r="E661"/>
+        <v>61.88</v>
+      </c>
+      <c r="E661" t="n">
+        <v>61.88</v>
+      </c>
     </row>
     <row r="662">
       <c r="A662" t="s">
@@ -11148,11 +11168,9 @@
         <v>2000</v>
       </c>
       <c r="D662" t="n">
-        <v>5.46</v>
-      </c>
-      <c r="E662" t="n">
-        <v>5.46</v>
-      </c>
+        <v>58.1633333333333</v>
+      </c>
+      <c r="E662"/>
     </row>
     <row r="663">
       <c r="A663" t="s">
@@ -11165,7 +11183,7 @@
         <v>2001</v>
       </c>
       <c r="D663" t="n">
-        <v>5.15666666666667</v>
+        <v>54.4466666666667</v>
       </c>
       <c r="E663"/>
     </row>
@@ -11180,9 +11198,11 @@
         <v>2002</v>
       </c>
       <c r="D664" t="n">
-        <v>4.85333333333333</v>
-      </c>
-      <c r="E664"/>
+        <v>50.73</v>
+      </c>
+      <c r="E664" t="n">
+        <v>50.73</v>
+      </c>
     </row>
     <row r="665">
       <c r="A665" t="s">
@@ -11195,11 +11215,9 @@
         <v>2003</v>
       </c>
       <c r="D665" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="E665" t="n">
-        <v>4.55</v>
-      </c>
+        <v>45.83</v>
+      </c>
+      <c r="E665"/>
     </row>
     <row r="666">
       <c r="A666" t="s">
@@ -11212,7 +11230,7 @@
         <v>2004</v>
       </c>
       <c r="D666" t="n">
-        <v>4.07333333333333</v>
+        <v>40.93</v>
       </c>
       <c r="E666"/>
     </row>
@@ -11227,9 +11245,11 @@
         <v>2005</v>
       </c>
       <c r="D667" t="n">
-        <v>3.59666666666667</v>
-      </c>
-      <c r="E667"/>
+        <v>36.03</v>
+      </c>
+      <c r="E667" t="n">
+        <v>36.03</v>
+      </c>
     </row>
     <row r="668">
       <c r="A668" t="s">
@@ -11242,11 +11262,9 @@
         <v>2006</v>
       </c>
       <c r="D668" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="E668" t="n">
-        <v>3.12</v>
-      </c>
+        <v>33.4633333333333</v>
+      </c>
+      <c r="E668"/>
     </row>
     <row r="669">
       <c r="A669" t="s">
@@ -11259,7 +11277,7 @@
         <v>2007</v>
       </c>
       <c r="D669" t="n">
-        <v>2.94666666666667</v>
+        <v>30.8966666666667</v>
       </c>
       <c r="E669"/>
     </row>
@@ -11274,9 +11292,11 @@
         <v>2008</v>
       </c>
       <c r="D670" t="n">
-        <v>2.77333333333333</v>
-      </c>
-      <c r="E670"/>
+        <v>28.33</v>
+      </c>
+      <c r="E670" t="n">
+        <v>28.33</v>
+      </c>
     </row>
     <row r="671">
       <c r="A671" t="s">
@@ -11289,11 +11309,9 @@
         <v>2009</v>
       </c>
       <c r="D671" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="E671" t="n">
-        <v>2.6</v>
-      </c>
+        <v>25.76</v>
+      </c>
+      <c r="E671"/>
     </row>
     <row r="672">
       <c r="A672" t="s">
@@ -11306,9 +11324,11 @@
         <v>2010</v>
       </c>
       <c r="D672" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="E672"/>
+        <v>23.19</v>
+      </c>
+      <c r="E672" t="n">
+        <v>23.19</v>
+      </c>
     </row>
     <row r="673">
       <c r="A673" t="s">
@@ -11321,10 +11341,10 @@
         <v>2011</v>
       </c>
       <c r="D673" t="n">
-        <v>1.86</v>
+        <v>18.61</v>
       </c>
       <c r="E673" t="n">
-        <v>1.86</v>
+        <v>18.61</v>
       </c>
     </row>
     <row r="674">
@@ -11376,12 +11396,8 @@
       <c r="C677" t="n">
         <v>1990</v>
       </c>
-      <c r="D677" t="n">
-        <v>84.97</v>
-      </c>
-      <c r="E677" t="n">
-        <v>84.97</v>
-      </c>
+      <c r="D677"/>
+      <c r="E677"/>
     </row>
     <row r="678">
       <c r="A678" t="s">
@@ -11394,9 +11410,11 @@
         <v>1991</v>
       </c>
       <c r="D678" t="n">
-        <v>83.1666666666667</v>
-      </c>
-      <c r="E678"/>
+        <v>17.29</v>
+      </c>
+      <c r="E678" t="n">
+        <v>17.29</v>
+      </c>
     </row>
     <row r="679">
       <c r="A679" t="s">
@@ -11409,9 +11427,11 @@
         <v>1992</v>
       </c>
       <c r="D679" t="n">
-        <v>81.3633333333333</v>
-      </c>
-      <c r="E679"/>
+        <v>14.02</v>
+      </c>
+      <c r="E679" t="n">
+        <v>14.02</v>
+      </c>
     </row>
     <row r="680">
       <c r="A680" t="s">
@@ -11424,11 +11444,9 @@
         <v>1993</v>
       </c>
       <c r="D680" t="n">
-        <v>79.56</v>
-      </c>
-      <c r="E680" t="n">
-        <v>79.56</v>
-      </c>
+        <v>16.0525</v>
+      </c>
+      <c r="E680"/>
     </row>
     <row r="681">
       <c r="A681" t="s">
@@ -11441,7 +11459,7 @@
         <v>1994</v>
       </c>
       <c r="D681" t="n">
-        <v>75.1066666666667</v>
+        <v>18.085</v>
       </c>
       <c r="E681"/>
     </row>
@@ -11456,7 +11474,7 @@
         <v>1995</v>
       </c>
       <c r="D682" t="n">
-        <v>70.6533333333333</v>
+        <v>20.1175</v>
       </c>
       <c r="E682"/>
     </row>
@@ -11471,10 +11489,10 @@
         <v>1996</v>
       </c>
       <c r="D683" t="n">
-        <v>66.2</v>
+        <v>22.15</v>
       </c>
       <c r="E683" t="n">
-        <v>66.2</v>
+        <v>22.15</v>
       </c>
     </row>
     <row r="684">
@@ -11488,7 +11506,7 @@
         <v>1997</v>
       </c>
       <c r="D684" t="n">
-        <v>64.76</v>
+        <v>23.83</v>
       </c>
       <c r="E684"/>
     </row>
@@ -11503,7 +11521,7 @@
         <v>1998</v>
       </c>
       <c r="D685" t="n">
-        <v>63.32</v>
+        <v>25.51</v>
       </c>
       <c r="E685"/>
     </row>
@@ -11518,10 +11536,10 @@
         <v>1999</v>
       </c>
       <c r="D686" t="n">
-        <v>61.88</v>
+        <v>27.19</v>
       </c>
       <c r="E686" t="n">
-        <v>61.88</v>
+        <v>27.19</v>
       </c>
     </row>
     <row r="687">
@@ -11535,9 +11553,11 @@
         <v>2000</v>
       </c>
       <c r="D687" t="n">
-        <v>58.1633333333333</v>
-      </c>
-      <c r="E687"/>
+        <v>31.68</v>
+      </c>
+      <c r="E687" t="n">
+        <v>31.68</v>
+      </c>
     </row>
     <row r="688">
       <c r="A688" t="s">
@@ -11550,9 +11570,11 @@
         <v>2001</v>
       </c>
       <c r="D688" t="n">
-        <v>54.4466666666667</v>
-      </c>
-      <c r="E688"/>
+        <v>30.21</v>
+      </c>
+      <c r="E688" t="n">
+        <v>30.21</v>
+      </c>
     </row>
     <row r="689">
       <c r="A689" t="s">
@@ -11565,10 +11587,10 @@
         <v>2002</v>
       </c>
       <c r="D689" t="n">
-        <v>50.73</v>
+        <v>22.24</v>
       </c>
       <c r="E689" t="n">
-        <v>50.73</v>
+        <v>22.24</v>
       </c>
     </row>
     <row r="690">
@@ -11582,9 +11604,11 @@
         <v>2003</v>
       </c>
       <c r="D690" t="n">
-        <v>45.83</v>
-      </c>
-      <c r="E690"/>
+        <v>20.39</v>
+      </c>
+      <c r="E690" t="n">
+        <v>20.39</v>
+      </c>
     </row>
     <row r="691">
       <c r="A691" t="s">
@@ -11597,9 +11621,11 @@
         <v>2004</v>
       </c>
       <c r="D691" t="n">
-        <v>40.93</v>
-      </c>
-      <c r="E691"/>
+        <v>20.37</v>
+      </c>
+      <c r="E691" t="n">
+        <v>20.37</v>
+      </c>
     </row>
     <row r="692">
       <c r="A692" t="s">
@@ -11612,10 +11638,10 @@
         <v>2005</v>
       </c>
       <c r="D692" t="n">
-        <v>36.03</v>
+        <v>17.72</v>
       </c>
       <c r="E692" t="n">
-        <v>36.03</v>
+        <v>17.72</v>
       </c>
     </row>
     <row r="693">
@@ -11629,9 +11655,11 @@
         <v>2006</v>
       </c>
       <c r="D693" t="n">
-        <v>33.4633333333333</v>
-      </c>
-      <c r="E693"/>
+        <v>20.91</v>
+      </c>
+      <c r="E693" t="n">
+        <v>20.91</v>
+      </c>
     </row>
     <row r="694">
       <c r="A694" t="s">
@@ -11644,9 +11672,11 @@
         <v>2007</v>
       </c>
       <c r="D694" t="n">
-        <v>30.8966666666667</v>
-      </c>
-      <c r="E694"/>
+        <v>17.66</v>
+      </c>
+      <c r="E694" t="n">
+        <v>17.66</v>
+      </c>
     </row>
     <row r="695">
       <c r="A695" t="s">
@@ -11659,10 +11689,10 @@
         <v>2008</v>
       </c>
       <c r="D695" t="n">
-        <v>28.33</v>
+        <v>18.04</v>
       </c>
       <c r="E695" t="n">
-        <v>28.33</v>
+        <v>18.04</v>
       </c>
     </row>
     <row r="696">
@@ -11676,9 +11706,11 @@
         <v>2009</v>
       </c>
       <c r="D696" t="n">
-        <v>25.76</v>
-      </c>
-      <c r="E696"/>
+        <v>15.73</v>
+      </c>
+      <c r="E696" t="n">
+        <v>15.73</v>
+      </c>
     </row>
     <row r="697">
       <c r="A697" t="s">
@@ -11691,10 +11723,10 @@
         <v>2010</v>
       </c>
       <c r="D697" t="n">
-        <v>23.19</v>
+        <v>13.68</v>
       </c>
       <c r="E697" t="n">
-        <v>23.19</v>
+        <v>13.68</v>
       </c>
     </row>
     <row r="698">
@@ -11708,10 +11740,10 @@
         <v>2011</v>
       </c>
       <c r="D698" t="n">
-        <v>18.61</v>
+        <v>11.33</v>
       </c>
       <c r="E698" t="n">
-        <v>18.61</v>
+        <v>11.33</v>
       </c>
     </row>
     <row r="699">
@@ -11724,8 +11756,12 @@
       <c r="C699" t="n">
         <v>2012</v>
       </c>
-      <c r="D699"/>
-      <c r="E699"/>
+      <c r="D699" t="n">
+        <v>12</v>
+      </c>
+      <c r="E699" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="700">
       <c r="A700" t="s">
@@ -11776,12 +11812,8 @@
       <c r="C703" t="n">
         <v>1991</v>
       </c>
-      <c r="D703" t="n">
-        <v>17.29</v>
-      </c>
-      <c r="E703" t="n">
-        <v>17.29</v>
-      </c>
+      <c r="D703"/>
+      <c r="E703"/>
     </row>
     <row r="704">
       <c r="A704" t="s">
@@ -11793,12 +11825,8 @@
       <c r="C704" t="n">
         <v>1992</v>
       </c>
-      <c r="D704" t="n">
-        <v>14.02</v>
-      </c>
-      <c r="E704" t="n">
-        <v>14.02</v>
-      </c>
+      <c r="D704"/>
+      <c r="E704"/>
     </row>
     <row r="705">
       <c r="A705" t="s">
@@ -11810,9 +11838,7 @@
       <c r="C705" t="n">
         <v>1993</v>
       </c>
-      <c r="D705" t="n">
-        <v>16.0525</v>
-      </c>
+      <c r="D705"/>
       <c r="E705"/>
     </row>
     <row r="706">
@@ -11825,9 +11851,7 @@
       <c r="C706" t="n">
         <v>1994</v>
       </c>
-      <c r="D706" t="n">
-        <v>18.085</v>
-      </c>
+      <c r="D706"/>
       <c r="E706"/>
     </row>
     <row r="707">
@@ -11840,9 +11864,7 @@
       <c r="C707" t="n">
         <v>1995</v>
       </c>
-      <c r="D707" t="n">
-        <v>20.1175</v>
-      </c>
+      <c r="D707"/>
       <c r="E707"/>
     </row>
     <row r="708">
@@ -11855,12 +11877,8 @@
       <c r="C708" t="n">
         <v>1996</v>
       </c>
-      <c r="D708" t="n">
-        <v>22.15</v>
-      </c>
-      <c r="E708" t="n">
-        <v>22.15</v>
-      </c>
+      <c r="D708"/>
+      <c r="E708"/>
     </row>
     <row r="709">
       <c r="A709" t="s">
@@ -11872,9 +11890,7 @@
       <c r="C709" t="n">
         <v>1997</v>
       </c>
-      <c r="D709" t="n">
-        <v>23.83</v>
-      </c>
+      <c r="D709"/>
       <c r="E709"/>
     </row>
     <row r="710">
@@ -11887,9 +11903,7 @@
       <c r="C710" t="n">
         <v>1998</v>
       </c>
-      <c r="D710" t="n">
-        <v>25.51</v>
-      </c>
+      <c r="D710"/>
       <c r="E710"/>
     </row>
     <row r="711">
@@ -11902,12 +11916,8 @@
       <c r="C711" t="n">
         <v>1999</v>
       </c>
-      <c r="D711" t="n">
-        <v>27.19</v>
-      </c>
-      <c r="E711" t="n">
-        <v>27.19</v>
-      </c>
+      <c r="D711"/>
+      <c r="E711"/>
     </row>
     <row r="712">
       <c r="A712" t="s">
@@ -11919,12 +11929,8 @@
       <c r="C712" t="n">
         <v>2000</v>
       </c>
-      <c r="D712" t="n">
-        <v>31.68</v>
-      </c>
-      <c r="E712" t="n">
-        <v>31.68</v>
-      </c>
+      <c r="D712"/>
+      <c r="E712"/>
     </row>
     <row r="713">
       <c r="A713" t="s">
@@ -11936,12 +11942,8 @@
       <c r="C713" t="n">
         <v>2001</v>
       </c>
-      <c r="D713" t="n">
-        <v>30.21</v>
-      </c>
-      <c r="E713" t="n">
-        <v>30.21</v>
-      </c>
+      <c r="D713"/>
+      <c r="E713"/>
     </row>
     <row r="714">
       <c r="A714" t="s">
@@ -11953,12 +11955,8 @@
       <c r="C714" t="n">
         <v>2002</v>
       </c>
-      <c r="D714" t="n">
-        <v>22.24</v>
-      </c>
-      <c r="E714" t="n">
-        <v>22.24</v>
-      </c>
+      <c r="D714"/>
+      <c r="E714"/>
     </row>
     <row r="715">
       <c r="A715" t="s">
@@ -11970,12 +11968,8 @@
       <c r="C715" t="n">
         <v>2003</v>
       </c>
-      <c r="D715" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="E715" t="n">
-        <v>20.39</v>
-      </c>
+      <c r="D715"/>
+      <c r="E715"/>
     </row>
     <row r="716">
       <c r="A716" t="s">
@@ -11988,10 +11982,10 @@
         <v>2004</v>
       </c>
       <c r="D716" t="n">
-        <v>20.37</v>
+        <v>64.98</v>
       </c>
       <c r="E716" t="n">
-        <v>20.37</v>
+        <v>64.98</v>
       </c>
     </row>
     <row r="717">
@@ -12004,12 +11998,8 @@
       <c r="C717" t="n">
         <v>2005</v>
       </c>
-      <c r="D717" t="n">
-        <v>17.72</v>
-      </c>
-      <c r="E717" t="n">
-        <v>17.72</v>
-      </c>
+      <c r="D717"/>
+      <c r="E717"/>
     </row>
     <row r="718">
       <c r="A718" t="s">
@@ -12021,12 +12011,8 @@
       <c r="C718" t="n">
         <v>2006</v>
       </c>
-      <c r="D718" t="n">
-        <v>20.91</v>
-      </c>
-      <c r="E718" t="n">
-        <v>20.91</v>
-      </c>
+      <c r="D718"/>
+      <c r="E718"/>
     </row>
     <row r="719">
       <c r="A719" t="s">
@@ -12038,12 +12024,8 @@
       <c r="C719" t="n">
         <v>2007</v>
       </c>
-      <c r="D719" t="n">
-        <v>17.66</v>
-      </c>
-      <c r="E719" t="n">
-        <v>17.66</v>
-      </c>
+      <c r="D719"/>
+      <c r="E719"/>
     </row>
     <row r="720">
       <c r="A720" t="s">
@@ -12055,12 +12037,8 @@
       <c r="C720" t="n">
         <v>2008</v>
       </c>
-      <c r="D720" t="n">
-        <v>18.04</v>
-      </c>
-      <c r="E720" t="n">
-        <v>18.04</v>
-      </c>
+      <c r="D720"/>
+      <c r="E720"/>
     </row>
     <row r="721">
       <c r="A721" t="s">
@@ -12072,12 +12050,8 @@
       <c r="C721" t="n">
         <v>2009</v>
       </c>
-      <c r="D721" t="n">
-        <v>15.73</v>
-      </c>
-      <c r="E721" t="n">
-        <v>15.73</v>
-      </c>
+      <c r="D721"/>
+      <c r="E721"/>
     </row>
     <row r="722">
       <c r="A722" t="s">
@@ -12089,12 +12063,8 @@
       <c r="C722" t="n">
         <v>2010</v>
       </c>
-      <c r="D722" t="n">
-        <v>13.68</v>
-      </c>
-      <c r="E722" t="n">
-        <v>13.68</v>
-      </c>
+      <c r="D722"/>
+      <c r="E722"/>
     </row>
     <row r="723">
       <c r="A723" t="s">
@@ -12106,12 +12076,8 @@
       <c r="C723" t="n">
         <v>2011</v>
       </c>
-      <c r="D723" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="E723" t="n">
-        <v>11.33</v>
-      </c>
+      <c r="D723"/>
+      <c r="E723"/>
     </row>
     <row r="724">
       <c r="A724" t="s">
@@ -12123,12 +12089,8 @@
       <c r="C724" t="n">
         <v>2012</v>
       </c>
-      <c r="D724" t="n">
-        <v>12</v>
-      </c>
-      <c r="E724" t="n">
-        <v>12</v>
-      </c>
+      <c r="D724"/>
+      <c r="E724"/>
     </row>
     <row r="725">
       <c r="A725" t="s">
@@ -12348,12 +12310,8 @@
       <c r="C741" t="n">
         <v>2004</v>
       </c>
-      <c r="D741" t="n">
-        <v>64.98</v>
-      </c>
-      <c r="E741" t="n">
-        <v>64.98</v>
-      </c>
+      <c r="D741"/>
+      <c r="E741"/>
     </row>
     <row r="742">
       <c r="A742" t="s">
@@ -12365,8 +12323,12 @@
       <c r="C742" t="n">
         <v>2005</v>
       </c>
-      <c r="D742"/>
-      <c r="E742"/>
+      <c r="D742" t="n">
+        <v>74.4</v>
+      </c>
+      <c r="E742" t="n">
+        <v>74.4</v>
+      </c>
     </row>
     <row r="743">
       <c r="A743" t="s">
@@ -12378,7 +12340,9 @@
       <c r="C743" t="n">
         <v>2006</v>
       </c>
-      <c r="D743"/>
+      <c r="D743" t="n">
+        <v>71.5416666666667</v>
+      </c>
       <c r="E743"/>
     </row>
     <row r="744">
@@ -12391,7 +12355,9 @@
       <c r="C744" t="n">
         <v>2007</v>
       </c>
-      <c r="D744"/>
+      <c r="D744" t="n">
+        <v>68.6833333333333</v>
+      </c>
       <c r="E744"/>
     </row>
     <row r="745">
@@ -12404,7 +12370,9 @@
       <c r="C745" t="n">
         <v>2008</v>
       </c>
-      <c r="D745"/>
+      <c r="D745" t="n">
+        <v>65.825</v>
+      </c>
       <c r="E745"/>
     </row>
     <row r="746">
@@ -12417,7 +12385,9 @@
       <c r="C746" t="n">
         <v>2009</v>
       </c>
-      <c r="D746"/>
+      <c r="D746" t="n">
+        <v>62.9666666666667</v>
+      </c>
       <c r="E746"/>
     </row>
     <row r="747">
@@ -12430,7 +12400,9 @@
       <c r="C747" t="n">
         <v>2010</v>
       </c>
-      <c r="D747"/>
+      <c r="D747" t="n">
+        <v>60.1083333333333</v>
+      </c>
       <c r="E747"/>
     </row>
     <row r="748">
@@ -12443,8 +12415,12 @@
       <c r="C748" t="n">
         <v>2011</v>
       </c>
-      <c r="D748"/>
-      <c r="E748"/>
+      <c r="D748" t="n">
+        <v>57.25</v>
+      </c>
+      <c r="E748" t="n">
+        <v>57.25</v>
+      </c>
     </row>
     <row r="749">
       <c r="A749" t="s">
@@ -12495,8 +12471,12 @@
       <c r="C752" t="n">
         <v>1990</v>
       </c>
-      <c r="D752"/>
-      <c r="E752"/>
+      <c r="D752" t="n">
+        <v>15.27</v>
+      </c>
+      <c r="E752" t="n">
+        <v>15.27</v>
+      </c>
     </row>
     <row r="753">
       <c r="A753" t="s">
@@ -12508,8 +12488,12 @@
       <c r="C753" t="n">
         <v>1991</v>
       </c>
-      <c r="D753"/>
-      <c r="E753"/>
+      <c r="D753" t="n">
+        <v>18.96</v>
+      </c>
+      <c r="E753" t="n">
+        <v>18.96</v>
+      </c>
     </row>
     <row r="754">
       <c r="A754" t="s">
@@ -12521,8 +12505,12 @@
       <c r="C754" t="n">
         <v>1992</v>
       </c>
-      <c r="D754"/>
-      <c r="E754"/>
+      <c r="D754" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="E754" t="n">
+        <v>15.15</v>
+      </c>
     </row>
     <row r="755">
       <c r="A755" t="s">
@@ -12534,8 +12522,12 @@
       <c r="C755" t="n">
         <v>1993</v>
       </c>
-      <c r="D755"/>
-      <c r="E755"/>
+      <c r="D755" t="n">
+        <v>12.39</v>
+      </c>
+      <c r="E755" t="n">
+        <v>12.39</v>
+      </c>
     </row>
     <row r="756">
       <c r="A756" t="s">
@@ -12547,8 +12539,12 @@
       <c r="C756" t="n">
         <v>1994</v>
       </c>
-      <c r="D756"/>
-      <c r="E756"/>
+      <c r="D756" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="E756" t="n">
+        <v>10.54</v>
+      </c>
     </row>
     <row r="757">
       <c r="A757" t="s">
@@ -12560,8 +12556,12 @@
       <c r="C757" t="n">
         <v>1995</v>
       </c>
-      <c r="D757"/>
-      <c r="E757"/>
+      <c r="D757" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="E757" t="n">
+        <v>11.24</v>
+      </c>
     </row>
     <row r="758">
       <c r="A758" t="s">
@@ -12573,8 +12573,12 @@
       <c r="C758" t="n">
         <v>1996</v>
       </c>
-      <c r="D758"/>
-      <c r="E758"/>
+      <c r="D758" t="n">
+        <v>12.89</v>
+      </c>
+      <c r="E758" t="n">
+        <v>12.89</v>
+      </c>
     </row>
     <row r="759">
       <c r="A759" t="s">
@@ -12586,8 +12590,12 @@
       <c r="C759" t="n">
         <v>1997</v>
       </c>
-      <c r="D759"/>
-      <c r="E759"/>
+      <c r="D759" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="E759" t="n">
+        <v>10.04</v>
+      </c>
     </row>
     <row r="760">
       <c r="A760" t="s">
@@ -12599,8 +12607,12 @@
       <c r="C760" t="n">
         <v>1998</v>
       </c>
-      <c r="D760"/>
-      <c r="E760"/>
+      <c r="D760" t="n">
+        <v>8.13</v>
+      </c>
+      <c r="E760" t="n">
+        <v>8.13</v>
+      </c>
     </row>
     <row r="761">
       <c r="A761" t="s">
@@ -12612,8 +12624,12 @@
       <c r="C761" t="n">
         <v>1999</v>
       </c>
-      <c r="D761"/>
-      <c r="E761"/>
+      <c r="D761" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="E761" t="n">
+        <v>10.25</v>
+      </c>
     </row>
     <row r="762">
       <c r="A762" t="s">
@@ -12625,8 +12641,12 @@
       <c r="C762" t="n">
         <v>2000</v>
       </c>
-      <c r="D762"/>
-      <c r="E762"/>
+      <c r="D762" t="n">
+        <v>10.92</v>
+      </c>
+      <c r="E762" t="n">
+        <v>10.92</v>
+      </c>
     </row>
     <row r="763">
       <c r="A763" t="s">
@@ -12638,8 +12658,12 @@
       <c r="C763" t="n">
         <v>2001</v>
       </c>
-      <c r="D763"/>
-      <c r="E763"/>
+      <c r="D763" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="E763" t="n">
+        <v>10.08</v>
+      </c>
     </row>
     <row r="764">
       <c r="A764" t="s">
@@ -12651,8 +12675,12 @@
       <c r="C764" t="n">
         <v>2002</v>
       </c>
-      <c r="D764"/>
-      <c r="E764"/>
+      <c r="D764" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="E764" t="n">
+        <v>9.58</v>
+      </c>
     </row>
     <row r="765">
       <c r="A765" t="s">
@@ -12664,8 +12692,12 @@
       <c r="C765" t="n">
         <v>2003</v>
       </c>
-      <c r="D765"/>
-      <c r="E765"/>
+      <c r="D765" t="n">
+        <v>9.22</v>
+      </c>
+      <c r="E765" t="n">
+        <v>9.22</v>
+      </c>
     </row>
     <row r="766">
       <c r="A766" t="s">
@@ -12677,8 +12709,12 @@
       <c r="C766" t="n">
         <v>2004</v>
       </c>
-      <c r="D766"/>
-      <c r="E766"/>
+      <c r="D766" t="n">
+        <v>8.74</v>
+      </c>
+      <c r="E766" t="n">
+        <v>8.74</v>
+      </c>
     </row>
     <row r="767">
       <c r="A767" t="s">
@@ -12691,10 +12727,10 @@
         <v>2005</v>
       </c>
       <c r="D767" t="n">
-        <v>74.4</v>
+        <v>7.32</v>
       </c>
       <c r="E767" t="n">
-        <v>74.4</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="768">
@@ -12708,9 +12744,11 @@
         <v>2006</v>
       </c>
       <c r="D768" t="n">
-        <v>71.5416666666667</v>
-      </c>
-      <c r="E768"/>
+        <v>7.27</v>
+      </c>
+      <c r="E768" t="n">
+        <v>7.27</v>
+      </c>
     </row>
     <row r="769">
       <c r="A769" t="s">
@@ -12723,9 +12761,11 @@
         <v>2007</v>
       </c>
       <c r="D769" t="n">
-        <v>68.6833333333333</v>
-      </c>
-      <c r="E769"/>
+        <v>4.32</v>
+      </c>
+      <c r="E769" t="n">
+        <v>4.32</v>
+      </c>
     </row>
     <row r="770">
       <c r="A770" t="s">
@@ -12738,9 +12778,11 @@
         <v>2008</v>
       </c>
       <c r="D770" t="n">
-        <v>65.825</v>
-      </c>
-      <c r="E770"/>
+        <v>4.51</v>
+      </c>
+      <c r="E770" t="n">
+        <v>4.51</v>
+      </c>
     </row>
     <row r="771">
       <c r="A771" t="s">
@@ -12753,9 +12795,11 @@
         <v>2009</v>
       </c>
       <c r="D771" t="n">
-        <v>62.9666666666667</v>
-      </c>
-      <c r="E771"/>
+        <v>5.17</v>
+      </c>
+      <c r="E771" t="n">
+        <v>5.17</v>
+      </c>
     </row>
     <row r="772">
       <c r="A772" t="s">
@@ -12768,9 +12812,11 @@
         <v>2010</v>
       </c>
       <c r="D772" t="n">
-        <v>60.1083333333333</v>
-      </c>
-      <c r="E772"/>
+        <v>2.9</v>
+      </c>
+      <c r="E772" t="n">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="773">
       <c r="A773" t="s">
@@ -12783,10 +12829,10 @@
         <v>2011</v>
       </c>
       <c r="D773" t="n">
-        <v>57.25</v>
+        <v>3.2</v>
       </c>
       <c r="E773" t="n">
-        <v>57.25</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="774">
@@ -12799,8 +12845,12 @@
       <c r="C774" t="n">
         <v>2012</v>
       </c>
-      <c r="D774"/>
-      <c r="E774"/>
+      <c r="D774" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="E774" t="n">
+        <v>3.11</v>
+      </c>
     </row>
     <row r="775">
       <c r="A775" t="s">
@@ -12838,12 +12888,8 @@
       <c r="C777" t="n">
         <v>1990</v>
       </c>
-      <c r="D777" t="n">
-        <v>15.27</v>
-      </c>
-      <c r="E777" t="n">
-        <v>15.27</v>
-      </c>
+      <c r="D777"/>
+      <c r="E777"/>
     </row>
     <row r="778">
       <c r="A778" t="s">
@@ -12855,12 +12901,8 @@
       <c r="C778" t="n">
         <v>1991</v>
       </c>
-      <c r="D778" t="n">
-        <v>18.96</v>
-      </c>
-      <c r="E778" t="n">
-        <v>18.96</v>
-      </c>
+      <c r="D778"/>
+      <c r="E778"/>
     </row>
     <row r="779">
       <c r="A779" t="s">
@@ -12872,12 +12914,8 @@
       <c r="C779" t="n">
         <v>1992</v>
       </c>
-      <c r="D779" t="n">
-        <v>15.15</v>
-      </c>
-      <c r="E779" t="n">
-        <v>15.15</v>
-      </c>
+      <c r="D779"/>
+      <c r="E779"/>
     </row>
     <row r="780">
       <c r="A780" t="s">
@@ -12890,10 +12928,10 @@
         <v>1993</v>
       </c>
       <c r="D780" t="n">
-        <v>12.39</v>
+        <v>50.75</v>
       </c>
       <c r="E780" t="n">
-        <v>12.39</v>
+        <v>50.75</v>
       </c>
     </row>
     <row r="781">
@@ -12907,11 +12945,9 @@
         <v>1994</v>
       </c>
       <c r="D781" t="n">
-        <v>10.54</v>
-      </c>
-      <c r="E781" t="n">
-        <v>10.54</v>
-      </c>
+        <v>49.35</v>
+      </c>
+      <c r="E781"/>
     </row>
     <row r="782">
       <c r="A782" t="s">
@@ -12924,10 +12960,10 @@
         <v>1995</v>
       </c>
       <c r="D782" t="n">
-        <v>11.24</v>
+        <v>47.95</v>
       </c>
       <c r="E782" t="n">
-        <v>11.24</v>
+        <v>47.95</v>
       </c>
     </row>
     <row r="783">
@@ -12941,11 +12977,9 @@
         <v>1996</v>
       </c>
       <c r="D783" t="n">
-        <v>12.89</v>
-      </c>
-      <c r="E783" t="n">
-        <v>12.89</v>
-      </c>
+        <v>50.9933333333333</v>
+      </c>
+      <c r="E783"/>
     </row>
     <row r="784">
       <c r="A784" t="s">
@@ -12958,11 +12992,9 @@
         <v>1997</v>
       </c>
       <c r="D784" t="n">
-        <v>10.04</v>
-      </c>
-      <c r="E784" t="n">
-        <v>10.04</v>
-      </c>
+        <v>54.0366666666667</v>
+      </c>
+      <c r="E784"/>
     </row>
     <row r="785">
       <c r="A785" t="s">
@@ -12975,10 +13007,10 @@
         <v>1998</v>
       </c>
       <c r="D785" t="n">
-        <v>8.13</v>
+        <v>57.08</v>
       </c>
       <c r="E785" t="n">
-        <v>8.13</v>
+        <v>57.08</v>
       </c>
     </row>
     <row r="786">
@@ -12992,11 +13024,9 @@
         <v>1999</v>
       </c>
       <c r="D786" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="E786" t="n">
-        <v>10.25</v>
-      </c>
+        <v>57.03</v>
+      </c>
+      <c r="E786"/>
     </row>
     <row r="787">
       <c r="A787" t="s">
@@ -13009,11 +13039,9 @@
         <v>2000</v>
       </c>
       <c r="D787" t="n">
-        <v>10.92</v>
-      </c>
-      <c r="E787" t="n">
-        <v>10.92</v>
-      </c>
+        <v>56.98</v>
+      </c>
+      <c r="E787"/>
     </row>
     <row r="788">
       <c r="A788" t="s">
@@ -13026,11 +13054,9 @@
         <v>2001</v>
       </c>
       <c r="D788" t="n">
-        <v>10.08</v>
-      </c>
-      <c r="E788" t="n">
-        <v>10.08</v>
-      </c>
+        <v>56.93</v>
+      </c>
+      <c r="E788"/>
     </row>
     <row r="789">
       <c r="A789" t="s">
@@ -13043,10 +13069,10 @@
         <v>2002</v>
       </c>
       <c r="D789" t="n">
-        <v>9.58</v>
+        <v>56.88</v>
       </c>
       <c r="E789" t="n">
-        <v>9.58</v>
+        <v>56.88</v>
       </c>
     </row>
     <row r="790">
@@ -13060,11 +13086,9 @@
         <v>2003</v>
       </c>
       <c r="D790" t="n">
-        <v>9.22</v>
-      </c>
-      <c r="E790" t="n">
-        <v>9.22</v>
-      </c>
+        <v>57.245</v>
+      </c>
+      <c r="E790"/>
     </row>
     <row r="791">
       <c r="A791" t="s">
@@ -13077,11 +13101,9 @@
         <v>2004</v>
       </c>
       <c r="D791" t="n">
-        <v>8.74</v>
-      </c>
-      <c r="E791" t="n">
-        <v>8.74</v>
-      </c>
+        <v>57.61</v>
+      </c>
+      <c r="E791"/>
     </row>
     <row r="792">
       <c r="A792" t="s">
@@ -13094,11 +13116,9 @@
         <v>2005</v>
       </c>
       <c r="D792" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="E792" t="n">
-        <v>7.32</v>
-      </c>
+        <v>57.975</v>
+      </c>
+      <c r="E792"/>
     </row>
     <row r="793">
       <c r="A793" t="s">
@@ -13111,11 +13131,9 @@
         <v>2006</v>
       </c>
       <c r="D793" t="n">
-        <v>7.27</v>
-      </c>
-      <c r="E793" t="n">
-        <v>7.27</v>
-      </c>
+        <v>58.34</v>
+      </c>
+      <c r="E793"/>
     </row>
     <row r="794">
       <c r="A794" t="s">
@@ -13128,11 +13146,9 @@
         <v>2007</v>
       </c>
       <c r="D794" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="E794" t="n">
-        <v>4.32</v>
-      </c>
+        <v>58.705</v>
+      </c>
+      <c r="E794"/>
     </row>
     <row r="795">
       <c r="A795" t="s">
@@ -13145,10 +13161,10 @@
         <v>2008</v>
       </c>
       <c r="D795" t="n">
-        <v>4.51</v>
+        <v>59.07</v>
       </c>
       <c r="E795" t="n">
-        <v>4.51</v>
+        <v>59.07</v>
       </c>
     </row>
     <row r="796">
@@ -13161,12 +13177,8 @@
       <c r="C796" t="n">
         <v>2009</v>
       </c>
-      <c r="D796" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="E796" t="n">
-        <v>5.17</v>
-      </c>
+      <c r="D796"/>
+      <c r="E796"/>
     </row>
     <row r="797">
       <c r="A797" t="s">
@@ -13178,12 +13190,8 @@
       <c r="C797" t="n">
         <v>2010</v>
       </c>
-      <c r="D797" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="E797" t="n">
-        <v>2.9</v>
-      </c>
+      <c r="D797"/>
+      <c r="E797"/>
     </row>
     <row r="798">
       <c r="A798" t="s">
@@ -13195,12 +13203,8 @@
       <c r="C798" t="n">
         <v>2011</v>
       </c>
-      <c r="D798" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="E798" t="n">
-        <v>3.2</v>
-      </c>
+      <c r="D798"/>
+      <c r="E798"/>
     </row>
     <row r="799">
       <c r="A799" t="s">
@@ -13212,12 +13216,8 @@
       <c r="C799" t="n">
         <v>2012</v>
       </c>
-      <c r="D799" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="E799" t="n">
-        <v>3.11</v>
-      </c>
+      <c r="D799"/>
+      <c r="E799"/>
     </row>
     <row r="800">
       <c r="A800" t="s">
@@ -57095,57 +57095,61 @@
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
-      <c r="F22" t="n">
-        <v>50.75</v>
-      </c>
+      <c r="F22"/>
       <c r="G22" t="n">
-        <v>49.35</v>
+        <v>75.24</v>
       </c>
       <c r="H22" t="n">
-        <v>47.95</v>
+        <v>74.159</v>
       </c>
       <c r="I22" t="n">
-        <v>50.9933333333333</v>
+        <v>73.078</v>
       </c>
       <c r="J22" t="n">
-        <v>54.0366666666667</v>
+        <v>71.997</v>
       </c>
       <c r="K22" t="n">
-        <v>57.08</v>
+        <v>70.916</v>
       </c>
       <c r="L22" t="n">
-        <v>57.03</v>
+        <v>69.835</v>
       </c>
       <c r="M22" t="n">
-        <v>56.98</v>
+        <v>68.754</v>
       </c>
       <c r="N22" t="n">
-        <v>56.93</v>
+        <v>67.673</v>
       </c>
       <c r="O22" t="n">
-        <v>56.88</v>
+        <v>66.592</v>
       </c>
       <c r="P22" t="n">
-        <v>57.245</v>
+        <v>65.511</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.61</v>
+        <v>64.43</v>
       </c>
       <c r="R22" t="n">
-        <v>57.975</v>
+        <v>62.75</v>
       </c>
       <c r="S22" t="n">
-        <v>58.34</v>
+        <v>61.07</v>
       </c>
       <c r="T22" t="n">
-        <v>58.705</v>
+        <v>59.39</v>
       </c>
       <c r="U22" t="n">
-        <v>59.07</v>
-      </c>
-      <c r="V22"/>
-      <c r="W22"/>
-      <c r="X22"/>
+        <v>51.05</v>
+      </c>
+      <c r="V22" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="W22" t="n">
+        <v>40.88</v>
+      </c>
+      <c r="X22" t="n">
+        <v>41.26</v>
+      </c>
       <c r="Y22"/>
       <c r="Z22"/>
       <c r="AA22"/>
@@ -57161,60 +57165,48 @@
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
-      <c r="G23" t="n">
-        <v>75.24</v>
-      </c>
-      <c r="H23" t="n">
-        <v>74.159</v>
-      </c>
+      <c r="G23"/>
+      <c r="H23"/>
       <c r="I23" t="n">
-        <v>73.078</v>
+        <v>71.5</v>
       </c>
       <c r="J23" t="n">
-        <v>71.997</v>
+        <v>67.338</v>
       </c>
       <c r="K23" t="n">
-        <v>70.916</v>
+        <v>63.176</v>
       </c>
       <c r="L23" t="n">
-        <v>69.835</v>
+        <v>59.014</v>
       </c>
       <c r="M23" t="n">
-        <v>68.754</v>
+        <v>54.852</v>
       </c>
       <c r="N23" t="n">
-        <v>67.673</v>
+        <v>50.69</v>
       </c>
       <c r="O23" t="n">
-        <v>66.592</v>
+        <v>51.1</v>
       </c>
       <c r="P23" t="n">
-        <v>65.511</v>
+        <v>51.51</v>
       </c>
       <c r="Q23" t="n">
-        <v>64.43</v>
+        <v>51.92</v>
       </c>
       <c r="R23" t="n">
-        <v>62.75</v>
+        <v>52.33</v>
       </c>
       <c r="S23" t="n">
-        <v>61.07</v>
+        <v>52.74</v>
       </c>
       <c r="T23" t="n">
-        <v>59.39</v>
-      </c>
-      <c r="U23" t="n">
-        <v>51.05</v>
-      </c>
-      <c r="V23" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="W23" t="n">
-        <v>40.88</v>
-      </c>
-      <c r="X23" t="n">
-        <v>41.26</v>
-      </c>
+        <v>53.15</v>
+      </c>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
       <c r="Y23"/>
       <c r="Z23"/>
       <c r="AA23"/>
@@ -57232,41 +57224,29 @@
       <c r="F24"/>
       <c r="G24"/>
       <c r="H24"/>
-      <c r="I24" t="n">
-        <v>71.5</v>
-      </c>
-      <c r="J24" t="n">
-        <v>67.338</v>
-      </c>
-      <c r="K24" t="n">
-        <v>63.176</v>
-      </c>
-      <c r="L24" t="n">
-        <v>59.014</v>
-      </c>
-      <c r="M24" t="n">
-        <v>54.852</v>
-      </c>
-      <c r="N24" t="n">
-        <v>50.69</v>
-      </c>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
       <c r="O24" t="n">
-        <v>51.1</v>
+        <v>40.85</v>
       </c>
       <c r="P24" t="n">
-        <v>51.51</v>
+        <v>39.62</v>
       </c>
       <c r="Q24" t="n">
-        <v>51.92</v>
+        <v>38.39</v>
       </c>
       <c r="R24" t="n">
-        <v>52.33</v>
+        <v>37.16</v>
       </c>
       <c r="S24" t="n">
-        <v>52.74</v>
+        <v>35.93</v>
       </c>
       <c r="T24" t="n">
-        <v>53.15</v>
+        <v>34.7</v>
       </c>
       <c r="U24"/>
       <c r="V24"/>
@@ -57285,35 +57265,57 @@
       </c>
       <c r="C25"/>
       <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
+      <c r="E25" t="n">
+        <v>90.97</v>
+      </c>
+      <c r="F25" t="n">
+        <v>90.1454545454545</v>
+      </c>
+      <c r="G25" t="n">
+        <v>89.3209090909091</v>
+      </c>
+      <c r="H25" t="n">
+        <v>88.4963636363636</v>
+      </c>
+      <c r="I25" t="n">
+        <v>87.6718181818182</v>
+      </c>
+      <c r="J25" t="n">
+        <v>86.8472727272727</v>
+      </c>
+      <c r="K25" t="n">
+        <v>86.0227272727273</v>
+      </c>
+      <c r="L25" t="n">
+        <v>85.1981818181818</v>
+      </c>
+      <c r="M25" t="n">
+        <v>84.3736363636364</v>
+      </c>
+      <c r="N25" t="n">
+        <v>83.5490909090909</v>
+      </c>
       <c r="O25" t="n">
-        <v>40.85</v>
+        <v>82.7245454545455</v>
       </c>
       <c r="P25" t="n">
-        <v>39.62</v>
+        <v>81.9</v>
       </c>
       <c r="Q25" t="n">
-        <v>38.39</v>
+        <v>81.538</v>
       </c>
       <c r="R25" t="n">
-        <v>37.16</v>
+        <v>81.176</v>
       </c>
       <c r="S25" t="n">
-        <v>35.93</v>
+        <v>80.814</v>
       </c>
       <c r="T25" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="U25"/>
+        <v>80.452</v>
+      </c>
+      <c r="U25" t="n">
+        <v>80.09</v>
+      </c>
       <c r="V25"/>
       <c r="W25"/>
       <c r="X25"/>
@@ -57330,60 +57332,46 @@
       </c>
       <c r="C26"/>
       <c r="D26"/>
-      <c r="E26" t="n">
-        <v>90.97</v>
-      </c>
-      <c r="F26" t="n">
-        <v>90.1454545454545</v>
-      </c>
-      <c r="G26" t="n">
-        <v>89.3209090909091</v>
-      </c>
-      <c r="H26" t="n">
-        <v>88.4963636363636</v>
-      </c>
-      <c r="I26" t="n">
-        <v>87.6718181818182</v>
-      </c>
-      <c r="J26" t="n">
-        <v>86.8472727272727</v>
-      </c>
-      <c r="K26" t="n">
-        <v>86.0227272727273</v>
-      </c>
-      <c r="L26" t="n">
-        <v>85.1981818181818</v>
-      </c>
-      <c r="M26" t="n">
-        <v>84.3736363636364</v>
-      </c>
-      <c r="N26" t="n">
-        <v>83.5490909090909</v>
-      </c>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
       <c r="O26" t="n">
-        <v>82.7245454545455</v>
+        <v>83.28</v>
       </c>
       <c r="P26" t="n">
-        <v>81.9</v>
+        <v>80.7533333333333</v>
       </c>
       <c r="Q26" t="n">
-        <v>81.538</v>
+        <v>78.2266666666667</v>
       </c>
       <c r="R26" t="n">
-        <v>81.176</v>
+        <v>75.7</v>
       </c>
       <c r="S26" t="n">
-        <v>80.814</v>
+        <v>73.1733333333333</v>
       </c>
       <c r="T26" t="n">
-        <v>80.452</v>
+        <v>70.6466666666667</v>
       </c>
       <c r="U26" t="n">
-        <v>80.09</v>
-      </c>
-      <c r="V26"/>
-      <c r="W26"/>
-      <c r="X26"/>
+        <v>68.12</v>
+      </c>
+      <c r="V26" t="n">
+        <v>65.5933333333333</v>
+      </c>
+      <c r="W26" t="n">
+        <v>63.0666666666667</v>
+      </c>
+      <c r="X26" t="n">
+        <v>60.54</v>
+      </c>
       <c r="Y26"/>
       <c r="Z26"/>
       <c r="AA26"/>
@@ -57395,47 +57383,71 @@
       <c r="B27" t="s">
         <v>56</v>
       </c>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
+      <c r="C27" t="n">
+        <v>13.73</v>
+      </c>
+      <c r="D27" t="n">
+        <v>11.485</v>
+      </c>
+      <c r="E27" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="F27" t="n">
+        <v>8.975</v>
+      </c>
+      <c r="G27" t="n">
+        <v>8.71</v>
+      </c>
+      <c r="H27" t="n">
+        <v>7.595</v>
+      </c>
+      <c r="I27" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="J27" t="n">
+        <v>6.295</v>
+      </c>
+      <c r="K27" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="L27" t="n">
+        <v>5.785</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="N27" t="n">
+        <v>5.15666666666667</v>
+      </c>
       <c r="O27" t="n">
-        <v>83.28</v>
+        <v>4.85333333333333</v>
       </c>
       <c r="P27" t="n">
-        <v>80.7533333333333</v>
+        <v>4.55</v>
       </c>
       <c r="Q27" t="n">
-        <v>78.2266666666667</v>
+        <v>4.07333333333333</v>
       </c>
       <c r="R27" t="n">
-        <v>75.7</v>
+        <v>3.59666666666667</v>
       </c>
       <c r="S27" t="n">
-        <v>73.1733333333333</v>
+        <v>3.12</v>
       </c>
       <c r="T27" t="n">
-        <v>70.6466666666667</v>
+        <v>2.94666666666667</v>
       </c>
       <c r="U27" t="n">
-        <v>68.12</v>
+        <v>2.77333333333333</v>
       </c>
       <c r="V27" t="n">
-        <v>65.5933333333333</v>
+        <v>2.6</v>
       </c>
       <c r="W27" t="n">
-        <v>63.0666666666667</v>
+        <v>2.23</v>
       </c>
       <c r="X27" t="n">
-        <v>60.54</v>
+        <v>1.86</v>
       </c>
       <c r="Y27"/>
       <c r="Z27"/>
@@ -57449,70 +57461,70 @@
         <v>58</v>
       </c>
       <c r="C28" t="n">
-        <v>13.73</v>
+        <v>84.97</v>
       </c>
       <c r="D28" t="n">
-        <v>11.485</v>
+        <v>83.1666666666667</v>
       </c>
       <c r="E28" t="n">
-        <v>9.24</v>
+        <v>81.3633333333333</v>
       </c>
       <c r="F28" t="n">
-        <v>8.975</v>
+        <v>79.56</v>
       </c>
       <c r="G28" t="n">
-        <v>8.71</v>
+        <v>75.1066666666667</v>
       </c>
       <c r="H28" t="n">
-        <v>7.595</v>
+        <v>70.6533333333333</v>
       </c>
       <c r="I28" t="n">
-        <v>6.48</v>
+        <v>66.2</v>
       </c>
       <c r="J28" t="n">
-        <v>6.295</v>
+        <v>64.76</v>
       </c>
       <c r="K28" t="n">
-        <v>6.11</v>
+        <v>63.32</v>
       </c>
       <c r="L28" t="n">
-        <v>5.785</v>
+        <v>61.88</v>
       </c>
       <c r="M28" t="n">
-        <v>5.46</v>
+        <v>58.1633333333333</v>
       </c>
       <c r="N28" t="n">
-        <v>5.15666666666667</v>
+        <v>54.4466666666667</v>
       </c>
       <c r="O28" t="n">
-        <v>4.85333333333333</v>
+        <v>50.73</v>
       </c>
       <c r="P28" t="n">
-        <v>4.55</v>
+        <v>45.83</v>
       </c>
       <c r="Q28" t="n">
-        <v>4.07333333333333</v>
+        <v>40.93</v>
       </c>
       <c r="R28" t="n">
-        <v>3.59666666666667</v>
+        <v>36.03</v>
       </c>
       <c r="S28" t="n">
-        <v>3.12</v>
+        <v>33.4633333333333</v>
       </c>
       <c r="T28" t="n">
-        <v>2.94666666666667</v>
+        <v>30.8966666666667</v>
       </c>
       <c r="U28" t="n">
-        <v>2.77333333333333</v>
+        <v>28.33</v>
       </c>
       <c r="V28" t="n">
-        <v>2.6</v>
+        <v>25.76</v>
       </c>
       <c r="W28" t="n">
-        <v>2.23</v>
+        <v>23.19</v>
       </c>
       <c r="X28" t="n">
-        <v>1.86</v>
+        <v>18.61</v>
       </c>
       <c r="Y28"/>
       <c r="Z28"/>
@@ -57525,73 +57537,73 @@
       <c r="B29" t="s">
         <v>60</v>
       </c>
-      <c r="C29" t="n">
-        <v>84.97</v>
-      </c>
+      <c r="C29"/>
       <c r="D29" t="n">
-        <v>83.1666666666667</v>
+        <v>17.29</v>
       </c>
       <c r="E29" t="n">
-        <v>81.3633333333333</v>
+        <v>14.02</v>
       </c>
       <c r="F29" t="n">
-        <v>79.56</v>
+        <v>16.0525</v>
       </c>
       <c r="G29" t="n">
-        <v>75.1066666666667</v>
+        <v>18.085</v>
       </c>
       <c r="H29" t="n">
-        <v>70.6533333333333</v>
+        <v>20.1175</v>
       </c>
       <c r="I29" t="n">
-        <v>66.2</v>
+        <v>22.15</v>
       </c>
       <c r="J29" t="n">
-        <v>64.76</v>
+        <v>23.83</v>
       </c>
       <c r="K29" t="n">
-        <v>63.32</v>
+        <v>25.51</v>
       </c>
       <c r="L29" t="n">
-        <v>61.88</v>
+        <v>27.19</v>
       </c>
       <c r="M29" t="n">
-        <v>58.1633333333333</v>
+        <v>31.68</v>
       </c>
       <c r="N29" t="n">
-        <v>54.4466666666667</v>
+        <v>30.21</v>
       </c>
       <c r="O29" t="n">
-        <v>50.73</v>
+        <v>22.24</v>
       </c>
       <c r="P29" t="n">
-        <v>45.83</v>
+        <v>20.39</v>
       </c>
       <c r="Q29" t="n">
-        <v>40.93</v>
+        <v>20.37</v>
       </c>
       <c r="R29" t="n">
-        <v>36.03</v>
+        <v>17.72</v>
       </c>
       <c r="S29" t="n">
-        <v>33.4633333333333</v>
+        <v>20.91</v>
       </c>
       <c r="T29" t="n">
-        <v>30.8966666666667</v>
+        <v>17.66</v>
       </c>
       <c r="U29" t="n">
-        <v>28.33</v>
+        <v>18.04</v>
       </c>
       <c r="V29" t="n">
-        <v>25.76</v>
+        <v>15.73</v>
       </c>
       <c r="W29" t="n">
-        <v>23.19</v>
+        <v>13.68</v>
       </c>
       <c r="X29" t="n">
-        <v>18.61</v>
-      </c>
-      <c r="Y29"/>
+        <v>11.33</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>12</v>
+      </c>
       <c r="Z29"/>
       <c r="AA29"/>
     </row>
@@ -57603,72 +57615,30 @@
         <v>62</v>
       </c>
       <c r="C30"/>
-      <c r="D30" t="n">
-        <v>17.29</v>
-      </c>
-      <c r="E30" t="n">
-        <v>14.02</v>
-      </c>
-      <c r="F30" t="n">
-        <v>16.0525</v>
-      </c>
-      <c r="G30" t="n">
-        <v>18.085</v>
-      </c>
-      <c r="H30" t="n">
-        <v>20.1175</v>
-      </c>
-      <c r="I30" t="n">
-        <v>22.15</v>
-      </c>
-      <c r="J30" t="n">
-        <v>23.83</v>
-      </c>
-      <c r="K30" t="n">
-        <v>25.51</v>
-      </c>
-      <c r="L30" t="n">
-        <v>27.19</v>
-      </c>
-      <c r="M30" t="n">
-        <v>31.68</v>
-      </c>
-      <c r="N30" t="n">
-        <v>30.21</v>
-      </c>
-      <c r="O30" t="n">
-        <v>22.24</v>
-      </c>
-      <c r="P30" t="n">
-        <v>20.39</v>
-      </c>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
       <c r="Q30" t="n">
-        <v>20.37</v>
-      </c>
-      <c r="R30" t="n">
-        <v>17.72</v>
-      </c>
-      <c r="S30" t="n">
-        <v>20.91</v>
-      </c>
-      <c r="T30" t="n">
-        <v>17.66</v>
-      </c>
-      <c r="U30" t="n">
-        <v>18.04</v>
-      </c>
-      <c r="V30" t="n">
-        <v>15.73</v>
-      </c>
-      <c r="W30" t="n">
-        <v>13.68</v>
-      </c>
-      <c r="X30" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>12</v>
-      </c>
+        <v>64.98</v>
+      </c>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+      <c r="Y30"/>
       <c r="Z30"/>
       <c r="AA30"/>
     </row>
@@ -57693,16 +57663,28 @@
       <c r="N31"/>
       <c r="O31"/>
       <c r="P31"/>
-      <c r="Q31" t="n">
-        <v>64.98</v>
-      </c>
-      <c r="R31"/>
-      <c r="S31"/>
-      <c r="T31"/>
-      <c r="U31"/>
-      <c r="V31"/>
-      <c r="W31"/>
-      <c r="X31"/>
+      <c r="Q31"/>
+      <c r="R31" t="n">
+        <v>74.4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>71.5416666666667</v>
+      </c>
+      <c r="T31" t="n">
+        <v>68.6833333333333</v>
+      </c>
+      <c r="U31" t="n">
+        <v>65.825</v>
+      </c>
+      <c r="V31" t="n">
+        <v>62.9666666666667</v>
+      </c>
+      <c r="W31" t="n">
+        <v>60.1083333333333</v>
+      </c>
+      <c r="X31" t="n">
+        <v>57.25</v>
+      </c>
       <c r="Y31"/>
       <c r="Z31"/>
       <c r="AA31"/>
@@ -57714,43 +57696,75 @@
       <c r="B32" t="s">
         <v>66</v>
       </c>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
-      <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
-      <c r="M32"/>
-      <c r="N32"/>
-      <c r="O32"/>
-      <c r="P32"/>
-      <c r="Q32"/>
+      <c r="C32" t="n">
+        <v>15.27</v>
+      </c>
+      <c r="D32" t="n">
+        <v>18.96</v>
+      </c>
+      <c r="E32" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="F32" t="n">
+        <v>12.39</v>
+      </c>
+      <c r="G32" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="H32" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="I32" t="n">
+        <v>12.89</v>
+      </c>
+      <c r="J32" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="K32" t="n">
+        <v>8.13</v>
+      </c>
+      <c r="L32" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="M32" t="n">
+        <v>10.92</v>
+      </c>
+      <c r="N32" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="O32" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="P32" t="n">
+        <v>9.22</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>8.74</v>
+      </c>
       <c r="R32" t="n">
-        <v>74.4</v>
+        <v>7.32</v>
       </c>
       <c r="S32" t="n">
-        <v>71.5416666666667</v>
+        <v>7.27</v>
       </c>
       <c r="T32" t="n">
-        <v>68.6833333333333</v>
+        <v>4.32</v>
       </c>
       <c r="U32" t="n">
-        <v>65.825</v>
+        <v>4.51</v>
       </c>
       <c r="V32" t="n">
-        <v>62.9666666666667</v>
+        <v>5.17</v>
       </c>
       <c r="W32" t="n">
-        <v>60.1083333333333</v>
+        <v>2.9</v>
       </c>
       <c r="X32" t="n">
-        <v>57.25</v>
-      </c>
-      <c r="Y32"/>
+        <v>3.2</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>3.11</v>
+      </c>
       <c r="Z32"/>
       <c r="AA32"/>
     </row>
@@ -57761,75 +57775,61 @@
       <c r="B33" t="s">
         <v>68</v>
       </c>
-      <c r="C33" t="n">
-        <v>15.27</v>
-      </c>
-      <c r="D33" t="n">
-        <v>18.96</v>
-      </c>
-      <c r="E33" t="n">
-        <v>15.15</v>
-      </c>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
       <c r="F33" t="n">
-        <v>12.39</v>
+        <v>50.75</v>
       </c>
       <c r="G33" t="n">
-        <v>10.54</v>
+        <v>49.35</v>
       </c>
       <c r="H33" t="n">
-        <v>11.24</v>
+        <v>47.95</v>
       </c>
       <c r="I33" t="n">
-        <v>12.89</v>
+        <v>50.9933333333333</v>
       </c>
       <c r="J33" t="n">
-        <v>10.04</v>
+        <v>54.0366666666667</v>
       </c>
       <c r="K33" t="n">
-        <v>8.13</v>
+        <v>57.08</v>
       </c>
       <c r="L33" t="n">
-        <v>10.25</v>
+        <v>57.03</v>
       </c>
       <c r="M33" t="n">
-        <v>10.92</v>
+        <v>56.98</v>
       </c>
       <c r="N33" t="n">
-        <v>10.08</v>
+        <v>56.93</v>
       </c>
       <c r="O33" t="n">
-        <v>9.58</v>
+        <v>56.88</v>
       </c>
       <c r="P33" t="n">
-        <v>9.22</v>
+        <v>57.245</v>
       </c>
       <c r="Q33" t="n">
-        <v>8.74</v>
+        <v>57.61</v>
       </c>
       <c r="R33" t="n">
-        <v>7.32</v>
+        <v>57.975</v>
       </c>
       <c r="S33" t="n">
-        <v>7.27</v>
+        <v>58.34</v>
       </c>
       <c r="T33" t="n">
-        <v>4.32</v>
+        <v>58.705</v>
       </c>
       <c r="U33" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="V33" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="W33" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="X33" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>3.11</v>
-      </c>
+        <v>59.07</v>
+      </c>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33"/>
+      <c r="Y33"/>
       <c r="Z33"/>
       <c r="AA33"/>
     </row>
@@ -65463,35 +65463,39 @@
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
-      <c r="F22" t="n">
-        <v>50.75</v>
-      </c>
-      <c r="G22"/>
-      <c r="H22" t="n">
-        <v>47.95</v>
-      </c>
+      <c r="F22"/>
+      <c r="G22" t="n">
+        <v>75.24</v>
+      </c>
+      <c r="H22"/>
       <c r="I22"/>
       <c r="J22"/>
-      <c r="K22" t="n">
-        <v>57.08</v>
-      </c>
+      <c r="K22"/>
       <c r="L22"/>
       <c r="M22"/>
       <c r="N22"/>
-      <c r="O22" t="n">
-        <v>56.88</v>
-      </c>
+      <c r="O22"/>
       <c r="P22"/>
-      <c r="Q22"/>
+      <c r="Q22" t="n">
+        <v>64.43</v>
+      </c>
       <c r="R22"/>
       <c r="S22"/>
-      <c r="T22"/>
+      <c r="T22" t="n">
+        <v>59.39</v>
+      </c>
       <c r="U22" t="n">
-        <v>59.07</v>
-      </c>
-      <c r="V22"/>
-      <c r="W22"/>
-      <c r="X22"/>
+        <v>51.05</v>
+      </c>
+      <c r="V22" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="W22" t="n">
+        <v>40.88</v>
+      </c>
+      <c r="X22" t="n">
+        <v>41.26</v>
+      </c>
       <c r="Y22"/>
       <c r="Z22"/>
       <c r="AA22"/>
@@ -65507,38 +65511,30 @@
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
-      <c r="G23" t="n">
-        <v>75.24</v>
-      </c>
+      <c r="G23"/>
       <c r="H23"/>
-      <c r="I23"/>
+      <c r="I23" t="n">
+        <v>71.5</v>
+      </c>
       <c r="J23"/>
       <c r="K23"/>
       <c r="L23"/>
       <c r="M23"/>
-      <c r="N23"/>
+      <c r="N23" t="n">
+        <v>50.69</v>
+      </c>
       <c r="O23"/>
       <c r="P23"/>
-      <c r="Q23" t="n">
-        <v>64.43</v>
-      </c>
+      <c r="Q23"/>
       <c r="R23"/>
       <c r="S23"/>
       <c r="T23" t="n">
-        <v>59.39</v>
-      </c>
-      <c r="U23" t="n">
-        <v>51.05</v>
-      </c>
-      <c r="V23" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="W23" t="n">
-        <v>40.88</v>
-      </c>
-      <c r="X23" t="n">
-        <v>41.26</v>
-      </c>
+        <v>53.15</v>
+      </c>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
       <c r="Y23"/>
       <c r="Z23"/>
       <c r="AA23"/>
@@ -65556,23 +65552,21 @@
       <c r="F24"/>
       <c r="G24"/>
       <c r="H24"/>
-      <c r="I24" t="n">
-        <v>71.5</v>
-      </c>
+      <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
       <c r="L24"/>
       <c r="M24"/>
-      <c r="N24" t="n">
-        <v>50.69</v>
-      </c>
-      <c r="O24"/>
+      <c r="N24"/>
+      <c r="O24" t="n">
+        <v>40.85</v>
+      </c>
       <c r="P24"/>
       <c r="Q24"/>
       <c r="R24"/>
       <c r="S24"/>
       <c r="T24" t="n">
-        <v>53.15</v>
+        <v>34.7</v>
       </c>
       <c r="U24"/>
       <c r="V24"/>
@@ -65591,7 +65585,9 @@
       </c>
       <c r="C25"/>
       <c r="D25"/>
-      <c r="E25"/>
+      <c r="E25" t="n">
+        <v>90.97</v>
+      </c>
       <c r="F25"/>
       <c r="G25"/>
       <c r="H25"/>
@@ -65601,17 +65597,17 @@
       <c r="L25"/>
       <c r="M25"/>
       <c r="N25"/>
-      <c r="O25" t="n">
-        <v>40.85</v>
-      </c>
-      <c r="P25"/>
+      <c r="O25"/>
+      <c r="P25" t="n">
+        <v>81.9</v>
+      </c>
       <c r="Q25"/>
       <c r="R25"/>
       <c r="S25"/>
-      <c r="T25" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="U25"/>
+      <c r="T25"/>
+      <c r="U25" t="n">
+        <v>80.09</v>
+      </c>
       <c r="V25"/>
       <c r="W25"/>
       <c r="X25"/>
@@ -65628,9 +65624,7 @@
       </c>
       <c r="C26"/>
       <c r="D26"/>
-      <c r="E26" t="n">
-        <v>90.97</v>
-      </c>
+      <c r="E26"/>
       <c r="F26"/>
       <c r="G26"/>
       <c r="H26"/>
@@ -65640,20 +65634,20 @@
       <c r="L26"/>
       <c r="M26"/>
       <c r="N26"/>
-      <c r="O26"/>
-      <c r="P26" t="n">
-        <v>81.9</v>
-      </c>
+      <c r="O26" t="n">
+        <v>83.28</v>
+      </c>
+      <c r="P26"/>
       <c r="Q26"/>
       <c r="R26"/>
       <c r="S26"/>
       <c r="T26"/>
-      <c r="U26" t="n">
-        <v>80.09</v>
-      </c>
+      <c r="U26"/>
       <c r="V26"/>
       <c r="W26"/>
-      <c r="X26"/>
+      <c r="X26" t="n">
+        <v>60.54</v>
+      </c>
       <c r="Y26"/>
       <c r="Z26"/>
       <c r="AA26"/>
@@ -65665,31 +65659,47 @@
       <c r="B27" t="s">
         <v>56</v>
       </c>
-      <c r="C27"/>
+      <c r="C27" t="n">
+        <v>13.73</v>
+      </c>
       <c r="D27"/>
-      <c r="E27"/>
+      <c r="E27" t="n">
+        <v>9.24</v>
+      </c>
       <c r="F27"/>
-      <c r="G27"/>
+      <c r="G27" t="n">
+        <v>8.71</v>
+      </c>
       <c r="H27"/>
-      <c r="I27"/>
+      <c r="I27" t="n">
+        <v>6.48</v>
+      </c>
       <c r="J27"/>
-      <c r="K27"/>
+      <c r="K27" t="n">
+        <v>6.11</v>
+      </c>
       <c r="L27"/>
-      <c r="M27"/>
+      <c r="M27" t="n">
+        <v>5.46</v>
+      </c>
       <c r="N27"/>
-      <c r="O27" t="n">
-        <v>83.28</v>
-      </c>
-      <c r="P27"/>
+      <c r="O27"/>
+      <c r="P27" t="n">
+        <v>4.55</v>
+      </c>
       <c r="Q27"/>
       <c r="R27"/>
-      <c r="S27"/>
+      <c r="S27" t="n">
+        <v>3.12</v>
+      </c>
       <c r="T27"/>
       <c r="U27"/>
-      <c r="V27"/>
+      <c r="V27" t="n">
+        <v>2.6</v>
+      </c>
       <c r="W27"/>
       <c r="X27" t="n">
-        <v>60.54</v>
+        <v>1.86</v>
       </c>
       <c r="Y27"/>
       <c r="Z27"/>
@@ -65703,46 +65713,44 @@
         <v>58</v>
       </c>
       <c r="C28" t="n">
-        <v>13.73</v>
+        <v>84.97</v>
       </c>
       <c r="D28"/>
-      <c r="E28" t="n">
-        <v>9.24</v>
-      </c>
-      <c r="F28"/>
-      <c r="G28" t="n">
-        <v>8.71</v>
-      </c>
+      <c r="E28"/>
+      <c r="F28" t="n">
+        <v>79.56</v>
+      </c>
+      <c r="G28"/>
       <c r="H28"/>
       <c r="I28" t="n">
-        <v>6.48</v>
+        <v>66.2</v>
       </c>
       <c r="J28"/>
-      <c r="K28" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="L28"/>
-      <c r="M28" t="n">
-        <v>5.46</v>
-      </c>
+      <c r="K28"/>
+      <c r="L28" t="n">
+        <v>61.88</v>
+      </c>
+      <c r="M28"/>
       <c r="N28"/>
-      <c r="O28"/>
-      <c r="P28" t="n">
-        <v>4.55</v>
-      </c>
+      <c r="O28" t="n">
+        <v>50.73</v>
+      </c>
+      <c r="P28"/>
       <c r="Q28"/>
-      <c r="R28"/>
-      <c r="S28" t="n">
-        <v>3.12</v>
-      </c>
+      <c r="R28" t="n">
+        <v>36.03</v>
+      </c>
+      <c r="S28"/>
       <c r="T28"/>
-      <c r="U28"/>
-      <c r="V28" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="W28"/>
+      <c r="U28" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="V28"/>
+      <c r="W28" t="n">
+        <v>23.19</v>
+      </c>
       <c r="X28" t="n">
-        <v>1.86</v>
+        <v>18.61</v>
       </c>
       <c r="Y28"/>
       <c r="Z28"/>
@@ -65755,47 +65763,63 @@
       <c r="B29" t="s">
         <v>60</v>
       </c>
-      <c r="C29" t="n">
-        <v>84.97</v>
-      </c>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29" t="n">
-        <v>79.56</v>
-      </c>
+      <c r="C29"/>
+      <c r="D29" t="n">
+        <v>17.29</v>
+      </c>
+      <c r="E29" t="n">
+        <v>14.02</v>
+      </c>
+      <c r="F29"/>
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29" t="n">
-        <v>66.2</v>
+        <v>22.15</v>
       </c>
       <c r="J29"/>
       <c r="K29"/>
       <c r="L29" t="n">
-        <v>61.88</v>
-      </c>
-      <c r="M29"/>
-      <c r="N29"/>
+        <v>27.19</v>
+      </c>
+      <c r="M29" t="n">
+        <v>31.68</v>
+      </c>
+      <c r="N29" t="n">
+        <v>30.21</v>
+      </c>
       <c r="O29" t="n">
-        <v>50.73</v>
-      </c>
-      <c r="P29"/>
-      <c r="Q29"/>
+        <v>22.24</v>
+      </c>
+      <c r="P29" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>20.37</v>
+      </c>
       <c r="R29" t="n">
-        <v>36.03</v>
-      </c>
-      <c r="S29"/>
-      <c r="T29"/>
+        <v>17.72</v>
+      </c>
+      <c r="S29" t="n">
+        <v>20.91</v>
+      </c>
+      <c r="T29" t="n">
+        <v>17.66</v>
+      </c>
       <c r="U29" t="n">
-        <v>28.33</v>
-      </c>
-      <c r="V29"/>
+        <v>18.04</v>
+      </c>
+      <c r="V29" t="n">
+        <v>15.73</v>
+      </c>
       <c r="W29" t="n">
-        <v>23.19</v>
+        <v>13.68</v>
       </c>
       <c r="X29" t="n">
-        <v>18.61</v>
-      </c>
-      <c r="Y29"/>
+        <v>11.33</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>12</v>
+      </c>
       <c r="Z29"/>
       <c r="AA29"/>
     </row>
@@ -65807,62 +65831,30 @@
         <v>62</v>
       </c>
       <c r="C30"/>
-      <c r="D30" t="n">
-        <v>17.29</v>
-      </c>
-      <c r="E30" t="n">
-        <v>14.02</v>
-      </c>
+      <c r="D30"/>
+      <c r="E30"/>
       <c r="F30"/>
       <c r="G30"/>
       <c r="H30"/>
-      <c r="I30" t="n">
-        <v>22.15</v>
-      </c>
+      <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
-      <c r="L30" t="n">
-        <v>27.19</v>
-      </c>
-      <c r="M30" t="n">
-        <v>31.68</v>
-      </c>
-      <c r="N30" t="n">
-        <v>30.21</v>
-      </c>
-      <c r="O30" t="n">
-        <v>22.24</v>
-      </c>
-      <c r="P30" t="n">
-        <v>20.39</v>
-      </c>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
       <c r="Q30" t="n">
-        <v>20.37</v>
-      </c>
-      <c r="R30" t="n">
-        <v>17.72</v>
-      </c>
-      <c r="S30" t="n">
-        <v>20.91</v>
-      </c>
-      <c r="T30" t="n">
-        <v>17.66</v>
-      </c>
-      <c r="U30" t="n">
-        <v>18.04</v>
-      </c>
-      <c r="V30" t="n">
-        <v>15.73</v>
-      </c>
-      <c r="W30" t="n">
-        <v>13.68</v>
-      </c>
-      <c r="X30" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>12</v>
-      </c>
+        <v>64.98</v>
+      </c>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+      <c r="Y30"/>
       <c r="Z30"/>
       <c r="AA30"/>
     </row>
@@ -65887,16 +65879,18 @@
       <c r="N31"/>
       <c r="O31"/>
       <c r="P31"/>
-      <c r="Q31" t="n">
-        <v>64.98</v>
-      </c>
-      <c r="R31"/>
+      <c r="Q31"/>
+      <c r="R31" t="n">
+        <v>74.4</v>
+      </c>
       <c r="S31"/>
       <c r="T31"/>
       <c r="U31"/>
       <c r="V31"/>
       <c r="W31"/>
-      <c r="X31"/>
+      <c r="X31" t="n">
+        <v>57.25</v>
+      </c>
       <c r="Y31"/>
       <c r="Z31"/>
       <c r="AA31"/>
@@ -65908,33 +65902,75 @@
       <c r="B32" t="s">
         <v>66</v>
       </c>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
-      <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
-      <c r="M32"/>
-      <c r="N32"/>
-      <c r="O32"/>
-      <c r="P32"/>
-      <c r="Q32"/>
+      <c r="C32" t="n">
+        <v>15.27</v>
+      </c>
+      <c r="D32" t="n">
+        <v>18.96</v>
+      </c>
+      <c r="E32" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="F32" t="n">
+        <v>12.39</v>
+      </c>
+      <c r="G32" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="H32" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="I32" t="n">
+        <v>12.89</v>
+      </c>
+      <c r="J32" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="K32" t="n">
+        <v>8.13</v>
+      </c>
+      <c r="L32" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="M32" t="n">
+        <v>10.92</v>
+      </c>
+      <c r="N32" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="O32" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="P32" t="n">
+        <v>9.22</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>8.74</v>
+      </c>
       <c r="R32" t="n">
-        <v>74.4</v>
-      </c>
-      <c r="S32"/>
-      <c r="T32"/>
-      <c r="U32"/>
-      <c r="V32"/>
-      <c r="W32"/>
+        <v>7.32</v>
+      </c>
+      <c r="S32" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="T32" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="U32" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="V32" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="W32" t="n">
+        <v>2.9</v>
+      </c>
       <c r="X32" t="n">
-        <v>57.25</v>
-      </c>
-      <c r="Y32"/>
+        <v>3.2</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>3.11</v>
+      </c>
       <c r="Z32"/>
       <c r="AA32"/>
     </row>
@@ -65945,75 +65981,39 @@
       <c r="B33" t="s">
         <v>68</v>
       </c>
-      <c r="C33" t="n">
-        <v>15.27</v>
-      </c>
-      <c r="D33" t="n">
-        <v>18.96</v>
-      </c>
-      <c r="E33" t="n">
-        <v>15.15</v>
-      </c>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
       <c r="F33" t="n">
-        <v>12.39</v>
-      </c>
-      <c r="G33" t="n">
-        <v>10.54</v>
-      </c>
+        <v>50.75</v>
+      </c>
+      <c r="G33"/>
       <c r="H33" t="n">
-        <v>11.24</v>
-      </c>
-      <c r="I33" t="n">
-        <v>12.89</v>
-      </c>
-      <c r="J33" t="n">
-        <v>10.04</v>
-      </c>
+        <v>47.95</v>
+      </c>
+      <c r="I33"/>
+      <c r="J33"/>
       <c r="K33" t="n">
-        <v>8.13</v>
-      </c>
-      <c r="L33" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="M33" t="n">
-        <v>10.92</v>
-      </c>
-      <c r="N33" t="n">
-        <v>10.08</v>
-      </c>
+        <v>57.08</v>
+      </c>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
       <c r="O33" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="P33" t="n">
-        <v>9.22</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>8.74</v>
-      </c>
-      <c r="R33" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="S33" t="n">
-        <v>7.27</v>
-      </c>
-      <c r="T33" t="n">
-        <v>4.32</v>
-      </c>
+        <v>56.88</v>
+      </c>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
       <c r="U33" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="V33" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="W33" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="X33" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>3.11</v>
-      </c>
+        <v>59.07</v>
+      </c>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33"/>
+      <c r="Y33"/>
       <c r="Z33"/>
       <c r="AA33"/>
     </row>

--- a/user-data/poverty-200/poverty-200.xlsx
+++ b/user-data/poverty-200/poverty-200.xlsx
@@ -1946,7 +1946,7 @@
         <v>1997</v>
       </c>
       <c r="D34" t="n">
-        <v>6.52166666666667</v>
+        <v>6.5216666667</v>
       </c>
       <c r="E34"/>
     </row>
@@ -1961,7 +1961,7 @@
         <v>1998</v>
       </c>
       <c r="D35" t="n">
-        <v>6.54333333333333</v>
+        <v>6.5433333333</v>
       </c>
       <c r="E35"/>
     </row>
@@ -1991,7 +1991,7 @@
         <v>2000</v>
       </c>
       <c r="D37" t="n">
-        <v>6.58666666666667</v>
+        <v>6.5866666667</v>
       </c>
       <c r="E37"/>
     </row>
@@ -2006,7 +2006,7 @@
         <v>2001</v>
       </c>
       <c r="D38" t="n">
-        <v>6.60833333333333</v>
+        <v>6.6083333333</v>
       </c>
       <c r="E38"/>
     </row>
@@ -2087,7 +2087,7 @@
         <v>2006</v>
       </c>
       <c r="D43" t="n">
-        <v>3.83333333333333</v>
+        <v>3.8333333333</v>
       </c>
       <c r="E43"/>
     </row>
@@ -2102,7 +2102,7 @@
         <v>2007</v>
       </c>
       <c r="D44" t="n">
-        <v>2.66666666666667</v>
+        <v>2.6666666667</v>
       </c>
       <c r="E44"/>
     </row>
@@ -4261,7 +4261,7 @@
         <v>2006</v>
       </c>
       <c r="D193" t="n">
-        <v>0.866666666666667</v>
+        <v>0.8666666667</v>
       </c>
       <c r="E193"/>
     </row>
@@ -4276,7 +4276,7 @@
         <v>2007</v>
       </c>
       <c r="D194" t="n">
-        <v>1.62333333333333</v>
+        <v>1.6233333333</v>
       </c>
       <c r="E194"/>
     </row>
@@ -4849,7 +4849,7 @@
         <v>1996</v>
       </c>
       <c r="D233" t="n">
-        <v>1.44333333333333</v>
+        <v>1.4433333333</v>
       </c>
       <c r="E233"/>
     </row>
@@ -4864,7 +4864,7 @@
         <v>1997</v>
       </c>
       <c r="D234" t="n">
-        <v>2.04666666666667</v>
+        <v>2.0466666667</v>
       </c>
       <c r="E234"/>
     </row>
@@ -6224,7 +6224,7 @@
         <v>1991</v>
       </c>
       <c r="D328" t="n">
-        <v>19.8966666666667</v>
+        <v>19.8966666667</v>
       </c>
       <c r="E328"/>
     </row>
@@ -6239,7 +6239,7 @@
         <v>1992</v>
       </c>
       <c r="D329" t="n">
-        <v>20.5833333333333</v>
+        <v>20.5833333333</v>
       </c>
       <c r="E329"/>
     </row>
@@ -6768,7 +6768,7 @@
         <v>2002</v>
       </c>
       <c r="D364" t="n">
-        <v>0.533333333333333</v>
+        <v>0.5333333333</v>
       </c>
       <c r="E364"/>
     </row>
@@ -6783,7 +6783,7 @@
         <v>2003</v>
       </c>
       <c r="D365" t="n">
-        <v>0.436666666666667</v>
+        <v>0.4366666667</v>
       </c>
       <c r="E365"/>
     </row>
@@ -7022,7 +7022,7 @@
         <v>1995</v>
       </c>
       <c r="D382" t="n">
-        <v>48.5277777777778</v>
+        <v>48.5277777778</v>
       </c>
       <c r="E382"/>
     </row>
@@ -7037,7 +7037,7 @@
         <v>1996</v>
       </c>
       <c r="D383" t="n">
-        <v>47.6555555555556</v>
+        <v>47.6555555556</v>
       </c>
       <c r="E383"/>
     </row>
@@ -7052,7 +7052,7 @@
         <v>1997</v>
       </c>
       <c r="D384" t="n">
-        <v>46.7833333333333</v>
+        <v>46.7833333333</v>
       </c>
       <c r="E384"/>
     </row>
@@ -7067,7 +7067,7 @@
         <v>1998</v>
       </c>
       <c r="D385" t="n">
-        <v>45.9111111111111</v>
+        <v>45.9111111111</v>
       </c>
       <c r="E385"/>
     </row>
@@ -7082,7 +7082,7 @@
         <v>1999</v>
       </c>
       <c r="D386" t="n">
-        <v>45.0388888888889</v>
+        <v>45.0388888889</v>
       </c>
       <c r="E386"/>
     </row>
@@ -7097,7 +7097,7 @@
         <v>2000</v>
       </c>
       <c r="D387" t="n">
-        <v>44.1666666666667</v>
+        <v>44.1666666667</v>
       </c>
       <c r="E387"/>
     </row>
@@ -7112,7 +7112,7 @@
         <v>2001</v>
       </c>
       <c r="D388" t="n">
-        <v>43.2944444444444</v>
+        <v>43.2944444444</v>
       </c>
       <c r="E388"/>
     </row>
@@ -7127,7 +7127,7 @@
         <v>2002</v>
       </c>
       <c r="D389" t="n">
-        <v>42.4222222222222</v>
+        <v>42.4222222222</v>
       </c>
       <c r="E389"/>
     </row>
@@ -7159,7 +7159,7 @@
         <v>2004</v>
       </c>
       <c r="D391" t="n">
-        <v>39.2633333333333</v>
+        <v>39.2633333333</v>
       </c>
       <c r="E391"/>
     </row>
@@ -7174,7 +7174,7 @@
         <v>2005</v>
       </c>
       <c r="D392" t="n">
-        <v>36.9766666666667</v>
+        <v>36.9766666667</v>
       </c>
       <c r="E392"/>
     </row>
@@ -7204,7 +7204,7 @@
         <v>2007</v>
       </c>
       <c r="D394" t="n">
-        <v>32.4033333333333</v>
+        <v>32.4033333333</v>
       </c>
       <c r="E394"/>
     </row>
@@ -7219,7 +7219,7 @@
         <v>2008</v>
       </c>
       <c r="D395" t="n">
-        <v>30.1166666666667</v>
+        <v>30.1166666667</v>
       </c>
       <c r="E395"/>
     </row>
@@ -8518,7 +8518,7 @@
         <v>1993</v>
       </c>
       <c r="D480" t="n">
-        <v>95.2183333333333</v>
+        <v>95.2183333333</v>
       </c>
       <c r="E480"/>
     </row>
@@ -8533,7 +8533,7 @@
         <v>1994</v>
       </c>
       <c r="D481" t="n">
-        <v>95.2566666666667</v>
+        <v>95.2566666667</v>
       </c>
       <c r="E481"/>
     </row>
@@ -8563,7 +8563,7 @@
         <v>1996</v>
       </c>
       <c r="D483" t="n">
-        <v>95.3333333333333</v>
+        <v>95.3333333333</v>
       </c>
       <c r="E483"/>
     </row>
@@ -8578,7 +8578,7 @@
         <v>1997</v>
       </c>
       <c r="D484" t="n">
-        <v>95.3716666666667</v>
+        <v>95.3716666667</v>
       </c>
       <c r="E484"/>
     </row>
@@ -9950,7 +9950,7 @@
         <v>1993</v>
       </c>
       <c r="D580" t="n">
-        <v>90.1454545454545</v>
+        <v>90.1454545455</v>
       </c>
       <c r="E580"/>
     </row>
@@ -9965,7 +9965,7 @@
         <v>1994</v>
       </c>
       <c r="D581" t="n">
-        <v>89.3209090909091</v>
+        <v>89.3209090909</v>
       </c>
       <c r="E581"/>
     </row>
@@ -9980,7 +9980,7 @@
         <v>1995</v>
       </c>
       <c r="D582" t="n">
-        <v>88.4963636363636</v>
+        <v>88.4963636364</v>
       </c>
       <c r="E582"/>
     </row>
@@ -9995,7 +9995,7 @@
         <v>1996</v>
       </c>
       <c r="D583" t="n">
-        <v>87.6718181818182</v>
+        <v>87.6718181818</v>
       </c>
       <c r="E583"/>
     </row>
@@ -10010,7 +10010,7 @@
         <v>1997</v>
       </c>
       <c r="D584" t="n">
-        <v>86.8472727272727</v>
+        <v>86.8472727273</v>
       </c>
       <c r="E584"/>
     </row>
@@ -10025,7 +10025,7 @@
         <v>1998</v>
       </c>
       <c r="D585" t="n">
-        <v>86.0227272727273</v>
+        <v>86.0227272727</v>
       </c>
       <c r="E585"/>
     </row>
@@ -10040,7 +10040,7 @@
         <v>1999</v>
       </c>
       <c r="D586" t="n">
-        <v>85.1981818181818</v>
+        <v>85.1981818182</v>
       </c>
       <c r="E586"/>
     </row>
@@ -10055,7 +10055,7 @@
         <v>2000</v>
       </c>
       <c r="D587" t="n">
-        <v>84.3736363636364</v>
+        <v>84.3736363636</v>
       </c>
       <c r="E587"/>
     </row>
@@ -10070,7 +10070,7 @@
         <v>2001</v>
       </c>
       <c r="D588" t="n">
-        <v>83.5490909090909</v>
+        <v>83.5490909091</v>
       </c>
       <c r="E588"/>
     </row>
@@ -10085,7 +10085,7 @@
         <v>2002</v>
       </c>
       <c r="D589" t="n">
-        <v>82.7245454545455</v>
+        <v>82.7245454545</v>
       </c>
       <c r="E589"/>
     </row>
@@ -10445,7 +10445,7 @@
         <v>2003</v>
       </c>
       <c r="D615" t="n">
-        <v>80.7533333333333</v>
+        <v>80.7533333333</v>
       </c>
       <c r="E615"/>
     </row>
@@ -10460,7 +10460,7 @@
         <v>2004</v>
       </c>
       <c r="D616" t="n">
-        <v>78.2266666666667</v>
+        <v>78.2266666667</v>
       </c>
       <c r="E616"/>
     </row>
@@ -10490,7 +10490,7 @@
         <v>2006</v>
       </c>
       <c r="D618" t="n">
-        <v>73.1733333333333</v>
+        <v>73.1733333333</v>
       </c>
       <c r="E618"/>
     </row>
@@ -10505,7 +10505,7 @@
         <v>2007</v>
       </c>
       <c r="D619" t="n">
-        <v>70.6466666666667</v>
+        <v>70.6466666667</v>
       </c>
       <c r="E619"/>
     </row>
@@ -10535,7 +10535,7 @@
         <v>2009</v>
       </c>
       <c r="D621" t="n">
-        <v>65.5933333333333</v>
+        <v>65.5933333333</v>
       </c>
       <c r="E621"/>
     </row>
@@ -10550,7 +10550,7 @@
         <v>2010</v>
       </c>
       <c r="D622" t="n">
-        <v>63.0666666666667</v>
+        <v>63.0666666667</v>
       </c>
       <c r="E622"/>
     </row>
@@ -10798,7 +10798,7 @@
         <v>2001</v>
       </c>
       <c r="D638" t="n">
-        <v>5.15666666666667</v>
+        <v>5.1566666667</v>
       </c>
       <c r="E638"/>
     </row>
@@ -10813,7 +10813,7 @@
         <v>2002</v>
       </c>
       <c r="D639" t="n">
-        <v>4.85333333333333</v>
+        <v>4.8533333333</v>
       </c>
       <c r="E639"/>
     </row>
@@ -10845,7 +10845,7 @@
         <v>2004</v>
       </c>
       <c r="D641" t="n">
-        <v>4.07333333333333</v>
+        <v>4.0733333333</v>
       </c>
       <c r="E641"/>
     </row>
@@ -10860,7 +10860,7 @@
         <v>2005</v>
       </c>
       <c r="D642" t="n">
-        <v>3.59666666666667</v>
+        <v>3.5966666667</v>
       </c>
       <c r="E642"/>
     </row>
@@ -10892,7 +10892,7 @@
         <v>2007</v>
       </c>
       <c r="D644" t="n">
-        <v>2.94666666666667</v>
+        <v>2.9466666667</v>
       </c>
       <c r="E644"/>
     </row>
@@ -10907,7 +10907,7 @@
         <v>2008</v>
       </c>
       <c r="D645" t="n">
-        <v>2.77333333333333</v>
+        <v>2.7733333333</v>
       </c>
       <c r="E645"/>
     </row>
@@ -11027,7 +11027,7 @@
         <v>1991</v>
       </c>
       <c r="D653" t="n">
-        <v>83.1666666666667</v>
+        <v>83.1666666667</v>
       </c>
       <c r="E653"/>
     </row>
@@ -11042,7 +11042,7 @@
         <v>1992</v>
       </c>
       <c r="D654" t="n">
-        <v>81.3633333333333</v>
+        <v>81.3633333333</v>
       </c>
       <c r="E654"/>
     </row>
@@ -11074,7 +11074,7 @@
         <v>1994</v>
       </c>
       <c r="D656" t="n">
-        <v>75.1066666666667</v>
+        <v>75.1066666667</v>
       </c>
       <c r="E656"/>
     </row>
@@ -11089,7 +11089,7 @@
         <v>1995</v>
       </c>
       <c r="D657" t="n">
-        <v>70.6533333333333</v>
+        <v>70.6533333333</v>
       </c>
       <c r="E657"/>
     </row>
@@ -11168,7 +11168,7 @@
         <v>2000</v>
       </c>
       <c r="D662" t="n">
-        <v>58.1633333333333</v>
+        <v>58.1633333333</v>
       </c>
       <c r="E662"/>
     </row>
@@ -11183,7 +11183,7 @@
         <v>2001</v>
       </c>
       <c r="D663" t="n">
-        <v>54.4466666666667</v>
+        <v>54.4466666667</v>
       </c>
       <c r="E663"/>
     </row>
@@ -11262,7 +11262,7 @@
         <v>2006</v>
       </c>
       <c r="D668" t="n">
-        <v>33.4633333333333</v>
+        <v>33.4633333333</v>
       </c>
       <c r="E668"/>
     </row>
@@ -11277,7 +11277,7 @@
         <v>2007</v>
       </c>
       <c r="D669" t="n">
-        <v>30.8966666666667</v>
+        <v>30.8966666667</v>
       </c>
       <c r="E669"/>
     </row>
@@ -12341,7 +12341,7 @@
         <v>2006</v>
       </c>
       <c r="D743" t="n">
-        <v>71.5416666666667</v>
+        <v>71.5416666667</v>
       </c>
       <c r="E743"/>
     </row>
@@ -12356,7 +12356,7 @@
         <v>2007</v>
       </c>
       <c r="D744" t="n">
-        <v>68.6833333333333</v>
+        <v>68.6833333333</v>
       </c>
       <c r="E744"/>
     </row>
@@ -12386,7 +12386,7 @@
         <v>2009</v>
       </c>
       <c r="D746" t="n">
-        <v>62.9666666666667</v>
+        <v>62.9666666667</v>
       </c>
       <c r="E746"/>
     </row>
@@ -12401,7 +12401,7 @@
         <v>2010</v>
       </c>
       <c r="D747" t="n">
-        <v>60.1083333333333</v>
+        <v>60.1083333333</v>
       </c>
       <c r="E747"/>
     </row>
@@ -12977,7 +12977,7 @@
         <v>1996</v>
       </c>
       <c r="D783" t="n">
-        <v>50.9933333333333</v>
+        <v>50.9933333333</v>
       </c>
       <c r="E783"/>
     </row>
@@ -12992,7 +12992,7 @@
         <v>1997</v>
       </c>
       <c r="D784" t="n">
-        <v>54.0366666666667</v>
+        <v>54.0366666667</v>
       </c>
       <c r="E784"/>
     </row>
@@ -13996,7 +13996,7 @@
         <v>1994</v>
       </c>
       <c r="D856" t="n">
-        <v>0.0766666666666667</v>
+        <v>0.0766666667</v>
       </c>
       <c r="E856"/>
     </row>
@@ -14011,7 +14011,7 @@
         <v>1995</v>
       </c>
       <c r="D857" t="n">
-        <v>0.133333333333333</v>
+        <v>0.1333333333</v>
       </c>
       <c r="E857"/>
     </row>
@@ -14043,7 +14043,7 @@
         <v>1997</v>
       </c>
       <c r="D859" t="n">
-        <v>0.172222222222222</v>
+        <v>0.1722222222</v>
       </c>
       <c r="E859"/>
     </row>
@@ -14058,7 +14058,7 @@
         <v>1998</v>
       </c>
       <c r="D860" t="n">
-        <v>0.154444444444444</v>
+        <v>0.1544444444</v>
       </c>
       <c r="E860"/>
     </row>
@@ -14073,7 +14073,7 @@
         <v>1999</v>
       </c>
       <c r="D861" t="n">
-        <v>0.136666666666667</v>
+        <v>0.1366666667</v>
       </c>
       <c r="E861"/>
     </row>
@@ -14088,7 +14088,7 @@
         <v>2000</v>
       </c>
       <c r="D862" t="n">
-        <v>0.118888888888889</v>
+        <v>0.1188888889</v>
       </c>
       <c r="E862"/>
     </row>
@@ -14103,7 +14103,7 @@
         <v>2001</v>
       </c>
       <c r="D863" t="n">
-        <v>0.101111111111111</v>
+        <v>0.1011111111</v>
       </c>
       <c r="E863"/>
     </row>
@@ -14118,7 +14118,7 @@
         <v>2002</v>
       </c>
       <c r="D864" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0833333333</v>
       </c>
       <c r="E864"/>
     </row>
@@ -14133,7 +14133,7 @@
         <v>2003</v>
       </c>
       <c r="D865" t="n">
-        <v>0.0655555555555555</v>
+        <v>0.0655555556</v>
       </c>
       <c r="E865"/>
     </row>
@@ -14148,7 +14148,7 @@
         <v>2004</v>
       </c>
       <c r="D866" t="n">
-        <v>0.0477777777777778</v>
+        <v>0.0477777778</v>
       </c>
       <c r="E866"/>
     </row>
@@ -15095,7 +15095,7 @@
         <v>1998</v>
       </c>
       <c r="D935" t="n">
-        <v>10.9333333333333</v>
+        <v>10.9333333333</v>
       </c>
       <c r="E935"/>
     </row>
@@ -15110,7 +15110,7 @@
         <v>1999</v>
       </c>
       <c r="D936" t="n">
-        <v>10.9466666666667</v>
+        <v>10.9466666667</v>
       </c>
       <c r="E936"/>
     </row>
@@ -15718,7 +15718,7 @@
         <v>1991</v>
       </c>
       <c r="D978" t="n">
-        <v>27.4183333333333</v>
+        <v>27.4183333333</v>
       </c>
       <c r="E978"/>
     </row>
@@ -15733,7 +15733,7 @@
         <v>1992</v>
       </c>
       <c r="D979" t="n">
-        <v>27.1966666666667</v>
+        <v>27.1966666667</v>
       </c>
       <c r="E979"/>
     </row>
@@ -15763,7 +15763,7 @@
         <v>1994</v>
       </c>
       <c r="D981" t="n">
-        <v>26.7533333333333</v>
+        <v>26.7533333333</v>
       </c>
       <c r="E981"/>
     </row>
@@ -15778,7 +15778,7 @@
         <v>1995</v>
       </c>
       <c r="D982" t="n">
-        <v>26.5316666666667</v>
+        <v>26.5316666667</v>
       </c>
       <c r="E982"/>
     </row>
@@ -17217,7 +17217,7 @@
         <v>1996</v>
       </c>
       <c r="D1083" t="n">
-        <v>1.46333333333333</v>
+        <v>1.4633333333</v>
       </c>
       <c r="E1083"/>
     </row>
@@ -17232,7 +17232,7 @@
         <v>1997</v>
       </c>
       <c r="D1084" t="n">
-        <v>1.10666666666667</v>
+        <v>1.1066666667</v>
       </c>
       <c r="E1084"/>
     </row>
@@ -17664,7 +17664,7 @@
         <v>2000</v>
       </c>
       <c r="D1112" t="n">
-        <v>84.5633333333333</v>
+        <v>84.5633333333</v>
       </c>
       <c r="E1112"/>
     </row>
@@ -17679,7 +17679,7 @@
         <v>2001</v>
       </c>
       <c r="D1113" t="n">
-        <v>83.1766666666667</v>
+        <v>83.1766666667</v>
       </c>
       <c r="E1113"/>
     </row>
@@ -17709,7 +17709,7 @@
         <v>2003</v>
       </c>
       <c r="D1115" t="n">
-        <v>80.4033333333333</v>
+        <v>80.4033333333</v>
       </c>
       <c r="E1115"/>
     </row>
@@ -17724,7 +17724,7 @@
         <v>2004</v>
       </c>
       <c r="D1116" t="n">
-        <v>79.0166666666667</v>
+        <v>79.0166666667</v>
       </c>
       <c r="E1116"/>
     </row>
@@ -18058,7 +18058,7 @@
         <v>2003</v>
       </c>
       <c r="D1140" t="n">
-        <v>44.3666666666667</v>
+        <v>44.3666666667</v>
       </c>
       <c r="E1140"/>
     </row>
@@ -18073,7 +18073,7 @@
         <v>2004</v>
       </c>
       <c r="D1141" t="n">
-        <v>40.0733333333333</v>
+        <v>40.0733333333</v>
       </c>
       <c r="E1141"/>
     </row>
@@ -18103,7 +18103,7 @@
         <v>2006</v>
       </c>
       <c r="D1143" t="n">
-        <v>31.4866666666667</v>
+        <v>31.4866666667</v>
       </c>
       <c r="E1143"/>
     </row>
@@ -18118,7 +18118,7 @@
         <v>2007</v>
       </c>
       <c r="D1144" t="n">
-        <v>27.1933333333333</v>
+        <v>27.1933333333</v>
       </c>
       <c r="E1144"/>
     </row>
@@ -19321,7 +19321,7 @@
         <v>1992</v>
       </c>
       <c r="D1229" t="n">
-        <v>75.6057142857143</v>
+        <v>75.6057142857</v>
       </c>
       <c r="E1229"/>
     </row>
@@ -19336,7 +19336,7 @@
         <v>1993</v>
       </c>
       <c r="D1230" t="n">
-        <v>73.5614285714286</v>
+        <v>73.5614285714</v>
       </c>
       <c r="E1230"/>
     </row>
@@ -19351,7 +19351,7 @@
         <v>1994</v>
       </c>
       <c r="D1231" t="n">
-        <v>71.5171428571429</v>
+        <v>71.5171428571</v>
       </c>
       <c r="E1231"/>
     </row>
@@ -19366,7 +19366,7 @@
         <v>1995</v>
       </c>
       <c r="D1232" t="n">
-        <v>69.4728571428572</v>
+        <v>69.4728571429</v>
       </c>
       <c r="E1232"/>
     </row>
@@ -19381,7 +19381,7 @@
         <v>1996</v>
       </c>
       <c r="D1233" t="n">
-        <v>67.4285714285714</v>
+        <v>67.4285714286</v>
       </c>
       <c r="E1233"/>
     </row>
@@ -19396,7 +19396,7 @@
         <v>1997</v>
       </c>
       <c r="D1234" t="n">
-        <v>65.3842857142857</v>
+        <v>65.3842857143</v>
       </c>
       <c r="E1234"/>
     </row>
@@ -19428,7 +19428,7 @@
         <v>1999</v>
       </c>
       <c r="D1236" t="n">
-        <v>61.6971428571429</v>
+        <v>61.6971428571</v>
       </c>
       <c r="E1236"/>
     </row>
@@ -19443,7 +19443,7 @@
         <v>2000</v>
       </c>
       <c r="D1237" t="n">
-        <v>60.0542857142857</v>
+        <v>60.0542857143</v>
       </c>
       <c r="E1237"/>
     </row>
@@ -19458,7 +19458,7 @@
         <v>2001</v>
       </c>
       <c r="D1238" t="n">
-        <v>58.4114285714286</v>
+        <v>58.4114285714</v>
       </c>
       <c r="E1238"/>
     </row>
@@ -19473,7 +19473,7 @@
         <v>2002</v>
       </c>
       <c r="D1239" t="n">
-        <v>56.7685714285714</v>
+        <v>56.7685714286</v>
       </c>
       <c r="E1239"/>
     </row>
@@ -19488,7 +19488,7 @@
         <v>2003</v>
       </c>
       <c r="D1240" t="n">
-        <v>55.1257142857143</v>
+        <v>55.1257142857</v>
       </c>
       <c r="E1240"/>
     </row>
@@ -19503,7 +19503,7 @@
         <v>2004</v>
       </c>
       <c r="D1241" t="n">
-        <v>53.4828571428571</v>
+        <v>53.4828571429</v>
       </c>
       <c r="E1241"/>
     </row>
@@ -20374,7 +20374,7 @@
         <v>1992</v>
       </c>
       <c r="D1304" t="n">
-        <v>93.2033333333333</v>
+        <v>93.2033333333</v>
       </c>
       <c r="E1304"/>
     </row>
@@ -20389,7 +20389,7 @@
         <v>1993</v>
       </c>
       <c r="D1305" t="n">
-        <v>87.4266666666667</v>
+        <v>87.4266666667</v>
       </c>
       <c r="E1305"/>
     </row>
@@ -20421,7 +20421,7 @@
         <v>1995</v>
       </c>
       <c r="D1307" t="n">
-        <v>81.5544444444445</v>
+        <v>81.5544444444</v>
       </c>
       <c r="E1307"/>
     </row>
@@ -20436,7 +20436,7 @@
         <v>1996</v>
       </c>
       <c r="D1308" t="n">
-        <v>81.4588888888889</v>
+        <v>81.4588888889</v>
       </c>
       <c r="E1308"/>
     </row>
@@ -20451,7 +20451,7 @@
         <v>1997</v>
       </c>
       <c r="D1309" t="n">
-        <v>81.3633333333333</v>
+        <v>81.3633333333</v>
       </c>
       <c r="E1309"/>
     </row>
@@ -20466,7 +20466,7 @@
         <v>1998</v>
       </c>
       <c r="D1310" t="n">
-        <v>81.2677777777778</v>
+        <v>81.2677777778</v>
       </c>
       <c r="E1310"/>
     </row>
@@ -20481,7 +20481,7 @@
         <v>1999</v>
       </c>
       <c r="D1311" t="n">
-        <v>81.1722222222222</v>
+        <v>81.1722222222</v>
       </c>
       <c r="E1311"/>
     </row>
@@ -20496,7 +20496,7 @@
         <v>2000</v>
       </c>
       <c r="D1312" t="n">
-        <v>81.0766666666667</v>
+        <v>81.0766666667</v>
       </c>
       <c r="E1312"/>
     </row>
@@ -20511,7 +20511,7 @@
         <v>2001</v>
       </c>
       <c r="D1313" t="n">
-        <v>80.9811111111111</v>
+        <v>80.9811111111</v>
       </c>
       <c r="E1313"/>
     </row>
@@ -20526,7 +20526,7 @@
         <v>2002</v>
       </c>
       <c r="D1314" t="n">
-        <v>80.8855555555556</v>
+        <v>80.8855555556</v>
       </c>
       <c r="E1314"/>
     </row>
@@ -20785,7 +20785,7 @@
         <v>1994</v>
       </c>
       <c r="D1331" t="n">
-        <v>83.8711111111111</v>
+        <v>83.8711111111</v>
       </c>
       <c r="E1331"/>
     </row>
@@ -20800,7 +20800,7 @@
         <v>1995</v>
       </c>
       <c r="D1332" t="n">
-        <v>83.1322222222222</v>
+        <v>83.1322222222</v>
       </c>
       <c r="E1332"/>
     </row>
@@ -20815,7 +20815,7 @@
         <v>1996</v>
       </c>
       <c r="D1333" t="n">
-        <v>82.3933333333333</v>
+        <v>82.3933333333</v>
       </c>
       <c r="E1333"/>
     </row>
@@ -20830,7 +20830,7 @@
         <v>1997</v>
       </c>
       <c r="D1334" t="n">
-        <v>81.6544444444444</v>
+        <v>81.6544444444</v>
       </c>
       <c r="E1334"/>
     </row>
@@ -20845,7 +20845,7 @@
         <v>1998</v>
       </c>
       <c r="D1335" t="n">
-        <v>80.9155555555556</v>
+        <v>80.9155555556</v>
       </c>
       <c r="E1335"/>
     </row>
@@ -20860,7 +20860,7 @@
         <v>1999</v>
       </c>
       <c r="D1336" t="n">
-        <v>80.1766666666667</v>
+        <v>80.1766666667</v>
       </c>
       <c r="E1336"/>
     </row>
@@ -20875,7 +20875,7 @@
         <v>2000</v>
       </c>
       <c r="D1337" t="n">
-        <v>79.4377777777778</v>
+        <v>79.4377777778</v>
       </c>
       <c r="E1337"/>
     </row>
@@ -20890,7 +20890,7 @@
         <v>2001</v>
       </c>
       <c r="D1338" t="n">
-        <v>78.6988888888889</v>
+        <v>78.6988888889</v>
       </c>
       <c r="E1338"/>
     </row>
@@ -21121,7 +21121,7 @@
         <v>1993</v>
       </c>
       <c r="D1355" t="n">
-        <v>17.2366666666667</v>
+        <v>17.2366666667</v>
       </c>
       <c r="E1355"/>
     </row>
@@ -21136,7 +21136,7 @@
         <v>1994</v>
       </c>
       <c r="D1356" t="n">
-        <v>17.3933333333333</v>
+        <v>17.3933333333</v>
       </c>
       <c r="E1356"/>
     </row>
@@ -21166,7 +21166,7 @@
         <v>1996</v>
       </c>
       <c r="D1358" t="n">
-        <v>17.7066666666667</v>
+        <v>17.7066666667</v>
       </c>
       <c r="E1358"/>
     </row>
@@ -21181,7 +21181,7 @@
         <v>1997</v>
       </c>
       <c r="D1359" t="n">
-        <v>17.8633333333333</v>
+        <v>17.8633333333</v>
       </c>
       <c r="E1359"/>
     </row>
@@ -22604,7 +22604,7 @@
         <v>1994</v>
       </c>
       <c r="D1456" t="n">
-        <v>81.1745454545455</v>
+        <v>81.1745454545</v>
       </c>
       <c r="E1456"/>
     </row>
@@ -22619,7 +22619,7 @@
         <v>1995</v>
       </c>
       <c r="D1457" t="n">
-        <v>80.6190909090909</v>
+        <v>80.6190909091</v>
       </c>
       <c r="E1457"/>
     </row>
@@ -22634,7 +22634,7 @@
         <v>1996</v>
       </c>
       <c r="D1458" t="n">
-        <v>80.0636363636364</v>
+        <v>80.0636363636</v>
       </c>
       <c r="E1458"/>
     </row>
@@ -22649,7 +22649,7 @@
         <v>1997</v>
       </c>
       <c r="D1459" t="n">
-        <v>79.5081818181818</v>
+        <v>79.5081818182</v>
       </c>
       <c r="E1459"/>
     </row>
@@ -22664,7 +22664,7 @@
         <v>1998</v>
       </c>
       <c r="D1460" t="n">
-        <v>78.9527272727273</v>
+        <v>78.9527272727</v>
       </c>
       <c r="E1460"/>
     </row>
@@ -22679,7 +22679,7 @@
         <v>1999</v>
       </c>
       <c r="D1461" t="n">
-        <v>78.3972727272727</v>
+        <v>78.3972727273</v>
       </c>
       <c r="E1461"/>
     </row>
@@ -22694,7 +22694,7 @@
         <v>2000</v>
       </c>
       <c r="D1462" t="n">
-        <v>77.8418181818182</v>
+        <v>77.8418181818</v>
       </c>
       <c r="E1462"/>
     </row>
@@ -22709,7 +22709,7 @@
         <v>2001</v>
       </c>
       <c r="D1463" t="n">
-        <v>77.2863636363636</v>
+        <v>77.2863636364</v>
       </c>
       <c r="E1463"/>
     </row>
@@ -22724,7 +22724,7 @@
         <v>2002</v>
       </c>
       <c r="D1464" t="n">
-        <v>76.7309090909091</v>
+        <v>76.7309090909</v>
       </c>
       <c r="E1464"/>
     </row>
@@ -22739,7 +22739,7 @@
         <v>2003</v>
       </c>
       <c r="D1465" t="n">
-        <v>76.1754545454546</v>
+        <v>76.1754545455</v>
       </c>
       <c r="E1465"/>
     </row>
@@ -22848,7 +22848,7 @@
         <v>2010</v>
       </c>
       <c r="D1472" t="n">
-        <v>63.9995767958334</v>
+        <v>63.9995767958</v>
       </c>
       <c r="E1472"/>
     </row>
@@ -22863,10 +22863,10 @@
         <v>2011</v>
       </c>
       <c r="D1473" t="n">
-        <v>59.2391535916669</v>
+        <v>59.2391535917</v>
       </c>
       <c r="E1473" t="n">
-        <v>59.2391535916669</v>
+        <v>59.2391535917</v>
       </c>
     </row>
     <row r="1474">
@@ -22936,7 +22936,7 @@
         <v>1991</v>
       </c>
       <c r="D1478" t="n">
-        <v>84.5866666666667</v>
+        <v>84.5866666667</v>
       </c>
       <c r="E1478"/>
     </row>
@@ -22951,7 +22951,7 @@
         <v>1992</v>
       </c>
       <c r="D1479" t="n">
-        <v>84.5833333333333</v>
+        <v>84.5833333333</v>
       </c>
       <c r="E1479"/>
     </row>
@@ -23077,7 +23077,7 @@
         <v>2000</v>
       </c>
       <c r="D1487" t="n">
-        <v>76.7433333333333</v>
+        <v>76.7433333333</v>
       </c>
       <c r="E1487"/>
     </row>
@@ -23092,7 +23092,7 @@
         <v>2001</v>
       </c>
       <c r="D1488" t="n">
-        <v>71.9366666666667</v>
+        <v>71.9366666667</v>
       </c>
       <c r="E1488"/>
     </row>
@@ -23124,7 +23124,7 @@
         <v>2003</v>
       </c>
       <c r="D1490" t="n">
-        <v>62.7966666666667</v>
+        <v>62.7966666667</v>
       </c>
       <c r="E1490"/>
     </row>
@@ -23139,7 +23139,7 @@
         <v>2004</v>
       </c>
       <c r="D1491" t="n">
-        <v>58.4633333333333</v>
+        <v>58.4633333333</v>
       </c>
       <c r="E1491"/>
     </row>
@@ -23171,7 +23171,7 @@
         <v>2006</v>
       </c>
       <c r="D1493" t="n">
-        <v>54.3233333333333</v>
+        <v>54.3233333333</v>
       </c>
       <c r="E1493"/>
     </row>
@@ -23186,7 +23186,7 @@
         <v>2007</v>
       </c>
       <c r="D1494" t="n">
-        <v>54.5166666666667</v>
+        <v>54.5166666667</v>
       </c>
       <c r="E1494"/>
     </row>
@@ -23447,7 +23447,7 @@
         <v>1999</v>
       </c>
       <c r="D1511" t="n">
-        <v>8.26142857142857</v>
+        <v>8.2614285714</v>
       </c>
       <c r="E1511"/>
     </row>
@@ -23462,7 +23462,7 @@
         <v>2000</v>
       </c>
       <c r="D1512" t="n">
-        <v>8.22285714285714</v>
+        <v>8.2228571429</v>
       </c>
       <c r="E1512"/>
     </row>
@@ -23477,7 +23477,7 @@
         <v>2001</v>
       </c>
       <c r="D1513" t="n">
-        <v>8.18428571428571</v>
+        <v>8.1842857143</v>
       </c>
       <c r="E1513"/>
     </row>
@@ -23492,7 +23492,7 @@
         <v>2002</v>
       </c>
       <c r="D1514" t="n">
-        <v>8.14571428571429</v>
+        <v>8.1457142857</v>
       </c>
       <c r="E1514"/>
     </row>
@@ -23507,7 +23507,7 @@
         <v>2003</v>
       </c>
       <c r="D1515" t="n">
-        <v>8.10714285714286</v>
+        <v>8.1071428571</v>
       </c>
       <c r="E1515"/>
     </row>
@@ -23522,7 +23522,7 @@
         <v>2004</v>
       </c>
       <c r="D1516" t="n">
-        <v>8.06857142857143</v>
+        <v>8.0685714286</v>
       </c>
       <c r="E1516"/>
     </row>
@@ -24029,7 +24029,7 @@
         <v>1991</v>
       </c>
       <c r="D1553" t="n">
-        <v>13.5033333333333</v>
+        <v>13.5033333333</v>
       </c>
       <c r="E1553"/>
     </row>
@@ -24044,7 +24044,7 @@
         <v>1992</v>
       </c>
       <c r="D1554" t="n">
-        <v>13.9366666666667</v>
+        <v>13.9366666667</v>
       </c>
       <c r="E1554"/>
     </row>
@@ -24076,7 +24076,7 @@
         <v>1994</v>
       </c>
       <c r="D1556" t="n">
-        <v>12.4966666666667</v>
+        <v>12.4966666667</v>
       </c>
       <c r="E1556"/>
     </row>
@@ -24091,7 +24091,7 @@
         <v>1995</v>
       </c>
       <c r="D1557" t="n">
-        <v>10.6233333333333</v>
+        <v>10.6233333333</v>
       </c>
       <c r="E1557"/>
     </row>
@@ -24123,7 +24123,7 @@
         <v>1997</v>
       </c>
       <c r="D1559" t="n">
-        <v>7.99333333333333</v>
+        <v>7.9933333333</v>
       </c>
       <c r="E1559"/>
     </row>
@@ -24138,7 +24138,7 @@
         <v>1998</v>
       </c>
       <c r="D1560" t="n">
-        <v>7.23666666666667</v>
+        <v>7.2366666667</v>
       </c>
       <c r="E1560"/>
     </row>
@@ -24812,7 +24812,7 @@
         <v>1994</v>
       </c>
       <c r="D1606" t="n">
-        <v>17.9666666666667</v>
+        <v>17.9666666667</v>
       </c>
       <c r="E1606"/>
     </row>
@@ -24827,7 +24827,7 @@
         <v>1995</v>
       </c>
       <c r="D1607" t="n">
-        <v>18.3633333333333</v>
+        <v>18.3633333333</v>
       </c>
       <c r="E1607"/>
     </row>
@@ -25214,7 +25214,7 @@
         <v>1995</v>
       </c>
       <c r="D1632" t="n">
-        <v>54.5033333333333</v>
+        <v>54.5033333333</v>
       </c>
       <c r="E1632"/>
     </row>
@@ -25229,7 +25229,7 @@
         <v>1996</v>
       </c>
       <c r="D1633" t="n">
-        <v>55.3566666666667</v>
+        <v>55.3566666667</v>
       </c>
       <c r="E1633"/>
     </row>
@@ -28707,7 +28707,7 @@
         <v>1994</v>
       </c>
       <c r="D1881" t="n">
-        <v>11.5733333333333</v>
+        <v>11.5733333333</v>
       </c>
       <c r="E1881"/>
     </row>
@@ -28722,7 +28722,7 @@
         <v>1995</v>
       </c>
       <c r="D1882" t="n">
-        <v>6.27666666666667</v>
+        <v>6.2766666667</v>
       </c>
       <c r="E1882"/>
     </row>
@@ -29884,7 +29884,7 @@
         <v>1998</v>
       </c>
       <c r="D1960" t="n">
-        <v>93.1785714285714</v>
+        <v>93.1785714286</v>
       </c>
       <c r="E1960"/>
     </row>
@@ -29899,7 +29899,7 @@
         <v>1999</v>
       </c>
       <c r="D1961" t="n">
-        <v>92.7871428571429</v>
+        <v>92.7871428571</v>
       </c>
       <c r="E1961"/>
     </row>
@@ -29914,7 +29914,7 @@
         <v>2000</v>
       </c>
       <c r="D1962" t="n">
-        <v>92.3957142857143</v>
+        <v>92.3957142857</v>
       </c>
       <c r="E1962"/>
     </row>
@@ -29929,7 +29929,7 @@
         <v>2001</v>
       </c>
       <c r="D1963" t="n">
-        <v>92.0042857142857</v>
+        <v>92.0042857143</v>
       </c>
       <c r="E1963"/>
     </row>
@@ -29944,7 +29944,7 @@
         <v>2002</v>
       </c>
       <c r="D1964" t="n">
-        <v>91.6128571428571</v>
+        <v>91.6128571429</v>
       </c>
       <c r="E1964"/>
     </row>
@@ -29959,7 +29959,7 @@
         <v>2003</v>
       </c>
       <c r="D1965" t="n">
-        <v>91.2214285714286</v>
+        <v>91.2214285714</v>
       </c>
       <c r="E1965"/>
     </row>
@@ -29991,7 +29991,7 @@
         <v>2005</v>
       </c>
       <c r="D1967" t="n">
-        <v>90.3816666666667</v>
+        <v>90.3816666667</v>
       </c>
       <c r="E1967"/>
     </row>
@@ -30006,7 +30006,7 @@
         <v>2006</v>
       </c>
       <c r="D1968" t="n">
-        <v>89.9333333333333</v>
+        <v>89.9333333333</v>
       </c>
       <c r="E1968"/>
     </row>
@@ -30036,7 +30036,7 @@
         <v>2008</v>
       </c>
       <c r="D1970" t="n">
-        <v>89.0366666666667</v>
+        <v>89.0366666667</v>
       </c>
       <c r="E1970"/>
     </row>
@@ -30051,7 +30051,7 @@
         <v>2009</v>
       </c>
       <c r="D1971" t="n">
-        <v>88.5883333333333</v>
+        <v>88.5883333333</v>
       </c>
       <c r="E1971"/>
     </row>
@@ -30257,7 +30257,7 @@
         <v>1998</v>
       </c>
       <c r="D1985" t="n">
-        <v>6.99571428571429</v>
+        <v>6.9957142857</v>
       </c>
       <c r="E1985"/>
     </row>
@@ -30272,7 +30272,7 @@
         <v>1999</v>
       </c>
       <c r="D1986" t="n">
-        <v>7.13142857142857</v>
+        <v>7.1314285714</v>
       </c>
       <c r="E1986"/>
     </row>
@@ -30287,7 +30287,7 @@
         <v>2000</v>
       </c>
       <c r="D1987" t="n">
-        <v>7.26714285714286</v>
+        <v>7.2671428571</v>
       </c>
       <c r="E1987"/>
     </row>
@@ -30302,7 +30302,7 @@
         <v>2001</v>
       </c>
       <c r="D1988" t="n">
-        <v>7.40285714285714</v>
+        <v>7.4028571429</v>
       </c>
       <c r="E1988"/>
     </row>
@@ -30317,7 +30317,7 @@
         <v>2002</v>
       </c>
       <c r="D1989" t="n">
-        <v>7.53857142857143</v>
+        <v>7.5385714286</v>
       </c>
       <c r="E1989"/>
     </row>
@@ -30332,7 +30332,7 @@
         <v>2003</v>
       </c>
       <c r="D1990" t="n">
-        <v>7.67428571428571</v>
+        <v>7.6742857143</v>
       </c>
       <c r="E1990"/>
     </row>
@@ -30364,7 +30364,7 @@
         <v>2005</v>
       </c>
       <c r="D1992" t="n">
-        <v>6.18333333333333</v>
+        <v>6.1833333333</v>
       </c>
       <c r="E1992"/>
     </row>
@@ -30379,7 +30379,7 @@
         <v>2006</v>
       </c>
       <c r="D1993" t="n">
-        <v>4.55666666666667</v>
+        <v>4.5566666667</v>
       </c>
       <c r="E1993"/>
     </row>
@@ -30629,7 +30629,7 @@
         <v>1999</v>
       </c>
       <c r="D2011" t="n">
-        <v>32.9033333333333</v>
+        <v>32.9033333333</v>
       </c>
       <c r="E2011"/>
     </row>
@@ -30644,7 +30644,7 @@
         <v>2000</v>
       </c>
       <c r="D2012" t="n">
-        <v>28.7666666666667</v>
+        <v>28.7666666667</v>
       </c>
       <c r="E2012"/>
     </row>
@@ -30674,7 +30674,7 @@
         <v>2002</v>
       </c>
       <c r="D2014" t="n">
-        <v>20.4933333333333</v>
+        <v>20.4933333333</v>
       </c>
       <c r="E2014"/>
     </row>
@@ -30689,7 +30689,7 @@
         <v>2003</v>
       </c>
       <c r="D2015" t="n">
-        <v>16.3566666666667</v>
+        <v>16.3566666667</v>
       </c>
       <c r="E2015"/>
     </row>
@@ -30920,7 +30920,7 @@
         <v>1995</v>
       </c>
       <c r="D2032" t="n">
-        <v>92.0685714285714</v>
+        <v>92.0685714286</v>
       </c>
       <c r="E2032"/>
     </row>
@@ -30935,7 +30935,7 @@
         <v>1996</v>
       </c>
       <c r="D2033" t="n">
-        <v>90.3971428571429</v>
+        <v>90.3971428571</v>
       </c>
       <c r="E2033"/>
     </row>
@@ -30950,7 +30950,7 @@
         <v>1997</v>
       </c>
       <c r="D2034" t="n">
-        <v>88.7257142857143</v>
+        <v>88.7257142857</v>
       </c>
       <c r="E2034"/>
     </row>
@@ -30965,7 +30965,7 @@
         <v>1998</v>
       </c>
       <c r="D2035" t="n">
-        <v>87.0542857142857</v>
+        <v>87.0542857143</v>
       </c>
       <c r="E2035"/>
     </row>
@@ -30980,7 +30980,7 @@
         <v>1999</v>
       </c>
       <c r="D2036" t="n">
-        <v>85.3828571428571</v>
+        <v>85.3828571429</v>
       </c>
       <c r="E2036"/>
     </row>
@@ -30995,7 +30995,7 @@
         <v>2000</v>
       </c>
       <c r="D2037" t="n">
-        <v>83.7114285714286</v>
+        <v>83.7114285714</v>
       </c>
       <c r="E2037"/>
     </row>
@@ -34185,7 +34185,7 @@
         <v>1999</v>
       </c>
       <c r="D2261" t="n">
-        <v>24.4066666666667</v>
+        <v>24.4066666667</v>
       </c>
       <c r="E2261"/>
     </row>
@@ -34200,7 +34200,7 @@
         <v>2000</v>
       </c>
       <c r="D2262" t="n">
-        <v>24.3833333333333</v>
+        <v>24.3833333333</v>
       </c>
       <c r="E2262"/>
     </row>
@@ -34510,7 +34510,7 @@
         <v>1997</v>
       </c>
       <c r="D2284" t="n">
-        <v>92.1466666666667</v>
+        <v>92.1466666667</v>
       </c>
       <c r="E2284"/>
     </row>
@@ -34525,7 +34525,7 @@
         <v>1998</v>
       </c>
       <c r="D2285" t="n">
-        <v>91.7233333333333</v>
+        <v>91.7233333333</v>
       </c>
       <c r="E2285"/>
     </row>
@@ -34555,7 +34555,7 @@
         <v>2000</v>
       </c>
       <c r="D2287" t="n">
-        <v>90.8766666666667</v>
+        <v>90.8766666667</v>
       </c>
       <c r="E2287"/>
     </row>
@@ -34570,7 +34570,7 @@
         <v>2001</v>
       </c>
       <c r="D2288" t="n">
-        <v>90.4533333333333</v>
+        <v>90.4533333333</v>
       </c>
       <c r="E2288"/>
     </row>
@@ -34602,7 +34602,7 @@
         <v>2003</v>
       </c>
       <c r="D2290" t="n">
-        <v>88.9528571428571</v>
+        <v>88.9528571429</v>
       </c>
       <c r="E2290"/>
     </row>
@@ -34617,7 +34617,7 @@
         <v>2004</v>
       </c>
       <c r="D2291" t="n">
-        <v>87.8757142857143</v>
+        <v>87.8757142857</v>
       </c>
       <c r="E2291"/>
     </row>
@@ -34632,7 +34632,7 @@
         <v>2005</v>
       </c>
       <c r="D2292" t="n">
-        <v>86.7985714285714</v>
+        <v>86.7985714286</v>
       </c>
       <c r="E2292"/>
     </row>
@@ -34647,7 +34647,7 @@
         <v>2006</v>
       </c>
       <c r="D2293" t="n">
-        <v>85.7214285714286</v>
+        <v>85.7214285714</v>
       </c>
       <c r="E2293"/>
     </row>
@@ -34662,7 +34662,7 @@
         <v>2007</v>
       </c>
       <c r="D2294" t="n">
-        <v>84.6442857142857</v>
+        <v>84.6442857143</v>
       </c>
       <c r="E2294"/>
     </row>
@@ -34677,7 +34677,7 @@
         <v>2008</v>
       </c>
       <c r="D2295" t="n">
-        <v>83.5671428571429</v>
+        <v>83.5671428571</v>
       </c>
       <c r="E2295"/>
     </row>
@@ -35155,7 +35155,7 @@
         <v>1994</v>
       </c>
       <c r="D2331" t="n">
-        <v>61.2181818181818</v>
+        <v>61.2181818182</v>
       </c>
       <c r="E2331"/>
     </row>
@@ -35170,7 +35170,7 @@
         <v>1995</v>
       </c>
       <c r="D2332" t="n">
-        <v>60.2063636363636</v>
+        <v>60.2063636364</v>
       </c>
       <c r="E2332"/>
     </row>
@@ -35185,7 +35185,7 @@
         <v>1996</v>
       </c>
       <c r="D2333" t="n">
-        <v>59.1945454545455</v>
+        <v>59.1945454545</v>
       </c>
       <c r="E2333"/>
     </row>
@@ -35200,7 +35200,7 @@
         <v>1997</v>
       </c>
       <c r="D2334" t="n">
-        <v>58.1827272727273</v>
+        <v>58.1827272727</v>
       </c>
       <c r="E2334"/>
     </row>
@@ -35215,7 +35215,7 @@
         <v>1998</v>
       </c>
       <c r="D2335" t="n">
-        <v>57.1709090909091</v>
+        <v>57.1709090909</v>
       </c>
       <c r="E2335"/>
     </row>
@@ -35230,7 +35230,7 @@
         <v>1999</v>
       </c>
       <c r="D2336" t="n">
-        <v>56.1590909090909</v>
+        <v>56.1590909091</v>
       </c>
       <c r="E2336"/>
     </row>
@@ -35245,7 +35245,7 @@
         <v>2000</v>
       </c>
       <c r="D2337" t="n">
-        <v>55.1472727272727</v>
+        <v>55.1472727273</v>
       </c>
       <c r="E2337"/>
     </row>
@@ -35260,7 +35260,7 @@
         <v>2001</v>
       </c>
       <c r="D2338" t="n">
-        <v>54.1354545454545</v>
+        <v>54.1354545455</v>
       </c>
       <c r="E2338"/>
     </row>
@@ -35275,7 +35275,7 @@
         <v>2002</v>
       </c>
       <c r="D2339" t="n">
-        <v>53.1236363636364</v>
+        <v>53.1236363636</v>
       </c>
       <c r="E2339"/>
     </row>
@@ -35290,7 +35290,7 @@
         <v>2003</v>
       </c>
       <c r="D2340" t="n">
-        <v>52.1118181818182</v>
+        <v>52.1118181818</v>
       </c>
       <c r="E2340"/>
     </row>
@@ -35960,7 +35960,7 @@
         <v>1999</v>
       </c>
       <c r="D2386" t="n">
-        <v>32.3933333333333</v>
+        <v>32.3933333333</v>
       </c>
       <c r="E2386"/>
     </row>
@@ -35975,7 +35975,7 @@
         <v>2000</v>
       </c>
       <c r="D2387" t="n">
-        <v>33.3866666666667</v>
+        <v>33.3866666667</v>
       </c>
       <c r="E2387"/>
     </row>
@@ -36271,7 +36271,7 @@
         <v>1995</v>
       </c>
       <c r="D2407" t="n">
-        <v>90.0636363636364</v>
+        <v>90.0636363636</v>
       </c>
       <c r="E2407"/>
     </row>
@@ -36286,7 +36286,7 @@
         <v>1996</v>
       </c>
       <c r="D2408" t="n">
-        <v>88.5772727272727</v>
+        <v>88.5772727273</v>
       </c>
       <c r="E2408"/>
     </row>
@@ -36301,7 +36301,7 @@
         <v>1997</v>
       </c>
       <c r="D2409" t="n">
-        <v>87.0909090909091</v>
+        <v>87.0909090909</v>
       </c>
       <c r="E2409"/>
     </row>
@@ -36316,7 +36316,7 @@
         <v>1998</v>
       </c>
       <c r="D2410" t="n">
-        <v>85.6045454545455</v>
+        <v>85.6045454545</v>
       </c>
       <c r="E2410"/>
     </row>
@@ -36331,7 +36331,7 @@
         <v>1999</v>
       </c>
       <c r="D2411" t="n">
-        <v>84.1181818181818</v>
+        <v>84.1181818182</v>
       </c>
       <c r="E2411"/>
     </row>
@@ -36346,7 +36346,7 @@
         <v>2000</v>
       </c>
       <c r="D2412" t="n">
-        <v>82.6318181818182</v>
+        <v>82.6318181818</v>
       </c>
       <c r="E2412"/>
     </row>
@@ -36361,7 +36361,7 @@
         <v>2001</v>
       </c>
       <c r="D2413" t="n">
-        <v>81.1454545454545</v>
+        <v>81.1454545455</v>
       </c>
       <c r="E2413"/>
     </row>
@@ -36376,7 +36376,7 @@
         <v>2002</v>
       </c>
       <c r="D2414" t="n">
-        <v>79.6590909090909</v>
+        <v>79.6590909091</v>
       </c>
       <c r="E2414"/>
     </row>
@@ -36391,7 +36391,7 @@
         <v>2003</v>
       </c>
       <c r="D2415" t="n">
-        <v>78.1727272727273</v>
+        <v>78.1727272727</v>
       </c>
       <c r="E2415"/>
     </row>
@@ -36406,7 +36406,7 @@
         <v>2004</v>
       </c>
       <c r="D2416" t="n">
-        <v>76.6863636363636</v>
+        <v>76.6863636364</v>
       </c>
       <c r="E2416"/>
     </row>
@@ -36798,7 +36798,7 @@
         <v>2005</v>
       </c>
       <c r="D2442" t="n">
-        <v>83.1416666666667</v>
+        <v>83.1416666667</v>
       </c>
       <c r="E2442"/>
     </row>
@@ -36813,7 +36813,7 @@
         <v>2006</v>
       </c>
       <c r="D2443" t="n">
-        <v>82.9533333333333</v>
+        <v>82.9533333333</v>
       </c>
       <c r="E2443"/>
     </row>
@@ -36843,7 +36843,7 @@
         <v>2008</v>
       </c>
       <c r="D2445" t="n">
-        <v>82.5766666666667</v>
+        <v>82.5766666667</v>
       </c>
       <c r="E2445"/>
     </row>
@@ -36858,7 +36858,7 @@
         <v>2009</v>
       </c>
       <c r="D2446" t="n">
-        <v>82.3883333333333</v>
+        <v>82.3883333333</v>
       </c>
       <c r="E2446"/>
     </row>
@@ -37083,7 +37083,7 @@
         <v>1999</v>
       </c>
       <c r="D2461" t="n">
-        <v>68.9966666666667</v>
+        <v>68.9966666667</v>
       </c>
       <c r="E2461"/>
     </row>
@@ -37098,7 +37098,7 @@
         <v>2000</v>
       </c>
       <c r="D2462" t="n">
-        <v>71.4533333333333</v>
+        <v>71.4533333333</v>
       </c>
       <c r="E2462"/>
     </row>
@@ -37130,7 +37130,7 @@
         <v>2002</v>
       </c>
       <c r="D2464" t="n">
-        <v>69.3766666666667</v>
+        <v>69.3766666667</v>
       </c>
       <c r="E2464"/>
     </row>
@@ -37145,7 +37145,7 @@
         <v>2003</v>
       </c>
       <c r="D2465" t="n">
-        <v>64.8433333333333</v>
+        <v>64.8433333333</v>
       </c>
       <c r="E2465"/>
     </row>
@@ -37849,7 +37849,7 @@
         <v>2005</v>
       </c>
       <c r="D2517" t="n">
-        <v>2.31666666666667</v>
+        <v>2.3166666667</v>
       </c>
       <c r="E2517"/>
     </row>
@@ -37864,7 +37864,7 @@
         <v>2006</v>
       </c>
       <c r="D2518" t="n">
-        <v>2.88333333333333</v>
+        <v>2.8833333333</v>
       </c>
       <c r="E2518"/>
     </row>
@@ -39197,7 +39197,7 @@
         <v>1995</v>
       </c>
       <c r="D2607" t="n">
-        <v>19.1433333333333</v>
+        <v>19.1433333333</v>
       </c>
       <c r="E2607"/>
     </row>
@@ -39212,7 +39212,7 @@
         <v>1996</v>
       </c>
       <c r="D2608" t="n">
-        <v>14.7566666666667</v>
+        <v>14.7566666667</v>
       </c>
       <c r="E2608"/>
     </row>
@@ -39602,7 +39602,7 @@
         <v>1995</v>
       </c>
       <c r="D2632" t="n">
-        <v>52.2433333333333</v>
+        <v>52.2433333333</v>
       </c>
       <c r="E2632"/>
     </row>
@@ -39617,7 +39617,7 @@
         <v>1996</v>
       </c>
       <c r="D2633" t="n">
-        <v>49.2766666666667</v>
+        <v>49.2766666667</v>
       </c>
       <c r="E2633"/>
     </row>
@@ -39649,7 +39649,7 @@
         <v>1998</v>
       </c>
       <c r="D2635" t="n">
-        <v>46.6366666666667</v>
+        <v>46.6366666667</v>
       </c>
       <c r="E2635"/>
     </row>
@@ -39664,7 +39664,7 @@
         <v>1999</v>
       </c>
       <c r="D2636" t="n">
-        <v>46.9633333333333</v>
+        <v>46.9633333333</v>
       </c>
       <c r="E2636"/>
     </row>
@@ -39696,7 +39696,7 @@
         <v>2001</v>
       </c>
       <c r="D2638" t="n">
-        <v>46.4733333333333</v>
+        <v>46.4733333333</v>
       </c>
       <c r="E2638"/>
     </row>
@@ -39711,7 +39711,7 @@
         <v>2002</v>
       </c>
       <c r="D2639" t="n">
-        <v>45.6566666666667</v>
+        <v>45.6566666667</v>
       </c>
       <c r="E2639"/>
     </row>
@@ -39743,7 +39743,7 @@
         <v>2004</v>
       </c>
       <c r="D2641" t="n">
-        <v>44.8933333333333</v>
+        <v>44.8933333333</v>
       </c>
       <c r="E2641"/>
     </row>
@@ -39758,7 +39758,7 @@
         <v>2005</v>
       </c>
       <c r="D2642" t="n">
-        <v>44.9466666666667</v>
+        <v>44.9466666667</v>
       </c>
       <c r="E2642"/>
     </row>
@@ -39790,7 +39790,7 @@
         <v>2007</v>
       </c>
       <c r="D2644" t="n">
-        <v>43.7133333333333</v>
+        <v>43.7133333333</v>
       </c>
       <c r="E2644"/>
     </row>
@@ -39805,7 +39805,7 @@
         <v>2008</v>
       </c>
       <c r="D2645" t="n">
-        <v>42.4266666666667</v>
+        <v>42.4266666667</v>
       </c>
       <c r="E2645"/>
     </row>
@@ -39837,7 +39837,7 @@
         <v>2010</v>
       </c>
       <c r="D2647" t="n">
-        <v>41.3333333333333</v>
+        <v>41.3333333333</v>
       </c>
       <c r="E2647"/>
     </row>
@@ -39852,7 +39852,7 @@
         <v>2011</v>
       </c>
       <c r="D2648" t="n">
-        <v>41.5266666666667</v>
+        <v>41.5266666667</v>
       </c>
       <c r="E2648"/>
     </row>
@@ -41234,7 +41234,7 @@
         <v>2001</v>
       </c>
       <c r="D2738" t="n">
-        <v>90.8933333333333</v>
+        <v>90.8933333333</v>
       </c>
       <c r="E2738"/>
     </row>
@@ -41249,7 +41249,7 @@
         <v>2002</v>
       </c>
       <c r="D2739" t="n">
-        <v>90.1866666666667</v>
+        <v>90.1866666667</v>
       </c>
       <c r="E2739"/>
     </row>
@@ -41279,7 +41279,7 @@
         <v>2004</v>
       </c>
       <c r="D2741" t="n">
-        <v>88.7733333333333</v>
+        <v>88.7733333333</v>
       </c>
       <c r="E2741"/>
     </row>
@@ -41294,7 +41294,7 @@
         <v>2005</v>
       </c>
       <c r="D2742" t="n">
-        <v>88.0666666666667</v>
+        <v>88.0666666667</v>
       </c>
       <c r="E2742"/>
     </row>
@@ -43174,7 +43174,7 @@
         <v>1995</v>
       </c>
       <c r="D2882" t="n">
-        <v>77.8657142857143</v>
+        <v>77.8657142857</v>
       </c>
       <c r="E2882"/>
     </row>
@@ -43189,7 +43189,7 @@
         <v>1996</v>
       </c>
       <c r="D2883" t="n">
-        <v>76.7614285714286</v>
+        <v>76.7614285714</v>
       </c>
       <c r="E2883"/>
     </row>
@@ -43204,7 +43204,7 @@
         <v>1997</v>
       </c>
       <c r="D2884" t="n">
-        <v>75.6571428571429</v>
+        <v>75.6571428571</v>
       </c>
       <c r="E2884"/>
     </row>
@@ -43219,7 +43219,7 @@
         <v>1998</v>
       </c>
       <c r="D2885" t="n">
-        <v>74.5528571428571</v>
+        <v>74.5528571429</v>
       </c>
       <c r="E2885"/>
     </row>
@@ -43234,7 +43234,7 @@
         <v>1999</v>
       </c>
       <c r="D2886" t="n">
-        <v>73.4485714285714</v>
+        <v>73.4485714286</v>
       </c>
       <c r="E2886"/>
     </row>
@@ -43249,7 +43249,7 @@
         <v>2000</v>
       </c>
       <c r="D2887" t="n">
-        <v>72.3442857142857</v>
+        <v>72.3442857143</v>
       </c>
       <c r="E2887"/>
     </row>
@@ -43343,7 +43343,7 @@
         <v>2006</v>
       </c>
       <c r="D2893" t="n">
-        <v>60.3516666666667</v>
+        <v>60.3516666667</v>
       </c>
       <c r="E2893"/>
     </row>
@@ -43358,7 +43358,7 @@
         <v>2007</v>
       </c>
       <c r="D2894" t="n">
-        <v>60.3433333333333</v>
+        <v>60.3433333333</v>
       </c>
       <c r="E2894"/>
     </row>
@@ -43388,7 +43388,7 @@
         <v>2009</v>
       </c>
       <c r="D2896" t="n">
-        <v>60.3266666666667</v>
+        <v>60.3266666667</v>
       </c>
       <c r="E2896"/>
     </row>
@@ -43403,7 +43403,7 @@
         <v>2010</v>
       </c>
       <c r="D2897" t="n">
-        <v>60.3183333333333</v>
+        <v>60.3183333333</v>
       </c>
       <c r="E2897"/>
     </row>
@@ -43969,7 +43969,7 @@
         <v>2000</v>
       </c>
       <c r="D2937" t="n">
-        <v>0.262857142857143</v>
+        <v>0.2628571429</v>
       </c>
       <c r="E2937"/>
     </row>
@@ -43984,7 +43984,7 @@
         <v>2001</v>
       </c>
       <c r="D2938" t="n">
-        <v>0.525714285714286</v>
+        <v>0.5257142857</v>
       </c>
       <c r="E2938"/>
     </row>
@@ -43999,7 +43999,7 @@
         <v>2002</v>
       </c>
       <c r="D2939" t="n">
-        <v>0.788571428571429</v>
+        <v>0.7885714286</v>
       </c>
       <c r="E2939"/>
     </row>
@@ -44014,7 +44014,7 @@
         <v>2003</v>
       </c>
       <c r="D2940" t="n">
-        <v>1.05142857142857</v>
+        <v>1.0514285714</v>
       </c>
       <c r="E2940"/>
     </row>
@@ -44029,7 +44029,7 @@
         <v>2004</v>
       </c>
       <c r="D2941" t="n">
-        <v>1.31428571428571</v>
+        <v>1.3142857143</v>
       </c>
       <c r="E2941"/>
     </row>
@@ -44044,7 +44044,7 @@
         <v>2005</v>
       </c>
       <c r="D2942" t="n">
-        <v>1.57714285714286</v>
+        <v>1.5771428571</v>
       </c>
       <c r="E2942"/>
     </row>
@@ -46050,7 +46050,7 @@
         <v>2001</v>
       </c>
       <c r="D3088" t="n">
-        <v>41.6083333333333</v>
+        <v>41.6083333333</v>
       </c>
       <c r="E3088"/>
     </row>
@@ -46065,7 +46065,7 @@
         <v>2002</v>
       </c>
       <c r="D3089" t="n">
-        <v>40.3166666666667</v>
+        <v>40.3166666667</v>
       </c>
       <c r="E3089"/>
     </row>
@@ -46095,7 +46095,7 @@
         <v>2004</v>
       </c>
       <c r="D3091" t="n">
-        <v>37.7333333333333</v>
+        <v>37.7333333333</v>
       </c>
       <c r="E3091"/>
     </row>
@@ -46110,7 +46110,7 @@
         <v>2005</v>
       </c>
       <c r="D3092" t="n">
-        <v>36.4416666666667</v>
+        <v>36.4416666667</v>
       </c>
       <c r="E3092"/>
     </row>
@@ -46142,7 +46142,7 @@
         <v>2007</v>
       </c>
       <c r="D3094" t="n">
-        <v>33.8433333333333</v>
+        <v>33.8433333333</v>
       </c>
       <c r="E3094"/>
     </row>
@@ -46157,7 +46157,7 @@
         <v>2008</v>
       </c>
       <c r="D3095" t="n">
-        <v>32.5366666666667</v>
+        <v>32.5366666667</v>
       </c>
       <c r="E3095"/>
     </row>
@@ -46679,7 +46679,7 @@
         <v>1996</v>
       </c>
       <c r="D3133" t="n">
-        <v>45.6885714285714</v>
+        <v>45.6885714286</v>
       </c>
       <c r="E3133"/>
     </row>
@@ -46694,7 +46694,7 @@
         <v>1997</v>
       </c>
       <c r="D3134" t="n">
-        <v>44.6971428571429</v>
+        <v>44.6971428571</v>
       </c>
       <c r="E3134"/>
     </row>
@@ -46709,7 +46709,7 @@
         <v>1998</v>
       </c>
       <c r="D3135" t="n">
-        <v>43.7057142857143</v>
+        <v>43.7057142857</v>
       </c>
       <c r="E3135"/>
     </row>
@@ -46724,7 +46724,7 @@
         <v>1999</v>
       </c>
       <c r="D3136" t="n">
-        <v>42.7142857142857</v>
+        <v>42.7142857143</v>
       </c>
       <c r="E3136"/>
     </row>
@@ -46739,7 +46739,7 @@
         <v>2000</v>
       </c>
       <c r="D3137" t="n">
-        <v>41.7228571428571</v>
+        <v>41.7228571429</v>
       </c>
       <c r="E3137"/>
     </row>
@@ -46754,7 +46754,7 @@
         <v>2001</v>
       </c>
       <c r="D3138" t="n">
-        <v>40.7314285714286</v>
+        <v>40.7314285714</v>
       </c>
       <c r="E3138"/>
     </row>
@@ -47687,7 +47687,7 @@
         <v>1995</v>
       </c>
       <c r="D3207" t="n">
-        <v>85.1133333333333</v>
+        <v>85.1133333333</v>
       </c>
       <c r="E3207"/>
     </row>
@@ -47702,7 +47702,7 @@
         <v>1996</v>
       </c>
       <c r="D3208" t="n">
-        <v>80.9166666666667</v>
+        <v>80.9166666667</v>
       </c>
       <c r="E3208"/>
     </row>
@@ -47732,7 +47732,7 @@
         <v>1998</v>
       </c>
       <c r="D3210" t="n">
-        <v>72.5233333333333</v>
+        <v>72.5233333333</v>
       </c>
       <c r="E3210"/>
     </row>
@@ -47747,7 +47747,7 @@
         <v>1999</v>
       </c>
       <c r="D3211" t="n">
-        <v>68.3266666666667</v>
+        <v>68.3266666667</v>
       </c>
       <c r="E3211"/>
     </row>
@@ -47779,7 +47779,7 @@
         <v>2001</v>
       </c>
       <c r="D3213" t="n">
-        <v>63.5722222222222</v>
+        <v>63.5722222222</v>
       </c>
       <c r="E3213"/>
     </row>
@@ -47794,7 +47794,7 @@
         <v>2002</v>
       </c>
       <c r="D3214" t="n">
-        <v>63.0144444444444</v>
+        <v>63.0144444444</v>
       </c>
       <c r="E3214"/>
     </row>
@@ -47809,7 +47809,7 @@
         <v>2003</v>
       </c>
       <c r="D3215" t="n">
-        <v>62.4566666666667</v>
+        <v>62.4566666667</v>
       </c>
       <c r="E3215"/>
     </row>
@@ -47824,7 +47824,7 @@
         <v>2004</v>
       </c>
       <c r="D3216" t="n">
-        <v>61.8988888888889</v>
+        <v>61.8988888889</v>
       </c>
       <c r="E3216"/>
     </row>
@@ -47839,7 +47839,7 @@
         <v>2005</v>
       </c>
       <c r="D3217" t="n">
-        <v>61.3411111111111</v>
+        <v>61.3411111111</v>
       </c>
       <c r="E3217"/>
     </row>
@@ -47854,7 +47854,7 @@
         <v>2006</v>
       </c>
       <c r="D3218" t="n">
-        <v>60.7833333333333</v>
+        <v>60.7833333333</v>
       </c>
       <c r="E3218"/>
     </row>
@@ -47869,7 +47869,7 @@
         <v>2007</v>
       </c>
       <c r="D3219" t="n">
-        <v>60.2255555555556</v>
+        <v>60.2255555556</v>
       </c>
       <c r="E3219"/>
     </row>
@@ -47884,7 +47884,7 @@
         <v>2008</v>
       </c>
       <c r="D3220" t="n">
-        <v>59.6677777777778</v>
+        <v>59.6677777778</v>
       </c>
       <c r="E3220"/>
     </row>
@@ -48523,7 +48523,7 @@
         <v>2005</v>
       </c>
       <c r="D3267" t="n">
-        <v>45.6833333333333</v>
+        <v>45.6833333333</v>
       </c>
       <c r="E3267"/>
     </row>
@@ -48538,7 +48538,7 @@
         <v>2006</v>
       </c>
       <c r="D3268" t="n">
-        <v>41.2966666666667</v>
+        <v>41.2966666667</v>
       </c>
       <c r="E3268"/>
     </row>
@@ -48832,7 +48832,7 @@
         <v>2001</v>
       </c>
       <c r="D3288" t="n">
-        <v>94.0928571428571</v>
+        <v>94.0928571429</v>
       </c>
       <c r="E3288"/>
     </row>
@@ -48847,7 +48847,7 @@
         <v>2002</v>
       </c>
       <c r="D3289" t="n">
-        <v>93.0557142857143</v>
+        <v>93.0557142857</v>
       </c>
       <c r="E3289"/>
     </row>
@@ -48862,7 +48862,7 @@
         <v>2003</v>
       </c>
       <c r="D3290" t="n">
-        <v>92.0185714285714</v>
+        <v>92.0185714286</v>
       </c>
       <c r="E3290"/>
     </row>
@@ -48877,7 +48877,7 @@
         <v>2004</v>
       </c>
       <c r="D3291" t="n">
-        <v>90.9814285714286</v>
+        <v>90.9814285714</v>
       </c>
       <c r="E3291"/>
     </row>
@@ -48892,7 +48892,7 @@
         <v>2005</v>
       </c>
       <c r="D3292" t="n">
-        <v>89.9442857142857</v>
+        <v>89.9442857143</v>
       </c>
       <c r="E3292"/>
     </row>
@@ -48907,7 +48907,7 @@
         <v>2006</v>
       </c>
       <c r="D3293" t="n">
-        <v>88.9071428571429</v>
+        <v>88.9071428571</v>
       </c>
       <c r="E3293"/>
     </row>
@@ -52286,7 +52286,7 @@
         <v>1997</v>
       </c>
       <c r="D3534" t="n">
-        <v>84.1633333333333</v>
+        <v>84.1633333333</v>
       </c>
       <c r="E3534"/>
     </row>
@@ -52301,7 +52301,7 @@
         <v>1998</v>
       </c>
       <c r="D3535" t="n">
-        <v>83.0866666666667</v>
+        <v>83.0866666667</v>
       </c>
       <c r="E3535"/>
     </row>
@@ -52333,7 +52333,7 @@
         <v>2000</v>
       </c>
       <c r="D3537" t="n">
-        <v>81.1166666666667</v>
+        <v>81.1166666667</v>
       </c>
       <c r="E3537"/>
     </row>
@@ -52348,7 +52348,7 @@
         <v>2001</v>
       </c>
       <c r="D3538" t="n">
-        <v>80.2233333333333</v>
+        <v>80.2233333333</v>
       </c>
       <c r="E3538"/>
     </row>
@@ -52380,7 +52380,7 @@
         <v>2003</v>
       </c>
       <c r="D3540" t="n">
-        <v>78.1333333333333</v>
+        <v>78.1333333333</v>
       </c>
       <c r="E3540"/>
     </row>
@@ -52395,7 +52395,7 @@
         <v>2004</v>
       </c>
       <c r="D3541" t="n">
-        <v>76.9366666666667</v>
+        <v>76.9366666667</v>
       </c>
       <c r="E3541"/>
     </row>
@@ -52605,7 +52605,7 @@
         <v>1993</v>
       </c>
       <c r="D3555" t="n">
-        <v>2.65333333333333</v>
+        <v>2.6533333333</v>
       </c>
       <c r="E3555"/>
     </row>
@@ -52620,7 +52620,7 @@
         <v>1994</v>
       </c>
       <c r="D3556" t="n">
-        <v>5.30666666666667</v>
+        <v>5.3066666667</v>
       </c>
       <c r="E3556"/>
     </row>
@@ -52669,7 +52669,7 @@
         <v>1997</v>
       </c>
       <c r="D3559" t="n">
-        <v>10.0966666666667</v>
+        <v>10.0966666667</v>
       </c>
       <c r="E3559"/>
     </row>
@@ -52684,7 +52684,7 @@
         <v>1998</v>
       </c>
       <c r="D3560" t="n">
-        <v>11.7833333333333</v>
+        <v>11.7833333333</v>
       </c>
       <c r="E3560"/>
     </row>
@@ -52716,7 +52716,7 @@
         <v>2000</v>
       </c>
       <c r="D3562" t="n">
-        <v>10.0266666666667</v>
+        <v>10.0266666667</v>
       </c>
       <c r="E3562"/>
     </row>
@@ -52731,7 +52731,7 @@
         <v>2001</v>
       </c>
       <c r="D3563" t="n">
-        <v>6.58333333333333</v>
+        <v>6.5833333333</v>
       </c>
       <c r="E3563"/>
     </row>
@@ -54094,7 +54094,7 @@
         <v>1996</v>
       </c>
       <c r="D3658" t="n">
-        <v>20.5366666666667</v>
+        <v>20.5366666667</v>
       </c>
       <c r="E3658"/>
     </row>
@@ -54109,7 +54109,7 @@
         <v>1997</v>
       </c>
       <c r="D3659" t="n">
-        <v>20.4433333333333</v>
+        <v>20.4433333333</v>
       </c>
       <c r="E3659"/>
     </row>
@@ -55167,7 +55167,7 @@
         <v>1994</v>
       </c>
       <c r="D3731" t="n">
-        <v>80.8166666666667</v>
+        <v>80.8166666667</v>
       </c>
       <c r="E3731"/>
     </row>
@@ -55182,7 +55182,7 @@
         <v>1995</v>
       </c>
       <c r="D3732" t="n">
-        <v>80.8033333333333</v>
+        <v>80.8033333333</v>
       </c>
       <c r="E3732"/>
     </row>
@@ -55947,19 +55947,19 @@
         <v>6.5</v>
       </c>
       <c r="J3" t="n">
-        <v>6.52166666666667</v>
+        <v>6.5216666667</v>
       </c>
       <c r="K3" t="n">
-        <v>6.54333333333333</v>
+        <v>6.5433333333</v>
       </c>
       <c r="L3" t="n">
         <v>6.565</v>
       </c>
       <c r="M3" t="n">
-        <v>6.58666666666667</v>
+        <v>6.5866666667</v>
       </c>
       <c r="N3" t="n">
-        <v>6.60833333333333</v>
+        <v>6.6083333333</v>
       </c>
       <c r="O3" t="n">
         <v>6.63</v>
@@ -55974,10 +55974,10 @@
         <v>5</v>
       </c>
       <c r="S3" t="n">
-        <v>3.83333333333333</v>
+        <v>3.8333333333</v>
       </c>
       <c r="T3" t="n">
-        <v>2.66666666666667</v>
+        <v>2.6666666667</v>
       </c>
       <c r="U3" t="n">
         <v>1.5</v>
@@ -56304,10 +56304,10 @@
         <v>0.11</v>
       </c>
       <c r="S9" t="n">
-        <v>0.866666666666667</v>
+        <v>0.8666666667</v>
       </c>
       <c r="T9" t="n">
-        <v>1.62333333333333</v>
+        <v>1.6233333333</v>
       </c>
       <c r="U9" t="n">
         <v>2.38</v>
@@ -56412,10 +56412,10 @@
         <v>0.84</v>
       </c>
       <c r="I11" t="n">
-        <v>1.44333333333333</v>
+        <v>1.4433333333</v>
       </c>
       <c r="J11" t="n">
-        <v>2.04666666666667</v>
+        <v>2.0466666667</v>
       </c>
       <c r="K11" t="n">
         <v>2.65</v>
@@ -56625,10 +56625,10 @@
         <v>19.21</v>
       </c>
       <c r="D15" t="n">
-        <v>19.8966666666667</v>
+        <v>19.8966666667</v>
       </c>
       <c r="E15" t="n">
-        <v>20.5833333333333</v>
+        <v>20.5833333333</v>
       </c>
       <c r="F15" t="n">
         <v>21.27</v>
@@ -56715,10 +56715,10 @@
         <v>0.63</v>
       </c>
       <c r="O16" t="n">
-        <v>0.533333333333333</v>
+        <v>0.5333333333</v>
       </c>
       <c r="P16" t="n">
-        <v>0.436666666666667</v>
+        <v>0.4366666667</v>
       </c>
       <c r="Q16" t="n">
         <v>0.34</v>
@@ -56755,46 +56755,46 @@
         <v>49.4</v>
       </c>
       <c r="H17" t="n">
-        <v>48.5277777777778</v>
+        <v>48.5277777778</v>
       </c>
       <c r="I17" t="n">
-        <v>47.6555555555556</v>
+        <v>47.6555555556</v>
       </c>
       <c r="J17" t="n">
-        <v>46.7833333333333</v>
+        <v>46.7833333333</v>
       </c>
       <c r="K17" t="n">
-        <v>45.9111111111111</v>
+        <v>45.9111111111</v>
       </c>
       <c r="L17" t="n">
-        <v>45.0388888888889</v>
+        <v>45.0388888889</v>
       </c>
       <c r="M17" t="n">
-        <v>44.1666666666667</v>
+        <v>44.1666666667</v>
       </c>
       <c r="N17" t="n">
-        <v>43.2944444444444</v>
+        <v>43.2944444444</v>
       </c>
       <c r="O17" t="n">
-        <v>42.4222222222222</v>
+        <v>42.4222222222</v>
       </c>
       <c r="P17" t="n">
         <v>41.55</v>
       </c>
       <c r="Q17" t="n">
-        <v>39.2633333333333</v>
+        <v>39.2633333333</v>
       </c>
       <c r="R17" t="n">
-        <v>36.9766666666667</v>
+        <v>36.9766666667</v>
       </c>
       <c r="S17" t="n">
         <v>34.69</v>
       </c>
       <c r="T17" t="n">
-        <v>32.4033333333333</v>
+        <v>32.4033333333</v>
       </c>
       <c r="U17" t="n">
-        <v>30.1166666666667</v>
+        <v>30.1166666667</v>
       </c>
       <c r="V17" t="n">
         <v>27.83</v>
@@ -57035,19 +57035,19 @@
         <v>95.18</v>
       </c>
       <c r="F21" t="n">
-        <v>95.2183333333333</v>
+        <v>95.2183333333</v>
       </c>
       <c r="G21" t="n">
-        <v>95.2566666666667</v>
+        <v>95.2566666667</v>
       </c>
       <c r="H21" t="n">
         <v>95.295</v>
       </c>
       <c r="I21" t="n">
-        <v>95.3333333333333</v>
+        <v>95.3333333333</v>
       </c>
       <c r="J21" t="n">
-        <v>95.3716666666667</v>
+        <v>95.3716666667</v>
       </c>
       <c r="K21" t="n">
         <v>95.41</v>
@@ -57269,34 +57269,34 @@
         <v>90.97</v>
       </c>
       <c r="F25" t="n">
-        <v>90.1454545454545</v>
+        <v>90.1454545455</v>
       </c>
       <c r="G25" t="n">
-        <v>89.3209090909091</v>
+        <v>89.3209090909</v>
       </c>
       <c r="H25" t="n">
-        <v>88.4963636363636</v>
+        <v>88.4963636364</v>
       </c>
       <c r="I25" t="n">
-        <v>87.6718181818182</v>
+        <v>87.6718181818</v>
       </c>
       <c r="J25" t="n">
-        <v>86.8472727272727</v>
+        <v>86.8472727273</v>
       </c>
       <c r="K25" t="n">
-        <v>86.0227272727273</v>
+        <v>86.0227272727</v>
       </c>
       <c r="L25" t="n">
-        <v>85.1981818181818</v>
+        <v>85.1981818182</v>
       </c>
       <c r="M25" t="n">
-        <v>84.3736363636364</v>
+        <v>84.3736363636</v>
       </c>
       <c r="N25" t="n">
-        <v>83.5490909090909</v>
+        <v>83.5490909091</v>
       </c>
       <c r="O25" t="n">
-        <v>82.7245454545455</v>
+        <v>82.7245454545</v>
       </c>
       <c r="P25" t="n">
         <v>81.9</v>
@@ -57346,28 +57346,28 @@
         <v>83.28</v>
       </c>
       <c r="P26" t="n">
-        <v>80.7533333333333</v>
+        <v>80.7533333333</v>
       </c>
       <c r="Q26" t="n">
-        <v>78.2266666666667</v>
+        <v>78.2266666667</v>
       </c>
       <c r="R26" t="n">
         <v>75.7</v>
       </c>
       <c r="S26" t="n">
-        <v>73.1733333333333</v>
+        <v>73.1733333333</v>
       </c>
       <c r="T26" t="n">
-        <v>70.6466666666667</v>
+        <v>70.6466666667</v>
       </c>
       <c r="U26" t="n">
         <v>68.12</v>
       </c>
       <c r="V26" t="n">
-        <v>65.5933333333333</v>
+        <v>65.5933333333</v>
       </c>
       <c r="W26" t="n">
-        <v>63.0666666666667</v>
+        <v>63.0666666667</v>
       </c>
       <c r="X26" t="n">
         <v>60.54</v>
@@ -57417,28 +57417,28 @@
         <v>5.46</v>
       </c>
       <c r="N27" t="n">
-        <v>5.15666666666667</v>
+        <v>5.1566666667</v>
       </c>
       <c r="O27" t="n">
-        <v>4.85333333333333</v>
+        <v>4.8533333333</v>
       </c>
       <c r="P27" t="n">
         <v>4.55</v>
       </c>
       <c r="Q27" t="n">
-        <v>4.07333333333333</v>
+        <v>4.0733333333</v>
       </c>
       <c r="R27" t="n">
-        <v>3.59666666666667</v>
+        <v>3.5966666667</v>
       </c>
       <c r="S27" t="n">
         <v>3.12</v>
       </c>
       <c r="T27" t="n">
-        <v>2.94666666666667</v>
+        <v>2.9466666667</v>
       </c>
       <c r="U27" t="n">
-        <v>2.77333333333333</v>
+        <v>2.7733333333</v>
       </c>
       <c r="V27" t="n">
         <v>2.6</v>
@@ -57464,19 +57464,19 @@
         <v>84.97</v>
       </c>
       <c r="D28" t="n">
-        <v>83.1666666666667</v>
+        <v>83.1666666667</v>
       </c>
       <c r="E28" t="n">
-        <v>81.3633333333333</v>
+        <v>81.3633333333</v>
       </c>
       <c r="F28" t="n">
         <v>79.56</v>
       </c>
       <c r="G28" t="n">
-        <v>75.1066666666667</v>
+        <v>75.1066666667</v>
       </c>
       <c r="H28" t="n">
-        <v>70.6533333333333</v>
+        <v>70.6533333333</v>
       </c>
       <c r="I28" t="n">
         <v>66.2</v>
@@ -57491,10 +57491,10 @@
         <v>61.88</v>
       </c>
       <c r="M28" t="n">
-        <v>58.1633333333333</v>
+        <v>58.1633333333</v>
       </c>
       <c r="N28" t="n">
-        <v>54.4466666666667</v>
+        <v>54.4466666667</v>
       </c>
       <c r="O28" t="n">
         <v>50.73</v>
@@ -57509,10 +57509,10 @@
         <v>36.03</v>
       </c>
       <c r="S28" t="n">
-        <v>33.4633333333333</v>
+        <v>33.4633333333</v>
       </c>
       <c r="T28" t="n">
-        <v>30.8966666666667</v>
+        <v>30.8966666667</v>
       </c>
       <c r="U28" t="n">
         <v>28.33</v>
@@ -57668,19 +57668,19 @@
         <v>74.4</v>
       </c>
       <c r="S31" t="n">
-        <v>71.5416666666667</v>
+        <v>71.5416666667</v>
       </c>
       <c r="T31" t="n">
-        <v>68.6833333333333</v>
+        <v>68.6833333333</v>
       </c>
       <c r="U31" t="n">
         <v>65.825</v>
       </c>
       <c r="V31" t="n">
-        <v>62.9666666666667</v>
+        <v>62.9666666667</v>
       </c>
       <c r="W31" t="n">
-        <v>60.1083333333333</v>
+        <v>60.1083333333</v>
       </c>
       <c r="X31" t="n">
         <v>57.25</v>
@@ -57788,10 +57788,10 @@
         <v>47.95</v>
       </c>
       <c r="I33" t="n">
-        <v>50.9933333333333</v>
+        <v>50.9933333333</v>
       </c>
       <c r="J33" t="n">
-        <v>54.0366666666667</v>
+        <v>54.0366666667</v>
       </c>
       <c r="K33" t="n">
         <v>57.08</v>
@@ -57935,37 +57935,37 @@
         <v>0.02</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0766666666666667</v>
+        <v>0.0766666667</v>
       </c>
       <c r="H36" t="n">
-        <v>0.133333333333333</v>
+        <v>0.1333333333</v>
       </c>
       <c r="I36" t="n">
         <v>0.19</v>
       </c>
       <c r="J36" t="n">
-        <v>0.172222222222222</v>
+        <v>0.1722222222</v>
       </c>
       <c r="K36" t="n">
-        <v>0.154444444444444</v>
+        <v>0.1544444444</v>
       </c>
       <c r="L36" t="n">
-        <v>0.136666666666667</v>
+        <v>0.1366666667</v>
       </c>
       <c r="M36" t="n">
-        <v>0.118888888888889</v>
+        <v>0.1188888889</v>
       </c>
       <c r="N36" t="n">
-        <v>0.101111111111111</v>
+        <v>0.1011111111</v>
       </c>
       <c r="O36" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0833333333</v>
       </c>
       <c r="P36" t="n">
-        <v>0.0655555555555555</v>
+        <v>0.0655555556</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.0477777777777778</v>
+        <v>0.0477777778</v>
       </c>
       <c r="R36" t="n">
         <v>0.03</v>
@@ -58088,10 +58088,10 @@
         <v>10.92</v>
       </c>
       <c r="K39" t="n">
-        <v>10.9333333333333</v>
+        <v>10.9333333333</v>
       </c>
       <c r="L39" t="n">
-        <v>10.9466666666667</v>
+        <v>10.9466666667</v>
       </c>
       <c r="M39" t="n">
         <v>10.96</v>
@@ -58181,19 +58181,19 @@
         <v>27.64</v>
       </c>
       <c r="D41" t="n">
-        <v>27.4183333333333</v>
+        <v>27.4183333333</v>
       </c>
       <c r="E41" t="n">
-        <v>27.1966666666667</v>
+        <v>27.1966666667</v>
       </c>
       <c r="F41" t="n">
         <v>26.975</v>
       </c>
       <c r="G41" t="n">
-        <v>26.7533333333333</v>
+        <v>26.7533333333</v>
       </c>
       <c r="H41" t="n">
-        <v>26.5316666666667</v>
+        <v>26.5316666667</v>
       </c>
       <c r="I41" t="n">
         <v>26.31</v>
@@ -58404,10 +58404,10 @@
         <v>1.82</v>
       </c>
       <c r="I45" t="n">
-        <v>1.46333333333333</v>
+        <v>1.4633333333</v>
       </c>
       <c r="J45" t="n">
-        <v>1.10666666666667</v>
+        <v>1.1066666667</v>
       </c>
       <c r="K45" t="n">
         <v>0.75</v>
@@ -58483,19 +58483,19 @@
         <v>85.95</v>
       </c>
       <c r="M46" t="n">
-        <v>84.5633333333333</v>
+        <v>84.5633333333</v>
       </c>
       <c r="N46" t="n">
-        <v>83.1766666666667</v>
+        <v>83.1766666667</v>
       </c>
       <c r="O46" t="n">
         <v>81.79</v>
       </c>
       <c r="P46" t="n">
-        <v>80.4033333333333</v>
+        <v>80.4033333333</v>
       </c>
       <c r="Q46" t="n">
-        <v>79.0166666666667</v>
+        <v>79.0166666667</v>
       </c>
       <c r="R46" t="n">
         <v>77.63</v>
@@ -58543,19 +58543,19 @@
         <v>48.66</v>
       </c>
       <c r="P47" t="n">
-        <v>44.3666666666667</v>
+        <v>44.3666666667</v>
       </c>
       <c r="Q47" t="n">
-        <v>40.0733333333333</v>
+        <v>40.0733333333</v>
       </c>
       <c r="R47" t="n">
         <v>35.78</v>
       </c>
       <c r="S47" t="n">
-        <v>31.4866666666667</v>
+        <v>31.4866666667</v>
       </c>
       <c r="T47" t="n">
-        <v>27.1933333333333</v>
+        <v>27.1933333333</v>
       </c>
       <c r="U47" t="n">
         <v>22.9</v>
@@ -58726,43 +58726,43 @@
         <v>77.65</v>
       </c>
       <c r="E51" t="n">
-        <v>75.6057142857143</v>
+        <v>75.6057142857</v>
       </c>
       <c r="F51" t="n">
-        <v>73.5614285714286</v>
+        <v>73.5614285714</v>
       </c>
       <c r="G51" t="n">
-        <v>71.5171428571429</v>
+        <v>71.5171428571</v>
       </c>
       <c r="H51" t="n">
-        <v>69.4728571428572</v>
+        <v>69.4728571429</v>
       </c>
       <c r="I51" t="n">
-        <v>67.4285714285714</v>
+        <v>67.4285714286</v>
       </c>
       <c r="J51" t="n">
-        <v>65.3842857142857</v>
+        <v>65.3842857143</v>
       </c>
       <c r="K51" t="n">
         <v>63.34</v>
       </c>
       <c r="L51" t="n">
-        <v>61.6971428571429</v>
+        <v>61.6971428571</v>
       </c>
       <c r="M51" t="n">
-        <v>60.0542857142857</v>
+        <v>60.0542857143</v>
       </c>
       <c r="N51" t="n">
-        <v>58.4114285714286</v>
+        <v>58.4114285714</v>
       </c>
       <c r="O51" t="n">
-        <v>56.7685714285714</v>
+        <v>56.7685714286</v>
       </c>
       <c r="P51" t="n">
-        <v>55.1257142857143</v>
+        <v>55.1257142857</v>
       </c>
       <c r="Q51" t="n">
-        <v>53.4828571428571</v>
+        <v>53.4828571429</v>
       </c>
       <c r="R51" t="n">
         <v>51.84</v>
@@ -58883,37 +58883,37 @@
         <v>98.98</v>
       </c>
       <c r="E54" t="n">
-        <v>93.2033333333333</v>
+        <v>93.2033333333</v>
       </c>
       <c r="F54" t="n">
-        <v>87.4266666666667</v>
+        <v>87.4266666667</v>
       </c>
       <c r="G54" t="n">
         <v>81.65</v>
       </c>
       <c r="H54" t="n">
-        <v>81.5544444444445</v>
+        <v>81.5544444444</v>
       </c>
       <c r="I54" t="n">
-        <v>81.4588888888889</v>
+        <v>81.4588888889</v>
       </c>
       <c r="J54" t="n">
-        <v>81.3633333333333</v>
+        <v>81.3633333333</v>
       </c>
       <c r="K54" t="n">
-        <v>81.2677777777778</v>
+        <v>81.2677777778</v>
       </c>
       <c r="L54" t="n">
-        <v>81.1722222222222</v>
+        <v>81.1722222222</v>
       </c>
       <c r="M54" t="n">
-        <v>81.0766666666667</v>
+        <v>81.0766666667</v>
       </c>
       <c r="N54" t="n">
-        <v>80.9811111111111</v>
+        <v>80.9811111111</v>
       </c>
       <c r="O54" t="n">
-        <v>80.8855555555556</v>
+        <v>80.8855555556</v>
       </c>
       <c r="P54" t="n">
         <v>80.79</v>
@@ -58966,28 +58966,28 @@
         <v>84.61</v>
       </c>
       <c r="G55" t="n">
-        <v>83.8711111111111</v>
+        <v>83.8711111111</v>
       </c>
       <c r="H55" t="n">
-        <v>83.1322222222222</v>
+        <v>83.1322222222</v>
       </c>
       <c r="I55" t="n">
-        <v>82.3933333333333</v>
+        <v>82.3933333333</v>
       </c>
       <c r="J55" t="n">
-        <v>81.6544444444444</v>
+        <v>81.6544444444</v>
       </c>
       <c r="K55" t="n">
-        <v>80.9155555555556</v>
+        <v>80.9155555556</v>
       </c>
       <c r="L55" t="n">
-        <v>80.1766666666667</v>
+        <v>80.1766666667</v>
       </c>
       <c r="M55" t="n">
-        <v>79.4377777777778</v>
+        <v>79.4377777778</v>
       </c>
       <c r="N55" t="n">
-        <v>78.6988888888889</v>
+        <v>78.6988888889</v>
       </c>
       <c r="O55" t="n">
         <v>77.96</v>
@@ -59018,19 +59018,19 @@
         <v>17.08</v>
       </c>
       <c r="F56" t="n">
-        <v>17.2366666666667</v>
+        <v>17.2366666667</v>
       </c>
       <c r="G56" t="n">
-        <v>17.3933333333333</v>
+        <v>17.3933333333</v>
       </c>
       <c r="H56" t="n">
         <v>17.55</v>
       </c>
       <c r="I56" t="n">
-        <v>17.7066666666667</v>
+        <v>17.7066666667</v>
       </c>
       <c r="J56" t="n">
-        <v>17.8633333333333</v>
+        <v>17.8633333333</v>
       </c>
       <c r="K56" t="n">
         <v>18.02</v>
@@ -59249,34 +59249,34 @@
         <v>81.73</v>
       </c>
       <c r="G60" t="n">
-        <v>81.1745454545455</v>
+        <v>81.1745454545</v>
       </c>
       <c r="H60" t="n">
-        <v>80.6190909090909</v>
+        <v>80.6190909091</v>
       </c>
       <c r="I60" t="n">
-        <v>80.0636363636364</v>
+        <v>80.0636363636</v>
       </c>
       <c r="J60" t="n">
-        <v>79.5081818181818</v>
+        <v>79.5081818182</v>
       </c>
       <c r="K60" t="n">
-        <v>78.9527272727273</v>
+        <v>78.9527272727</v>
       </c>
       <c r="L60" t="n">
-        <v>78.3972727272727</v>
+        <v>78.3972727273</v>
       </c>
       <c r="M60" t="n">
-        <v>77.8418181818182</v>
+        <v>77.8418181818</v>
       </c>
       <c r="N60" t="n">
-        <v>77.2863636363636</v>
+        <v>77.2863636364</v>
       </c>
       <c r="O60" t="n">
-        <v>76.7309090909091</v>
+        <v>76.7309090909</v>
       </c>
       <c r="P60" t="n">
-        <v>76.1754545454546</v>
+        <v>76.1754545455</v>
       </c>
       <c r="Q60" t="n">
         <v>75.62</v>
@@ -59297,10 +59297,10 @@
         <v>68.76</v>
       </c>
       <c r="W60" t="n">
-        <v>63.9995767958334</v>
+        <v>63.9995767958</v>
       </c>
       <c r="X60" t="n">
-        <v>59.2391535916669</v>
+        <v>59.2391535917</v>
       </c>
       <c r="Y60"/>
       <c r="Z60"/>
@@ -59317,10 +59317,10 @@
         <v>84.59</v>
       </c>
       <c r="D61" t="n">
-        <v>84.5866666666667</v>
+        <v>84.5866666667</v>
       </c>
       <c r="E61" t="n">
-        <v>84.5833333333333</v>
+        <v>84.5833333333</v>
       </c>
       <c r="F61" t="n">
         <v>84.58</v>
@@ -59344,28 +59344,28 @@
         <v>81.55</v>
       </c>
       <c r="M61" t="n">
-        <v>76.7433333333333</v>
+        <v>76.7433333333</v>
       </c>
       <c r="N61" t="n">
-        <v>71.9366666666667</v>
+        <v>71.9366666667</v>
       </c>
       <c r="O61" t="n">
         <v>67.13</v>
       </c>
       <c r="P61" t="n">
-        <v>62.7966666666667</v>
+        <v>62.7966666667</v>
       </c>
       <c r="Q61" t="n">
-        <v>58.4633333333333</v>
+        <v>58.4633333333</v>
       </c>
       <c r="R61" t="n">
         <v>54.13</v>
       </c>
       <c r="S61" t="n">
-        <v>54.3233333333333</v>
+        <v>54.3233333333</v>
       </c>
       <c r="T61" t="n">
-        <v>54.5166666666667</v>
+        <v>54.5166666667</v>
       </c>
       <c r="U61" t="n">
         <v>54.71</v>
@@ -59418,22 +59418,22 @@
         <v>8.3</v>
       </c>
       <c r="L62" t="n">
-        <v>8.26142857142857</v>
+        <v>8.2614285714</v>
       </c>
       <c r="M62" t="n">
-        <v>8.22285714285714</v>
+        <v>8.2228571429</v>
       </c>
       <c r="N62" t="n">
-        <v>8.18428571428571</v>
+        <v>8.1842857143</v>
       </c>
       <c r="O62" t="n">
-        <v>8.14571428571429</v>
+        <v>8.1457142857</v>
       </c>
       <c r="P62" t="n">
-        <v>8.10714285714286</v>
+        <v>8.1071428571</v>
       </c>
       <c r="Q62" t="n">
-        <v>8.06857142857143</v>
+        <v>8.0685714286</v>
       </c>
       <c r="R62" t="n">
         <v>8.03</v>
@@ -59504,28 +59504,28 @@
         <v>13.07</v>
       </c>
       <c r="D64" t="n">
-        <v>13.5033333333333</v>
+        <v>13.5033333333</v>
       </c>
       <c r="E64" t="n">
-        <v>13.9366666666667</v>
+        <v>13.9366666667</v>
       </c>
       <c r="F64" t="n">
         <v>14.37</v>
       </c>
       <c r="G64" t="n">
-        <v>12.4966666666667</v>
+        <v>12.4966666667</v>
       </c>
       <c r="H64" t="n">
-        <v>10.6233333333333</v>
+        <v>10.6233333333</v>
       </c>
       <c r="I64" t="n">
         <v>8.75</v>
       </c>
       <c r="J64" t="n">
-        <v>7.99333333333333</v>
+        <v>7.9933333333</v>
       </c>
       <c r="K64" t="n">
-        <v>7.23666666666667</v>
+        <v>7.2366666667</v>
       </c>
       <c r="L64" t="n">
         <v>6.48</v>
@@ -59641,10 +59641,10 @@
         <v>17.57</v>
       </c>
       <c r="G66" t="n">
-        <v>17.9666666666667</v>
+        <v>17.9666666667</v>
       </c>
       <c r="H66" t="n">
-        <v>18.3633333333333</v>
+        <v>18.3633333333</v>
       </c>
       <c r="I66" t="n">
         <v>18.76</v>
@@ -59715,10 +59715,10 @@
         <v>53.65</v>
       </c>
       <c r="H67" t="n">
-        <v>54.5033333333333</v>
+        <v>54.5033333333</v>
       </c>
       <c r="I67" t="n">
-        <v>55.3566666666667</v>
+        <v>55.3566666667</v>
       </c>
       <c r="J67" t="n">
         <v>56.21</v>
@@ -60224,10 +60224,10 @@
         <v>16.87</v>
       </c>
       <c r="G77" t="n">
-        <v>11.5733333333333</v>
+        <v>11.5733333333</v>
       </c>
       <c r="H77" t="n">
-        <v>6.27666666666667</v>
+        <v>6.2766666667</v>
       </c>
       <c r="I77" t="n">
         <v>0.98</v>
@@ -60423,40 +60423,40 @@
         <v>93.57</v>
       </c>
       <c r="K80" t="n">
-        <v>93.1785714285714</v>
+        <v>93.1785714286</v>
       </c>
       <c r="L80" t="n">
-        <v>92.7871428571429</v>
+        <v>92.7871428571</v>
       </c>
       <c r="M80" t="n">
-        <v>92.3957142857143</v>
+        <v>92.3957142857</v>
       </c>
       <c r="N80" t="n">
-        <v>92.0042857142857</v>
+        <v>92.0042857143</v>
       </c>
       <c r="O80" t="n">
-        <v>91.6128571428571</v>
+        <v>91.6128571429</v>
       </c>
       <c r="P80" t="n">
-        <v>91.2214285714286</v>
+        <v>91.2214285714</v>
       </c>
       <c r="Q80" t="n">
         <v>90.83</v>
       </c>
       <c r="R80" t="n">
-        <v>90.3816666666667</v>
+        <v>90.3816666667</v>
       </c>
       <c r="S80" t="n">
-        <v>89.9333333333333</v>
+        <v>89.9333333333</v>
       </c>
       <c r="T80" t="n">
         <v>89.485</v>
       </c>
       <c r="U80" t="n">
-        <v>89.0366666666667</v>
+        <v>89.0366666667</v>
       </c>
       <c r="V80" t="n">
-        <v>88.5883333333333</v>
+        <v>88.5883333333</v>
       </c>
       <c r="W80" t="n">
         <v>88.14</v>
@@ -60494,31 +60494,31 @@
         <v>6.86</v>
       </c>
       <c r="K81" t="n">
-        <v>6.99571428571429</v>
+        <v>6.9957142857</v>
       </c>
       <c r="L81" t="n">
-        <v>7.13142857142857</v>
+        <v>7.1314285714</v>
       </c>
       <c r="M81" t="n">
-        <v>7.26714285714286</v>
+        <v>7.2671428571</v>
       </c>
       <c r="N81" t="n">
-        <v>7.40285714285714</v>
+        <v>7.4028571429</v>
       </c>
       <c r="O81" t="n">
-        <v>7.53857142857143</v>
+        <v>7.5385714286</v>
       </c>
       <c r="P81" t="n">
-        <v>7.67428571428571</v>
+        <v>7.6742857143</v>
       </c>
       <c r="Q81" t="n">
         <v>7.81</v>
       </c>
       <c r="R81" t="n">
-        <v>6.18333333333333</v>
+        <v>6.1833333333</v>
       </c>
       <c r="S81" t="n">
-        <v>4.55666666666667</v>
+        <v>4.5566666667</v>
       </c>
       <c r="T81" t="n">
         <v>2.93</v>
@@ -60554,19 +60554,19 @@
         <v>37.04</v>
       </c>
       <c r="L82" t="n">
-        <v>32.9033333333333</v>
+        <v>32.9033333333</v>
       </c>
       <c r="M82" t="n">
-        <v>28.7666666666667</v>
+        <v>28.7666666667</v>
       </c>
       <c r="N82" t="n">
         <v>24.63</v>
       </c>
       <c r="O82" t="n">
-        <v>20.4933333333333</v>
+        <v>20.4933333333</v>
       </c>
       <c r="P82" t="n">
-        <v>16.3566666666667</v>
+        <v>16.3566666667</v>
       </c>
       <c r="Q82" t="n">
         <v>12.22</v>
@@ -60597,22 +60597,22 @@
         <v>93.74</v>
       </c>
       <c r="H83" t="n">
-        <v>92.0685714285714</v>
+        <v>92.0685714286</v>
       </c>
       <c r="I83" t="n">
-        <v>90.3971428571429</v>
+        <v>90.3971428571</v>
       </c>
       <c r="J83" t="n">
-        <v>88.7257142857143</v>
+        <v>88.7257142857</v>
       </c>
       <c r="K83" t="n">
-        <v>87.0542857142857</v>
+        <v>87.0542857143</v>
       </c>
       <c r="L83" t="n">
-        <v>85.3828571428571</v>
+        <v>85.3828571429</v>
       </c>
       <c r="M83" t="n">
-        <v>83.7114285714286</v>
+        <v>83.7114285714</v>
       </c>
       <c r="N83" t="n">
         <v>82.04</v>
@@ -61092,10 +61092,10 @@
         <v>24.43</v>
       </c>
       <c r="L92" t="n">
-        <v>24.4066666666667</v>
+        <v>24.4066666667</v>
       </c>
       <c r="M92" t="n">
-        <v>24.3833333333333</v>
+        <v>24.3833333333</v>
       </c>
       <c r="N92" t="n">
         <v>24.36</v>
@@ -61143,40 +61143,40 @@
         <v>92.57</v>
       </c>
       <c r="J93" t="n">
-        <v>92.1466666666667</v>
+        <v>92.1466666667</v>
       </c>
       <c r="K93" t="n">
-        <v>91.7233333333333</v>
+        <v>91.7233333333</v>
       </c>
       <c r="L93" t="n">
         <v>91.3</v>
       </c>
       <c r="M93" t="n">
-        <v>90.8766666666667</v>
+        <v>90.8766666667</v>
       </c>
       <c r="N93" t="n">
-        <v>90.4533333333333</v>
+        <v>90.4533333333</v>
       </c>
       <c r="O93" t="n">
         <v>90.03</v>
       </c>
       <c r="P93" t="n">
-        <v>88.9528571428571</v>
+        <v>88.9528571429</v>
       </c>
       <c r="Q93" t="n">
-        <v>87.8757142857143</v>
+        <v>87.8757142857</v>
       </c>
       <c r="R93" t="n">
-        <v>86.7985714285714</v>
+        <v>86.7985714286</v>
       </c>
       <c r="S93" t="n">
-        <v>85.7214285714286</v>
+        <v>85.7214285714</v>
       </c>
       <c r="T93" t="n">
-        <v>84.6442857142857</v>
+        <v>84.6442857143</v>
       </c>
       <c r="U93" t="n">
-        <v>83.5671428571429</v>
+        <v>83.5671428571</v>
       </c>
       <c r="V93" t="n">
         <v>82.49</v>
@@ -61234,34 +61234,34 @@
         <v>62.23</v>
       </c>
       <c r="G95" t="n">
-        <v>61.2181818181818</v>
+        <v>61.2181818182</v>
       </c>
       <c r="H95" t="n">
-        <v>60.2063636363636</v>
+        <v>60.2063636364</v>
       </c>
       <c r="I95" t="n">
-        <v>59.1945454545455</v>
+        <v>59.1945454545</v>
       </c>
       <c r="J95" t="n">
-        <v>58.1827272727273</v>
+        <v>58.1827272727</v>
       </c>
       <c r="K95" t="n">
-        <v>57.1709090909091</v>
+        <v>57.1709090909</v>
       </c>
       <c r="L95" t="n">
-        <v>56.1590909090909</v>
+        <v>56.1590909091</v>
       </c>
       <c r="M95" t="n">
-        <v>55.1472727272727</v>
+        <v>55.1472727273</v>
       </c>
       <c r="N95" t="n">
-        <v>54.1354545454545</v>
+        <v>54.1354545455</v>
       </c>
       <c r="O95" t="n">
-        <v>53.1236363636364</v>
+        <v>53.1236363636</v>
       </c>
       <c r="P95" t="n">
-        <v>52.1118181818182</v>
+        <v>52.1118181818</v>
       </c>
       <c r="Q95" t="n">
         <v>51.1</v>
@@ -61381,10 +61381,10 @@
         <v>31.4</v>
       </c>
       <c r="L97" t="n">
-        <v>32.3933333333333</v>
+        <v>32.3933333333</v>
       </c>
       <c r="M97" t="n">
-        <v>33.3866666666667</v>
+        <v>33.3866666667</v>
       </c>
       <c r="N97" t="n">
         <v>34.38</v>
@@ -61438,34 +61438,34 @@
         <v>91.55</v>
       </c>
       <c r="H98" t="n">
-        <v>90.0636363636364</v>
+        <v>90.0636363636</v>
       </c>
       <c r="I98" t="n">
-        <v>88.5772727272727</v>
+        <v>88.5772727273</v>
       </c>
       <c r="J98" t="n">
-        <v>87.0909090909091</v>
+        <v>87.0909090909</v>
       </c>
       <c r="K98" t="n">
-        <v>85.6045454545455</v>
+        <v>85.6045454545</v>
       </c>
       <c r="L98" t="n">
-        <v>84.1181818181818</v>
+        <v>84.1181818182</v>
       </c>
       <c r="M98" t="n">
-        <v>82.6318181818182</v>
+        <v>82.6318181818</v>
       </c>
       <c r="N98" t="n">
-        <v>81.1454545454545</v>
+        <v>81.1454545455</v>
       </c>
       <c r="O98" t="n">
-        <v>79.6590909090909</v>
+        <v>79.6590909091</v>
       </c>
       <c r="P98" t="n">
-        <v>78.1727272727273</v>
+        <v>78.1727272727</v>
       </c>
       <c r="Q98" t="n">
-        <v>76.6863636363636</v>
+        <v>76.6863636364</v>
       </c>
       <c r="R98" t="n">
         <v>75.2</v>
@@ -61541,19 +61541,19 @@
         <v>83.33</v>
       </c>
       <c r="R99" t="n">
-        <v>83.1416666666667</v>
+        <v>83.1416666667</v>
       </c>
       <c r="S99" t="n">
-        <v>82.9533333333333</v>
+        <v>82.9533333333</v>
       </c>
       <c r="T99" t="n">
         <v>82.765</v>
       </c>
       <c r="U99" t="n">
-        <v>82.5766666666667</v>
+        <v>82.5766666667</v>
       </c>
       <c r="V99" t="n">
-        <v>82.3883333333333</v>
+        <v>82.3883333333</v>
       </c>
       <c r="W99" t="n">
         <v>82.2</v>
@@ -61598,19 +61598,19 @@
         <v>66.54</v>
       </c>
       <c r="L100" t="n">
-        <v>68.9966666666667</v>
+        <v>68.9966666667</v>
       </c>
       <c r="M100" t="n">
-        <v>71.4533333333333</v>
+        <v>71.4533333333</v>
       </c>
       <c r="N100" t="n">
         <v>73.91</v>
       </c>
       <c r="O100" t="n">
-        <v>69.3766666666667</v>
+        <v>69.3766666667</v>
       </c>
       <c r="P100" t="n">
-        <v>64.8433333333333</v>
+        <v>64.8433333333</v>
       </c>
       <c r="Q100" t="n">
         <v>60.31</v>
@@ -61696,10 +61696,10 @@
         <v>1.75</v>
       </c>
       <c r="R102" t="n">
-        <v>2.31666666666667</v>
+        <v>2.3166666667</v>
       </c>
       <c r="S102" t="n">
-        <v>2.88333333333333</v>
+        <v>2.8833333333</v>
       </c>
       <c r="T102" t="n">
         <v>3.45</v>
@@ -61922,10 +61922,10 @@
         <v>23.53</v>
       </c>
       <c r="H106" t="n">
-        <v>19.1433333333333</v>
+        <v>19.1433333333</v>
       </c>
       <c r="I106" t="n">
-        <v>14.7566666666667</v>
+        <v>14.7566666667</v>
       </c>
       <c r="J106" t="n">
         <v>10.37</v>
@@ -61999,55 +61999,55 @@
         <v>55.21</v>
       </c>
       <c r="H107" t="n">
-        <v>52.2433333333333</v>
+        <v>52.2433333333</v>
       </c>
       <c r="I107" t="n">
-        <v>49.2766666666667</v>
+        <v>49.2766666667</v>
       </c>
       <c r="J107" t="n">
         <v>46.31</v>
       </c>
       <c r="K107" t="n">
-        <v>46.6366666666667</v>
+        <v>46.6366666667</v>
       </c>
       <c r="L107" t="n">
-        <v>46.9633333333333</v>
+        <v>46.9633333333</v>
       </c>
       <c r="M107" t="n">
         <v>47.29</v>
       </c>
       <c r="N107" t="n">
-        <v>46.4733333333333</v>
+        <v>46.4733333333</v>
       </c>
       <c r="O107" t="n">
-        <v>45.6566666666667</v>
+        <v>45.6566666667</v>
       </c>
       <c r="P107" t="n">
         <v>44.84</v>
       </c>
       <c r="Q107" t="n">
-        <v>44.8933333333333</v>
+        <v>44.8933333333</v>
       </c>
       <c r="R107" t="n">
-        <v>44.9466666666667</v>
+        <v>44.9466666667</v>
       </c>
       <c r="S107" t="n">
         <v>45</v>
       </c>
       <c r="T107" t="n">
-        <v>43.7133333333333</v>
+        <v>43.7133333333</v>
       </c>
       <c r="U107" t="n">
-        <v>42.4266666666667</v>
+        <v>42.4266666667</v>
       </c>
       <c r="V107" t="n">
         <v>41.14</v>
       </c>
       <c r="W107" t="n">
-        <v>41.3333333333333</v>
+        <v>41.3333333333</v>
       </c>
       <c r="X107" t="n">
-        <v>41.5266666666667</v>
+        <v>41.5266666667</v>
       </c>
       <c r="Y107" t="n">
         <v>41.72</v>
@@ -62291,19 +62291,19 @@
         <v>91.6</v>
       </c>
       <c r="N111" t="n">
-        <v>90.8933333333333</v>
+        <v>90.8933333333</v>
       </c>
       <c r="O111" t="n">
-        <v>90.1866666666667</v>
+        <v>90.1866666667</v>
       </c>
       <c r="P111" t="n">
         <v>89.48</v>
       </c>
       <c r="Q111" t="n">
-        <v>88.7733333333333</v>
+        <v>88.7733333333</v>
       </c>
       <c r="R111" t="n">
-        <v>88.0666666666667</v>
+        <v>88.0666666667</v>
       </c>
       <c r="S111" t="n">
         <v>87.36</v>
@@ -62537,22 +62537,22 @@
         <v>78.97</v>
       </c>
       <c r="H117" t="n">
-        <v>77.8657142857143</v>
+        <v>77.8657142857</v>
       </c>
       <c r="I117" t="n">
-        <v>76.7614285714286</v>
+        <v>76.7614285714</v>
       </c>
       <c r="J117" t="n">
-        <v>75.6571428571429</v>
+        <v>75.6571428571</v>
       </c>
       <c r="K117" t="n">
-        <v>74.5528571428571</v>
+        <v>74.5528571429</v>
       </c>
       <c r="L117" t="n">
-        <v>73.4485714285714</v>
+        <v>73.4485714286</v>
       </c>
       <c r="M117" t="n">
-        <v>72.3442857142857</v>
+        <v>72.3442857143</v>
       </c>
       <c r="N117" t="n">
         <v>71.24</v>
@@ -62570,19 +62570,19 @@
         <v>60.36</v>
       </c>
       <c r="S117" t="n">
-        <v>60.3516666666667</v>
+        <v>60.3516666667</v>
       </c>
       <c r="T117" t="n">
-        <v>60.3433333333333</v>
+        <v>60.3433333333</v>
       </c>
       <c r="U117" t="n">
         <v>60.335</v>
       </c>
       <c r="V117" t="n">
-        <v>60.3266666666667</v>
+        <v>60.3266666667</v>
       </c>
       <c r="W117" t="n">
-        <v>60.3183333333333</v>
+        <v>60.3183333333</v>
       </c>
       <c r="X117" t="n">
         <v>60.31</v>
@@ -62662,22 +62662,22 @@
         <v>0</v>
       </c>
       <c r="M119" t="n">
-        <v>0.262857142857143</v>
+        <v>0.2628571429</v>
       </c>
       <c r="N119" t="n">
-        <v>0.525714285714286</v>
+        <v>0.5257142857</v>
       </c>
       <c r="O119" t="n">
-        <v>0.788571428571429</v>
+        <v>0.7885714286</v>
       </c>
       <c r="P119" t="n">
-        <v>1.05142857142857</v>
+        <v>1.0514285714</v>
       </c>
       <c r="Q119" t="n">
-        <v>1.31428571428571</v>
+        <v>1.3142857143</v>
       </c>
       <c r="R119" t="n">
-        <v>1.57714285714286</v>
+        <v>1.5771428571</v>
       </c>
       <c r="S119" t="n">
         <v>1.84</v>
@@ -62949,28 +62949,28 @@
         <v>42.9</v>
       </c>
       <c r="N125" t="n">
-        <v>41.6083333333333</v>
+        <v>41.6083333333</v>
       </c>
       <c r="O125" t="n">
-        <v>40.3166666666667</v>
+        <v>40.3166666667</v>
       </c>
       <c r="P125" t="n">
         <v>39.025</v>
       </c>
       <c r="Q125" t="n">
-        <v>37.7333333333333</v>
+        <v>37.7333333333</v>
       </c>
       <c r="R125" t="n">
-        <v>36.4416666666667</v>
+        <v>36.4416666667</v>
       </c>
       <c r="S125" t="n">
         <v>35.15</v>
       </c>
       <c r="T125" t="n">
-        <v>33.8433333333333</v>
+        <v>33.8433333333</v>
       </c>
       <c r="U125" t="n">
-        <v>32.5366666666667</v>
+        <v>32.5366666667</v>
       </c>
       <c r="V125" t="n">
         <v>31.23</v>
@@ -63044,22 +63044,22 @@
         <v>46.68</v>
       </c>
       <c r="I127" t="n">
-        <v>45.6885714285714</v>
+        <v>45.6885714286</v>
       </c>
       <c r="J127" t="n">
-        <v>44.6971428571429</v>
+        <v>44.6971428571</v>
       </c>
       <c r="K127" t="n">
-        <v>43.7057142857143</v>
+        <v>43.7057142857</v>
       </c>
       <c r="L127" t="n">
-        <v>42.7142857142857</v>
+        <v>42.7142857143</v>
       </c>
       <c r="M127" t="n">
-        <v>41.7228571428571</v>
+        <v>41.7228571429</v>
       </c>
       <c r="N127" t="n">
-        <v>40.7314285714286</v>
+        <v>40.7314285714</v>
       </c>
       <c r="O127" t="n">
         <v>39.74</v>
@@ -63176,46 +63176,46 @@
         <v>89.31</v>
       </c>
       <c r="H130" t="n">
-        <v>85.1133333333333</v>
+        <v>85.1133333333</v>
       </c>
       <c r="I130" t="n">
-        <v>80.9166666666667</v>
+        <v>80.9166666667</v>
       </c>
       <c r="J130" t="n">
         <v>76.72</v>
       </c>
       <c r="K130" t="n">
-        <v>72.5233333333333</v>
+        <v>72.5233333333</v>
       </c>
       <c r="L130" t="n">
-        <v>68.3266666666667</v>
+        <v>68.3266666667</v>
       </c>
       <c r="M130" t="n">
         <v>64.13</v>
       </c>
       <c r="N130" t="n">
-        <v>63.5722222222222</v>
+        <v>63.5722222222</v>
       </c>
       <c r="O130" t="n">
-        <v>63.0144444444444</v>
+        <v>63.0144444444</v>
       </c>
       <c r="P130" t="n">
-        <v>62.4566666666667</v>
+        <v>62.4566666667</v>
       </c>
       <c r="Q130" t="n">
-        <v>61.8988888888889</v>
+        <v>61.8988888889</v>
       </c>
       <c r="R130" t="n">
-        <v>61.3411111111111</v>
+        <v>61.3411111111</v>
       </c>
       <c r="S130" t="n">
-        <v>60.7833333333333</v>
+        <v>60.7833333333</v>
       </c>
       <c r="T130" t="n">
-        <v>60.2255555555556</v>
+        <v>60.2255555556</v>
       </c>
       <c r="U130" t="n">
-        <v>59.6677777777778</v>
+        <v>59.6677777778</v>
       </c>
       <c r="V130" t="n">
         <v>59.11</v>
@@ -63296,10 +63296,10 @@
         <v>50.07</v>
       </c>
       <c r="R132" t="n">
-        <v>45.6833333333333</v>
+        <v>45.6833333333</v>
       </c>
       <c r="S132" t="n">
-        <v>41.2966666666667</v>
+        <v>41.2966666667</v>
       </c>
       <c r="T132" t="n">
         <v>36.91</v>
@@ -63353,22 +63353,22 @@
         <v>95.13</v>
       </c>
       <c r="N133" t="n">
-        <v>94.0928571428571</v>
+        <v>94.0928571429</v>
       </c>
       <c r="O133" t="n">
-        <v>93.0557142857143</v>
+        <v>93.0557142857</v>
       </c>
       <c r="P133" t="n">
-        <v>92.0185714285714</v>
+        <v>92.0185714286</v>
       </c>
       <c r="Q133" t="n">
-        <v>90.9814285714286</v>
+        <v>90.9814285714</v>
       </c>
       <c r="R133" t="n">
-        <v>89.9442857142857</v>
+        <v>89.9442857143</v>
       </c>
       <c r="S133" t="n">
-        <v>88.9071428571429</v>
+        <v>88.9071428571</v>
       </c>
       <c r="T133" t="n">
         <v>87.87</v>
@@ -63861,28 +63861,28 @@
         <v>85.24</v>
       </c>
       <c r="J143" t="n">
-        <v>84.1633333333333</v>
+        <v>84.1633333333</v>
       </c>
       <c r="K143" t="n">
-        <v>83.0866666666667</v>
+        <v>83.0866666667</v>
       </c>
       <c r="L143" t="n">
         <v>82.01</v>
       </c>
       <c r="M143" t="n">
-        <v>81.1166666666667</v>
+        <v>81.1166666667</v>
       </c>
       <c r="N143" t="n">
-        <v>80.2233333333333</v>
+        <v>80.2233333333</v>
       </c>
       <c r="O143" t="n">
         <v>79.33</v>
       </c>
       <c r="P143" t="n">
-        <v>78.1333333333333</v>
+        <v>78.1333333333</v>
       </c>
       <c r="Q143" t="n">
-        <v>76.9366666666667</v>
+        <v>76.9366666667</v>
       </c>
       <c r="R143" t="n">
         <v>75.74</v>
@@ -63924,10 +63924,10 @@
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>2.65333333333333</v>
+        <v>2.6533333333</v>
       </c>
       <c r="G144" t="n">
-        <v>5.30666666666667</v>
+        <v>5.3066666667</v>
       </c>
       <c r="H144" t="n">
         <v>7.96</v>
@@ -63936,19 +63936,19 @@
         <v>8.41</v>
       </c>
       <c r="J144" t="n">
-        <v>10.0966666666667</v>
+        <v>10.0966666667</v>
       </c>
       <c r="K144" t="n">
-        <v>11.7833333333333</v>
+        <v>11.7833333333</v>
       </c>
       <c r="L144" t="n">
         <v>13.47</v>
       </c>
       <c r="M144" t="n">
-        <v>10.0266666666667</v>
+        <v>10.0266666667</v>
       </c>
       <c r="N144" t="n">
-        <v>6.58333333333333</v>
+        <v>6.5833333333</v>
       </c>
       <c r="O144" t="n">
         <v>3.14</v>
@@ -64145,10 +64145,10 @@
         <v>20.63</v>
       </c>
       <c r="I148" t="n">
-        <v>20.5366666666667</v>
+        <v>20.5366666667</v>
       </c>
       <c r="J148" t="n">
-        <v>20.4433333333333</v>
+        <v>20.4433333333</v>
       </c>
       <c r="K148" t="n">
         <v>20.35</v>
@@ -64326,10 +64326,10 @@
         <v>80.83</v>
       </c>
       <c r="G151" t="n">
-        <v>80.8166666666667</v>
+        <v>80.8166666667</v>
       </c>
       <c r="H151" t="n">
-        <v>80.8033333333333</v>
+        <v>80.8033333333</v>
       </c>
       <c r="I151" t="n">
         <v>80.79</v>
@@ -67208,7 +67208,7 @@
       </c>
       <c r="W60"/>
       <c r="X60" t="n">
-        <v>59.2391535916669</v>
+        <v>59.2391535917</v>
       </c>
       <c r="Y60"/>
       <c r="Z60"/>
